--- a/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>SHG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,87 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11400900</v>
+        <v>12723000</v>
       </c>
       <c r="E8" s="3">
-        <v>9910900</v>
+        <v>10993700</v>
       </c>
       <c r="F8" s="3">
-        <v>9438500</v>
+        <v>9556900</v>
       </c>
       <c r="G8" s="3">
-        <v>9349000</v>
+        <v>9101400</v>
       </c>
       <c r="H8" s="3">
-        <v>10130800</v>
+        <v>9015100</v>
       </c>
       <c r="I8" s="3">
-        <v>10573900</v>
+        <v>9769000</v>
       </c>
       <c r="J8" s="3">
+        <v>10196300</v>
+      </c>
+      <c r="K8" s="3">
         <v>11758400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12402600</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,9 +773,12 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,9 +806,12 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,39 +920,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-206100</v>
+        <v>-468900</v>
       </c>
       <c r="E15" s="3">
-        <v>-201900</v>
+        <v>-198700</v>
       </c>
       <c r="F15" s="3">
-        <v>-211400</v>
+        <v>-194700</v>
       </c>
       <c r="G15" s="3">
-        <v>-225900</v>
+        <v>-203800</v>
       </c>
       <c r="H15" s="3">
-        <v>-262900</v>
+        <v>-217900</v>
       </c>
       <c r="I15" s="3">
-        <v>-268600</v>
+        <v>-253500</v>
       </c>
       <c r="J15" s="3">
+        <v>-259000</v>
+      </c>
+      <c r="K15" s="3">
         <v>-257500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-269100</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4193600</v>
+        <v>4835200</v>
       </c>
       <c r="E17" s="3">
-        <v>4008700</v>
+        <v>4043800</v>
       </c>
       <c r="F17" s="3">
-        <v>4316400</v>
+        <v>3865600</v>
       </c>
       <c r="G17" s="3">
-        <v>4585100</v>
+        <v>4162200</v>
       </c>
       <c r="H17" s="3">
-        <v>5220700</v>
+        <v>4421400</v>
       </c>
       <c r="I17" s="3">
-        <v>5972500</v>
+        <v>5034300</v>
       </c>
       <c r="J17" s="3">
+        <v>5759200</v>
+      </c>
+      <c r="K17" s="3">
         <v>7000400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6837100</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7207300</v>
+        <v>7887800</v>
       </c>
       <c r="E18" s="3">
-        <v>5902100</v>
+        <v>6949900</v>
       </c>
       <c r="F18" s="3">
-        <v>5122100</v>
+        <v>5691300</v>
       </c>
       <c r="G18" s="3">
-        <v>4763800</v>
+        <v>4939200</v>
       </c>
       <c r="H18" s="3">
-        <v>4910100</v>
+        <v>4593700</v>
       </c>
       <c r="I18" s="3">
-        <v>4601500</v>
+        <v>4734800</v>
       </c>
       <c r="J18" s="3">
+        <v>4437100</v>
+      </c>
+      <c r="K18" s="3">
         <v>4758100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5565600</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3455300</v>
+        <v>-3909400</v>
       </c>
       <c r="E20" s="3">
-        <v>-2713300</v>
+        <v>-3331900</v>
       </c>
       <c r="F20" s="3">
-        <v>-2458900</v>
+        <v>-2616400</v>
       </c>
       <c r="G20" s="3">
-        <v>-2125700</v>
+        <v>-2371100</v>
       </c>
       <c r="H20" s="3">
-        <v>-2501300</v>
+        <v>-2049800</v>
       </c>
       <c r="I20" s="3">
-        <v>-2348500</v>
+        <v>-2412000</v>
       </c>
       <c r="J20" s="3">
+        <v>-2264600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2044300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1656200</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4008600</v>
+        <v>4526800</v>
       </c>
       <c r="E21" s="3">
-        <v>3404200</v>
+        <v>3862500</v>
       </c>
       <c r="F21" s="3">
-        <v>2884100</v>
+        <v>3280200</v>
       </c>
       <c r="G21" s="3">
-        <v>2875100</v>
+        <v>2778600</v>
       </c>
       <c r="H21" s="3">
-        <v>2674800</v>
+        <v>2769800</v>
       </c>
       <c r="I21" s="3">
-        <v>2524800</v>
+        <v>2576200</v>
       </c>
       <c r="J21" s="3">
+        <v>2431500</v>
+      </c>
+      <c r="K21" s="3">
         <v>2967700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4165500</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3752000</v>
+        <v>3978300</v>
       </c>
       <c r="E23" s="3">
-        <v>3188900</v>
+        <v>3618000</v>
       </c>
       <c r="F23" s="3">
-        <v>2663200</v>
+        <v>3075000</v>
       </c>
       <c r="G23" s="3">
-        <v>2638100</v>
+        <v>2568100</v>
       </c>
       <c r="H23" s="3">
-        <v>2408800</v>
+        <v>2543900</v>
       </c>
       <c r="I23" s="3">
-        <v>2253000</v>
+        <v>2322700</v>
       </c>
       <c r="J23" s="3">
+        <v>2172500</v>
+      </c>
+      <c r="K23" s="3">
         <v>2713700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3909400</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1065400</v>
+        <v>1028000</v>
       </c>
       <c r="E24" s="3">
-        <v>712400</v>
+        <v>1027400</v>
       </c>
       <c r="F24" s="3">
-        <v>290300</v>
+        <v>687000</v>
       </c>
       <c r="G24" s="3">
-        <v>583500</v>
+        <v>279900</v>
       </c>
       <c r="H24" s="3">
-        <v>561100</v>
+        <v>562600</v>
       </c>
       <c r="I24" s="3">
-        <v>523000</v>
+        <v>541100</v>
       </c>
       <c r="J24" s="3">
+        <v>504300</v>
+      </c>
+      <c r="K24" s="3">
         <v>620500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>860900</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2686500</v>
+        <v>2950300</v>
       </c>
       <c r="E26" s="3">
-        <v>2476400</v>
+        <v>2590600</v>
       </c>
       <c r="F26" s="3">
-        <v>2372900</v>
+        <v>2388000</v>
       </c>
       <c r="G26" s="3">
-        <v>2054600</v>
+        <v>2288200</v>
       </c>
       <c r="H26" s="3">
-        <v>1847700</v>
+        <v>1981200</v>
       </c>
       <c r="I26" s="3">
-        <v>1730000</v>
+        <v>1781700</v>
       </c>
       <c r="J26" s="3">
+        <v>1668300</v>
+      </c>
+      <c r="K26" s="3">
         <v>2093200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3048500</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2617700</v>
+        <v>2706600</v>
       </c>
       <c r="E27" s="3">
-        <v>2436000</v>
+        <v>2524300</v>
       </c>
       <c r="F27" s="3">
-        <v>2284700</v>
+        <v>2349000</v>
       </c>
       <c r="G27" s="3">
-        <v>1907400</v>
+        <v>2203100</v>
       </c>
       <c r="H27" s="3">
-        <v>1671000</v>
+        <v>1839300</v>
       </c>
       <c r="I27" s="3">
-        <v>1521200</v>
+        <v>1611300</v>
       </c>
       <c r="J27" s="3">
+        <v>1466900</v>
+      </c>
+      <c r="K27" s="3">
         <v>1865700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2643900</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3455300</v>
+        <v>3909400</v>
       </c>
       <c r="E32" s="3">
-        <v>2713300</v>
+        <v>3331900</v>
       </c>
       <c r="F32" s="3">
-        <v>2458900</v>
+        <v>2616400</v>
       </c>
       <c r="G32" s="3">
-        <v>2125700</v>
+        <v>2371100</v>
       </c>
       <c r="H32" s="3">
-        <v>2501300</v>
+        <v>2049800</v>
       </c>
       <c r="I32" s="3">
-        <v>2348500</v>
+        <v>2412000</v>
       </c>
       <c r="J32" s="3">
+        <v>2264600</v>
+      </c>
+      <c r="K32" s="3">
         <v>2044300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1656200</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2617700</v>
+        <v>2706600</v>
       </c>
       <c r="E33" s="3">
-        <v>2436000</v>
+        <v>2524300</v>
       </c>
       <c r="F33" s="3">
-        <v>2284700</v>
+        <v>2349000</v>
       </c>
       <c r="G33" s="3">
-        <v>1907400</v>
+        <v>2203100</v>
       </c>
       <c r="H33" s="3">
-        <v>1671000</v>
+        <v>1839300</v>
       </c>
       <c r="I33" s="3">
-        <v>1521200</v>
+        <v>1611300</v>
       </c>
       <c r="J33" s="3">
+        <v>1466900</v>
+      </c>
+      <c r="K33" s="3">
         <v>1865700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2643900</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2617700</v>
+        <v>2706600</v>
       </c>
       <c r="E35" s="3">
-        <v>2436000</v>
+        <v>2524300</v>
       </c>
       <c r="F35" s="3">
-        <v>2284700</v>
+        <v>2349000</v>
       </c>
       <c r="G35" s="3">
-        <v>1907400</v>
+        <v>2203100</v>
       </c>
       <c r="H35" s="3">
-        <v>1671000</v>
+        <v>1839300</v>
       </c>
       <c r="I35" s="3">
-        <v>1521200</v>
+        <v>1611300</v>
       </c>
       <c r="J35" s="3">
+        <v>1466900</v>
+      </c>
+      <c r="K35" s="3">
         <v>1865700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2643900</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,68 +1645,75 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17584700</v>
+        <v>25156400</v>
       </c>
       <c r="E41" s="3">
-        <v>21536200</v>
+        <v>16956700</v>
       </c>
       <c r="F41" s="3">
-        <v>20085200</v>
+        <v>20767100</v>
       </c>
       <c r="G41" s="3">
-        <v>22409200</v>
+        <v>19367900</v>
       </c>
       <c r="H41" s="3">
-        <v>21225800</v>
+        <v>21608900</v>
       </c>
       <c r="I41" s="3">
-        <v>18963200</v>
+        <v>20467800</v>
       </c>
       <c r="J41" s="3">
+        <v>18286000</v>
+      </c>
+      <c r="K41" s="3">
         <v>21492900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6880200</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>94181400</v>
+        <v>130374000</v>
       </c>
       <c r="E42" s="3">
-        <v>29772600</v>
+        <v>90817800</v>
       </c>
       <c r="F42" s="3">
-        <v>27816500</v>
+        <v>28709300</v>
       </c>
       <c r="G42" s="3">
-        <v>23417000</v>
+        <v>26823100</v>
       </c>
       <c r="H42" s="3">
-        <v>24081000</v>
+        <v>22580600</v>
       </c>
       <c r="I42" s="3">
-        <v>19413700</v>
+        <v>23221000</v>
       </c>
       <c r="J42" s="3">
+        <v>18720300</v>
+      </c>
+      <c r="K42" s="3">
         <v>36475400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>19224100</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1649,9 +1741,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,9 +1774,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1709,9 +1807,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1739,99 +1840,111 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>563900</v>
+        <v>1176800</v>
       </c>
       <c r="E47" s="3">
-        <v>530300</v>
+        <v>543800</v>
       </c>
       <c r="F47" s="3">
-        <v>297000</v>
+        <v>511300</v>
       </c>
       <c r="G47" s="3">
-        <v>330100</v>
+        <v>286400</v>
       </c>
       <c r="H47" s="3">
-        <v>287200</v>
+        <v>318300</v>
       </c>
       <c r="I47" s="3">
-        <v>276000</v>
+        <v>276900</v>
       </c>
       <c r="J47" s="3">
+        <v>266100</v>
+      </c>
+      <c r="K47" s="3">
         <v>250800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>224000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2922100</v>
+        <v>3703300</v>
       </c>
       <c r="E48" s="3">
-        <v>2889700</v>
+        <v>2817800</v>
       </c>
       <c r="F48" s="3">
-        <v>2939000</v>
+        <v>2786500</v>
       </c>
       <c r="G48" s="3">
-        <v>2741900</v>
+        <v>2834000</v>
       </c>
       <c r="H48" s="3">
-        <v>2868400</v>
+        <v>2643900</v>
       </c>
       <c r="I48" s="3">
-        <v>3279800</v>
+        <v>2766000</v>
       </c>
       <c r="J48" s="3">
+        <v>3162700</v>
+      </c>
+      <c r="K48" s="3">
         <v>2048700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2942100</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3628900</v>
+        <v>4502600</v>
       </c>
       <c r="E49" s="3">
-        <v>3588500</v>
+        <v>3499300</v>
       </c>
       <c r="F49" s="3">
-        <v>3550300</v>
+        <v>3460300</v>
       </c>
       <c r="G49" s="3">
-        <v>3583700</v>
+        <v>3423500</v>
       </c>
       <c r="H49" s="3">
-        <v>3488400</v>
+        <v>3455700</v>
       </c>
       <c r="I49" s="3">
-        <v>3550200</v>
+        <v>3363800</v>
       </c>
       <c r="J49" s="3">
+        <v>3423400</v>
+      </c>
+      <c r="K49" s="3">
         <v>3829000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3783100</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>365000</v>
+        <v>198500</v>
       </c>
       <c r="E52" s="3">
-        <v>503900</v>
+        <v>352000</v>
       </c>
       <c r="F52" s="3">
-        <v>542600</v>
+        <v>485900</v>
       </c>
       <c r="G52" s="3">
-        <v>140800</v>
+        <v>523300</v>
       </c>
       <c r="H52" s="3">
-        <v>199300</v>
+        <v>135800</v>
       </c>
       <c r="I52" s="3">
-        <v>368900</v>
+        <v>192200</v>
       </c>
       <c r="J52" s="3">
+        <v>355800</v>
+      </c>
+      <c r="K52" s="3">
         <v>129700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>26300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>386064000</v>
+        <v>447460000</v>
       </c>
       <c r="E54" s="3">
-        <v>358097000</v>
+        <v>372276000</v>
       </c>
       <c r="F54" s="3">
-        <v>332372000</v>
+        <v>345308000</v>
       </c>
       <c r="G54" s="3">
-        <v>311260000</v>
+        <v>320501000</v>
       </c>
       <c r="H54" s="3">
-        <v>283938000</v>
+        <v>300144000</v>
       </c>
       <c r="I54" s="3">
-        <v>261484000</v>
+        <v>273798000</v>
       </c>
       <c r="J54" s="3">
+        <v>252145000</v>
+      </c>
+      <c r="K54" s="3">
         <v>256149000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>259238000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,38 +2137,42 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9315700</v>
+        <v>11008900</v>
       </c>
       <c r="E57" s="3">
-        <v>8867400</v>
+        <v>8983000</v>
       </c>
       <c r="F57" s="3">
-        <v>7111300</v>
+        <v>8550700</v>
       </c>
       <c r="G57" s="3">
-        <v>9216700</v>
+        <v>6857300</v>
       </c>
       <c r="H57" s="3">
-        <v>7152200</v>
+        <v>8887500</v>
       </c>
       <c r="I57" s="3">
-        <v>5110400</v>
+        <v>6896800</v>
       </c>
       <c r="J57" s="3">
+        <v>4927800</v>
+      </c>
+      <c r="K57" s="3">
         <v>12956700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6784100</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2067,39 +2200,45 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3147500</v>
+        <v>3278000</v>
       </c>
       <c r="E59" s="3">
-        <v>2838600</v>
+        <v>3035100</v>
       </c>
       <c r="F59" s="3">
-        <v>2618900</v>
+        <v>2737200</v>
       </c>
       <c r="G59" s="3">
-        <v>2505900</v>
+        <v>2525400</v>
       </c>
       <c r="H59" s="3">
-        <v>2937900</v>
+        <v>2416400</v>
       </c>
       <c r="I59" s="3">
-        <v>2998300</v>
+        <v>2833000</v>
       </c>
       <c r="J59" s="3">
+        <v>2891200</v>
+      </c>
+      <c r="K59" s="3">
         <v>6317900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3833300</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2127,69 +2266,78 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>70553200</v>
+        <v>82222900</v>
       </c>
       <c r="E61" s="3">
-        <v>57960700</v>
+        <v>68033400</v>
       </c>
       <c r="F61" s="3">
-        <v>50732200</v>
+        <v>55890600</v>
       </c>
       <c r="G61" s="3">
-        <v>46759200</v>
+        <v>48920400</v>
       </c>
       <c r="H61" s="3">
-        <v>31361100</v>
+        <v>45089200</v>
       </c>
       <c r="I61" s="3">
-        <v>31492800</v>
+        <v>30241000</v>
       </c>
       <c r="J61" s="3">
+        <v>30368100</v>
+      </c>
+      <c r="K61" s="3">
         <v>32624300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>53793200</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>552500</v>
+        <v>915100</v>
       </c>
       <c r="E62" s="3">
-        <v>374500</v>
+        <v>532800</v>
       </c>
       <c r="F62" s="3">
-        <v>731100</v>
+        <v>361100</v>
       </c>
       <c r="G62" s="3">
-        <v>790500</v>
+        <v>705000</v>
       </c>
       <c r="H62" s="3">
-        <v>851100</v>
+        <v>762300</v>
       </c>
       <c r="I62" s="3">
-        <v>741400</v>
+        <v>820700</v>
       </c>
       <c r="J62" s="3">
+        <v>714900</v>
+      </c>
+      <c r="K62" s="3">
         <v>850000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>356055000</v>
+        <v>415726000</v>
       </c>
       <c r="E66" s="3">
-        <v>330529000</v>
+        <v>343339000</v>
       </c>
       <c r="F66" s="3">
-        <v>306239000</v>
+        <v>318724000</v>
       </c>
       <c r="G66" s="3">
-        <v>285355000</v>
+        <v>295302000</v>
       </c>
       <c r="H66" s="3">
-        <v>259424000</v>
+        <v>275164000</v>
       </c>
       <c r="I66" s="3">
-        <v>238352000</v>
+        <v>250159000</v>
       </c>
       <c r="J66" s="3">
+        <v>229839000</v>
+      </c>
+      <c r="K66" s="3">
         <v>233997000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>237281000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,39 +2545,45 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>230200</v>
+        <v>292800</v>
       </c>
       <c r="E70" s="3">
-        <v>230200</v>
+        <v>222000</v>
       </c>
       <c r="F70" s="3">
-        <v>230200</v>
+        <v>222000</v>
       </c>
       <c r="G70" s="3">
-        <v>230200</v>
+        <v>222000</v>
       </c>
       <c r="H70" s="3">
-        <v>230200</v>
+        <v>222000</v>
       </c>
       <c r="I70" s="3">
-        <v>230200</v>
+        <v>222000</v>
       </c>
       <c r="J70" s="3">
+        <v>222000</v>
+      </c>
+      <c r="K70" s="3">
         <v>460400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>246600</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19285900</v>
+        <v>20675900</v>
       </c>
       <c r="E72" s="3">
-        <v>17464100</v>
+        <v>18597100</v>
       </c>
       <c r="F72" s="3">
-        <v>15657600</v>
+        <v>16840400</v>
       </c>
       <c r="G72" s="3">
-        <v>14858900</v>
+        <v>15098400</v>
       </c>
       <c r="H72" s="3">
-        <v>13330600</v>
+        <v>14328200</v>
       </c>
       <c r="I72" s="3">
-        <v>11918300</v>
+        <v>12854500</v>
       </c>
       <c r="J72" s="3">
+        <v>11492700</v>
+      </c>
+      <c r="K72" s="3">
         <v>10680700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9746800</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29779300</v>
+        <v>31441300</v>
       </c>
       <c r="E76" s="3">
-        <v>27337900</v>
+        <v>28715800</v>
       </c>
       <c r="F76" s="3">
-        <v>25901900</v>
+        <v>26361500</v>
       </c>
       <c r="G76" s="3">
-        <v>25675100</v>
+        <v>24976900</v>
       </c>
       <c r="H76" s="3">
-        <v>24284400</v>
+        <v>24758100</v>
       </c>
       <c r="I76" s="3">
-        <v>22901800</v>
+        <v>23417100</v>
       </c>
       <c r="J76" s="3">
+        <v>22083900</v>
+      </c>
+      <c r="K76" s="3">
         <v>21692000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21710300</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2617700</v>
+        <v>2706600</v>
       </c>
       <c r="E81" s="3">
-        <v>2436000</v>
+        <v>2524300</v>
       </c>
       <c r="F81" s="3">
-        <v>2284700</v>
+        <v>2349000</v>
       </c>
       <c r="G81" s="3">
-        <v>1907400</v>
+        <v>2203100</v>
       </c>
       <c r="H81" s="3">
-        <v>1671000</v>
+        <v>1839300</v>
       </c>
       <c r="I81" s="3">
-        <v>1521200</v>
+        <v>1611300</v>
       </c>
       <c r="J81" s="3">
+        <v>1466900</v>
+      </c>
+      <c r="K81" s="3">
         <v>1865700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2643900</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>253600</v>
+        <v>548500</v>
       </c>
       <c r="E83" s="3">
-        <v>212800</v>
+        <v>244600</v>
       </c>
       <c r="F83" s="3">
-        <v>218400</v>
+        <v>205200</v>
       </c>
       <c r="G83" s="3">
-        <v>234300</v>
+        <v>210600</v>
       </c>
       <c r="H83" s="3">
-        <v>262900</v>
+        <v>225900</v>
       </c>
       <c r="I83" s="3">
-        <v>268600</v>
+        <v>253500</v>
       </c>
       <c r="J83" s="3">
+        <v>259000</v>
+      </c>
+      <c r="K83" s="3">
         <v>251000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>259000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5309000</v>
+        <v>5815000</v>
       </c>
       <c r="E89" s="3">
-        <v>857900</v>
+        <v>-5119400</v>
       </c>
       <c r="F89" s="3">
-        <v>3189600</v>
+        <v>827300</v>
       </c>
       <c r="G89" s="3">
-        <v>2495100</v>
+        <v>3075700</v>
       </c>
       <c r="H89" s="3">
-        <v>-1747700</v>
+        <v>2406000</v>
       </c>
       <c r="I89" s="3">
-        <v>-923600</v>
+        <v>-1685300</v>
       </c>
       <c r="J89" s="3">
+        <v>-890600</v>
+      </c>
+      <c r="K89" s="3">
         <v>7617400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1269900</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-120100</v>
+        <v>-219000</v>
       </c>
       <c r="E91" s="3">
-        <v>-130400</v>
+        <v>-115800</v>
       </c>
       <c r="F91" s="3">
-        <v>-211800</v>
+        <v>-125700</v>
       </c>
       <c r="G91" s="3">
-        <v>-104900</v>
+        <v>-204200</v>
       </c>
       <c r="H91" s="3">
-        <v>-153000</v>
+        <v>-101100</v>
       </c>
       <c r="I91" s="3">
-        <v>-247000</v>
+        <v>-147500</v>
       </c>
       <c r="J91" s="3">
+        <v>-238100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-246000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-423200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4630600</v>
+        <v>-18377200</v>
       </c>
       <c r="E94" s="3">
-        <v>-8991100</v>
+        <v>-4465200</v>
       </c>
       <c r="F94" s="3">
-        <v>-6378900</v>
+        <v>-8669900</v>
       </c>
       <c r="G94" s="3">
-        <v>-4442400</v>
+        <v>-6151000</v>
       </c>
       <c r="H94" s="3">
-        <v>807100</v>
+        <v>-4283800</v>
       </c>
       <c r="I94" s="3">
-        <v>2852600</v>
+        <v>778200</v>
       </c>
       <c r="J94" s="3">
+        <v>2750700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2121600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3702100</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-600400</v>
+        <v>-672900</v>
       </c>
       <c r="E96" s="3">
-        <v>-593500</v>
+        <v>-578900</v>
       </c>
       <c r="F96" s="3">
-        <v>-562000</v>
+        <v>-572300</v>
       </c>
       <c r="G96" s="3">
-        <v>-458800</v>
+        <v>-542000</v>
       </c>
       <c r="H96" s="3">
-        <v>-335800</v>
+        <v>-442400</v>
       </c>
       <c r="I96" s="3">
-        <v>-356200</v>
+        <v>-323800</v>
       </c>
       <c r="J96" s="3">
+        <v>-343500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-546600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-527000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>11597500</v>
+        <v>12861800</v>
       </c>
       <c r="E100" s="3">
-        <v>8679300</v>
+        <v>11183300</v>
       </c>
       <c r="F100" s="3">
-        <v>4069500</v>
+        <v>8369300</v>
       </c>
       <c r="G100" s="3">
-        <v>1102700</v>
+        <v>3924100</v>
       </c>
       <c r="H100" s="3">
-        <v>577000</v>
+        <v>1063300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1081000</v>
+        <v>556400</v>
       </c>
       <c r="J100" s="3">
+        <v>-1042400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4638300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1655800</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-25700</v>
+        <v>23800</v>
       </c>
       <c r="E101" s="3">
-        <v>-38700</v>
+        <v>-24800</v>
       </c>
       <c r="F101" s="3">
-        <v>-19000</v>
+        <v>-37300</v>
       </c>
       <c r="G101" s="3">
-        <v>7000</v>
+        <v>-18300</v>
       </c>
       <c r="H101" s="3">
-        <v>13600</v>
+        <v>6800</v>
       </c>
       <c r="I101" s="3">
-        <v>3300</v>
+        <v>13200</v>
       </c>
       <c r="J101" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K101" s="3">
         <v>3600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1632200</v>
+        <v>323500</v>
       </c>
       <c r="E102" s="3">
-        <v>507500</v>
+        <v>1573900</v>
       </c>
       <c r="F102" s="3">
-        <v>861200</v>
+        <v>489300</v>
       </c>
       <c r="G102" s="3">
-        <v>-837600</v>
+        <v>830500</v>
       </c>
       <c r="H102" s="3">
-        <v>-350100</v>
+        <v>-807700</v>
       </c>
       <c r="I102" s="3">
-        <v>851300</v>
+        <v>-337600</v>
       </c>
       <c r="J102" s="3">
+        <v>820900</v>
+      </c>
+      <c r="K102" s="3">
         <v>861100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-777400</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12723000</v>
+        <v>13194200</v>
       </c>
       <c r="E8" s="3">
-        <v>10993700</v>
+        <v>11400900</v>
       </c>
       <c r="F8" s="3">
-        <v>9556900</v>
+        <v>9910900</v>
       </c>
       <c r="G8" s="3">
-        <v>9101400</v>
+        <v>9438500</v>
       </c>
       <c r="H8" s="3">
-        <v>9015100</v>
+        <v>9349000</v>
       </c>
       <c r="I8" s="3">
-        <v>9769000</v>
+        <v>10130800</v>
       </c>
       <c r="J8" s="3">
-        <v>10196300</v>
+        <v>10573900</v>
       </c>
       <c r="K8" s="3">
         <v>11758400</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-468900</v>
+        <v>-486200</v>
       </c>
       <c r="E15" s="3">
-        <v>-198700</v>
+        <v>-206100</v>
       </c>
       <c r="F15" s="3">
-        <v>-194700</v>
+        <v>-201900</v>
       </c>
       <c r="G15" s="3">
-        <v>-203800</v>
+        <v>-211400</v>
       </c>
       <c r="H15" s="3">
-        <v>-217900</v>
+        <v>-225900</v>
       </c>
       <c r="I15" s="3">
-        <v>-253500</v>
+        <v>-262900</v>
       </c>
       <c r="J15" s="3">
-        <v>-259000</v>
+        <v>-268600</v>
       </c>
       <c r="K15" s="3">
         <v>-257500</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4835200</v>
+        <v>5014300</v>
       </c>
       <c r="E17" s="3">
-        <v>4043800</v>
+        <v>4193600</v>
       </c>
       <c r="F17" s="3">
-        <v>3865600</v>
+        <v>4008700</v>
       </c>
       <c r="G17" s="3">
-        <v>4162200</v>
+        <v>4316400</v>
       </c>
       <c r="H17" s="3">
-        <v>4421400</v>
+        <v>4585100</v>
       </c>
       <c r="I17" s="3">
-        <v>5034300</v>
+        <v>5220700</v>
       </c>
       <c r="J17" s="3">
-        <v>5759200</v>
+        <v>5972500</v>
       </c>
       <c r="K17" s="3">
         <v>7000400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7887800</v>
+        <v>8179900</v>
       </c>
       <c r="E18" s="3">
-        <v>6949900</v>
+        <v>7207300</v>
       </c>
       <c r="F18" s="3">
-        <v>5691300</v>
+        <v>5902100</v>
       </c>
       <c r="G18" s="3">
-        <v>4939200</v>
+        <v>5122100</v>
       </c>
       <c r="H18" s="3">
-        <v>4593700</v>
+        <v>4763800</v>
       </c>
       <c r="I18" s="3">
-        <v>4734800</v>
+        <v>4910100</v>
       </c>
       <c r="J18" s="3">
-        <v>4437100</v>
+        <v>4601500</v>
       </c>
       <c r="K18" s="3">
         <v>4758100</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3909400</v>
+        <v>-4054200</v>
       </c>
       <c r="E20" s="3">
-        <v>-3331900</v>
+        <v>-3455300</v>
       </c>
       <c r="F20" s="3">
-        <v>-2616400</v>
+        <v>-2713300</v>
       </c>
       <c r="G20" s="3">
-        <v>-2371100</v>
+        <v>-2458900</v>
       </c>
       <c r="H20" s="3">
-        <v>-2049800</v>
+        <v>-2125700</v>
       </c>
       <c r="I20" s="3">
-        <v>-2412000</v>
+        <v>-2501300</v>
       </c>
       <c r="J20" s="3">
-        <v>-2264600</v>
+        <v>-2348500</v>
       </c>
       <c r="K20" s="3">
         <v>-2044300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4526800</v>
+        <v>4694500</v>
       </c>
       <c r="E21" s="3">
-        <v>3862500</v>
+        <v>4005600</v>
       </c>
       <c r="F21" s="3">
-        <v>3280200</v>
+        <v>3401700</v>
       </c>
       <c r="G21" s="3">
-        <v>2778600</v>
+        <v>2881500</v>
       </c>
       <c r="H21" s="3">
-        <v>2769800</v>
+        <v>2872300</v>
       </c>
       <c r="I21" s="3">
-        <v>2576200</v>
+        <v>2671700</v>
       </c>
       <c r="J21" s="3">
-        <v>2431500</v>
+        <v>2521600</v>
       </c>
       <c r="K21" s="3">
         <v>2967700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3978300</v>
+        <v>4125700</v>
       </c>
       <c r="E23" s="3">
-        <v>3618000</v>
+        <v>3752000</v>
       </c>
       <c r="F23" s="3">
-        <v>3075000</v>
+        <v>3188900</v>
       </c>
       <c r="G23" s="3">
-        <v>2568100</v>
+        <v>2663200</v>
       </c>
       <c r="H23" s="3">
-        <v>2543900</v>
+        <v>2638100</v>
       </c>
       <c r="I23" s="3">
-        <v>2322700</v>
+        <v>2408800</v>
       </c>
       <c r="J23" s="3">
-        <v>2172500</v>
+        <v>2253000</v>
       </c>
       <c r="K23" s="3">
         <v>2713700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1028000</v>
+        <v>1066100</v>
       </c>
       <c r="E24" s="3">
-        <v>1027400</v>
+        <v>1065400</v>
       </c>
       <c r="F24" s="3">
-        <v>687000</v>
+        <v>712400</v>
       </c>
       <c r="G24" s="3">
-        <v>279900</v>
+        <v>290300</v>
       </c>
       <c r="H24" s="3">
-        <v>562600</v>
+        <v>583500</v>
       </c>
       <c r="I24" s="3">
-        <v>541100</v>
+        <v>561100</v>
       </c>
       <c r="J24" s="3">
-        <v>504300</v>
+        <v>523000</v>
       </c>
       <c r="K24" s="3">
         <v>620500</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2950300</v>
+        <v>3059600</v>
       </c>
       <c r="E26" s="3">
-        <v>2590600</v>
+        <v>2686500</v>
       </c>
       <c r="F26" s="3">
-        <v>2388000</v>
+        <v>2476400</v>
       </c>
       <c r="G26" s="3">
-        <v>2288200</v>
+        <v>2372900</v>
       </c>
       <c r="H26" s="3">
-        <v>1981200</v>
+        <v>2054600</v>
       </c>
       <c r="I26" s="3">
-        <v>1781700</v>
+        <v>1847700</v>
       </c>
       <c r="J26" s="3">
-        <v>1668300</v>
+        <v>1730000</v>
       </c>
       <c r="K26" s="3">
         <v>2093200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2706600</v>
+        <v>2806900</v>
       </c>
       <c r="E27" s="3">
-        <v>2524300</v>
+        <v>2617700</v>
       </c>
       <c r="F27" s="3">
-        <v>2349000</v>
+        <v>2436000</v>
       </c>
       <c r="G27" s="3">
-        <v>2203100</v>
+        <v>2284700</v>
       </c>
       <c r="H27" s="3">
-        <v>1839300</v>
+        <v>1907400</v>
       </c>
       <c r="I27" s="3">
-        <v>1611300</v>
+        <v>1671000</v>
       </c>
       <c r="J27" s="3">
-        <v>1466900</v>
+        <v>1521200</v>
       </c>
       <c r="K27" s="3">
         <v>1865700</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3909400</v>
+        <v>4054200</v>
       </c>
       <c r="E32" s="3">
-        <v>3331900</v>
+        <v>3455300</v>
       </c>
       <c r="F32" s="3">
-        <v>2616400</v>
+        <v>2713300</v>
       </c>
       <c r="G32" s="3">
-        <v>2371100</v>
+        <v>2458900</v>
       </c>
       <c r="H32" s="3">
-        <v>2049800</v>
+        <v>2125700</v>
       </c>
       <c r="I32" s="3">
-        <v>2412000</v>
+        <v>2501300</v>
       </c>
       <c r="J32" s="3">
-        <v>2264600</v>
+        <v>2348500</v>
       </c>
       <c r="K32" s="3">
         <v>2044300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2706600</v>
+        <v>2806900</v>
       </c>
       <c r="E33" s="3">
-        <v>2524300</v>
+        <v>2617700</v>
       </c>
       <c r="F33" s="3">
-        <v>2349000</v>
+        <v>2436000</v>
       </c>
       <c r="G33" s="3">
-        <v>2203100</v>
+        <v>2284700</v>
       </c>
       <c r="H33" s="3">
-        <v>1839300</v>
+        <v>1907400</v>
       </c>
       <c r="I33" s="3">
-        <v>1611300</v>
+        <v>1671000</v>
       </c>
       <c r="J33" s="3">
-        <v>1466900</v>
+        <v>1521200</v>
       </c>
       <c r="K33" s="3">
         <v>1865700</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2706600</v>
+        <v>2806900</v>
       </c>
       <c r="E35" s="3">
-        <v>2524300</v>
+        <v>2617700</v>
       </c>
       <c r="F35" s="3">
-        <v>2349000</v>
+        <v>2436000</v>
       </c>
       <c r="G35" s="3">
-        <v>2203100</v>
+        <v>2284700</v>
       </c>
       <c r="H35" s="3">
-        <v>1839300</v>
+        <v>1907400</v>
       </c>
       <c r="I35" s="3">
-        <v>1611300</v>
+        <v>1671000</v>
       </c>
       <c r="J35" s="3">
-        <v>1466900</v>
+        <v>1521200</v>
       </c>
       <c r="K35" s="3">
         <v>1865700</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>25156400</v>
+        <v>26088100</v>
       </c>
       <c r="E41" s="3">
-        <v>16956700</v>
+        <v>17584700</v>
       </c>
       <c r="F41" s="3">
-        <v>20767100</v>
+        <v>21536200</v>
       </c>
       <c r="G41" s="3">
-        <v>19367900</v>
+        <v>20085200</v>
       </c>
       <c r="H41" s="3">
-        <v>21608900</v>
+        <v>22409200</v>
       </c>
       <c r="I41" s="3">
-        <v>20467800</v>
+        <v>21225800</v>
       </c>
       <c r="J41" s="3">
-        <v>18286000</v>
+        <v>18963200</v>
       </c>
       <c r="K41" s="3">
         <v>21492900</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>130374000</v>
+        <v>135203000</v>
       </c>
       <c r="E42" s="3">
-        <v>90817800</v>
+        <v>94181400</v>
       </c>
       <c r="F42" s="3">
-        <v>28709300</v>
+        <v>29772600</v>
       </c>
       <c r="G42" s="3">
-        <v>26823100</v>
+        <v>27816500</v>
       </c>
       <c r="H42" s="3">
-        <v>22580600</v>
+        <v>23417000</v>
       </c>
       <c r="I42" s="3">
-        <v>23221000</v>
+        <v>24081000</v>
       </c>
       <c r="J42" s="3">
-        <v>18720300</v>
+        <v>19413700</v>
       </c>
       <c r="K42" s="3">
         <v>36475400</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1176800</v>
+        <v>1220400</v>
       </c>
       <c r="E47" s="3">
-        <v>543800</v>
+        <v>563900</v>
       </c>
       <c r="F47" s="3">
-        <v>511300</v>
+        <v>530300</v>
       </c>
       <c r="G47" s="3">
-        <v>286400</v>
+        <v>297000</v>
       </c>
       <c r="H47" s="3">
-        <v>318300</v>
+        <v>330100</v>
       </c>
       <c r="I47" s="3">
-        <v>276900</v>
+        <v>287200</v>
       </c>
       <c r="J47" s="3">
-        <v>266100</v>
+        <v>276000</v>
       </c>
       <c r="K47" s="3">
         <v>250800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3703300</v>
+        <v>3840400</v>
       </c>
       <c r="E48" s="3">
-        <v>2817800</v>
+        <v>2922100</v>
       </c>
       <c r="F48" s="3">
-        <v>2786500</v>
+        <v>2889700</v>
       </c>
       <c r="G48" s="3">
-        <v>2834000</v>
+        <v>2939000</v>
       </c>
       <c r="H48" s="3">
-        <v>2643900</v>
+        <v>2741900</v>
       </c>
       <c r="I48" s="3">
-        <v>2766000</v>
+        <v>2868400</v>
       </c>
       <c r="J48" s="3">
-        <v>3162700</v>
+        <v>3279800</v>
       </c>
       <c r="K48" s="3">
         <v>2048700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4502600</v>
+        <v>4669300</v>
       </c>
       <c r="E49" s="3">
-        <v>3499300</v>
+        <v>3628900</v>
       </c>
       <c r="F49" s="3">
-        <v>3460300</v>
+        <v>3588500</v>
       </c>
       <c r="G49" s="3">
-        <v>3423500</v>
+        <v>3550300</v>
       </c>
       <c r="H49" s="3">
-        <v>3455700</v>
+        <v>3583700</v>
       </c>
       <c r="I49" s="3">
-        <v>3363800</v>
+        <v>3488400</v>
       </c>
       <c r="J49" s="3">
-        <v>3423400</v>
+        <v>3550200</v>
       </c>
       <c r="K49" s="3">
         <v>3829000</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>198500</v>
+        <v>205900</v>
       </c>
       <c r="E52" s="3">
-        <v>352000</v>
+        <v>365000</v>
       </c>
       <c r="F52" s="3">
-        <v>485900</v>
+        <v>503900</v>
       </c>
       <c r="G52" s="3">
-        <v>523300</v>
+        <v>542600</v>
       </c>
       <c r="H52" s="3">
-        <v>135800</v>
+        <v>140800</v>
       </c>
       <c r="I52" s="3">
-        <v>192200</v>
+        <v>199300</v>
       </c>
       <c r="J52" s="3">
-        <v>355800</v>
+        <v>368900</v>
       </c>
       <c r="K52" s="3">
         <v>129700</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>447460000</v>
+        <v>464032000</v>
       </c>
       <c r="E54" s="3">
-        <v>372276000</v>
+        <v>386064000</v>
       </c>
       <c r="F54" s="3">
-        <v>345308000</v>
+        <v>358097000</v>
       </c>
       <c r="G54" s="3">
-        <v>320501000</v>
+        <v>332372000</v>
       </c>
       <c r="H54" s="3">
-        <v>300144000</v>
+        <v>311260000</v>
       </c>
       <c r="I54" s="3">
-        <v>273798000</v>
+        <v>283938000</v>
       </c>
       <c r="J54" s="3">
-        <v>252145000</v>
+        <v>261484000</v>
       </c>
       <c r="K54" s="3">
         <v>256149000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11008900</v>
+        <v>11416700</v>
       </c>
       <c r="E57" s="3">
-        <v>8983000</v>
+        <v>9315700</v>
       </c>
       <c r="F57" s="3">
-        <v>8550700</v>
+        <v>8867400</v>
       </c>
       <c r="G57" s="3">
-        <v>6857300</v>
+        <v>7111300</v>
       </c>
       <c r="H57" s="3">
-        <v>8887500</v>
+        <v>9216700</v>
       </c>
       <c r="I57" s="3">
-        <v>6896800</v>
+        <v>7152200</v>
       </c>
       <c r="J57" s="3">
-        <v>4927800</v>
+        <v>5110400</v>
       </c>
       <c r="K57" s="3">
         <v>12956700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3278000</v>
+        <v>3399400</v>
       </c>
       <c r="E59" s="3">
-        <v>3035100</v>
+        <v>3147500</v>
       </c>
       <c r="F59" s="3">
-        <v>2737200</v>
+        <v>2838600</v>
       </c>
       <c r="G59" s="3">
-        <v>2525400</v>
+        <v>2618900</v>
       </c>
       <c r="H59" s="3">
-        <v>2416400</v>
+        <v>2505900</v>
       </c>
       <c r="I59" s="3">
-        <v>2833000</v>
+        <v>2937900</v>
       </c>
       <c r="J59" s="3">
-        <v>2891200</v>
+        <v>2998300</v>
       </c>
       <c r="K59" s="3">
         <v>6317900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>82222900</v>
+        <v>85268200</v>
       </c>
       <c r="E61" s="3">
-        <v>68033400</v>
+        <v>70553200</v>
       </c>
       <c r="F61" s="3">
-        <v>55890600</v>
+        <v>57960700</v>
       </c>
       <c r="G61" s="3">
-        <v>48920400</v>
+        <v>50732200</v>
       </c>
       <c r="H61" s="3">
-        <v>45089200</v>
+        <v>46759200</v>
       </c>
       <c r="I61" s="3">
-        <v>30241000</v>
+        <v>31361100</v>
       </c>
       <c r="J61" s="3">
-        <v>30368100</v>
+        <v>31492800</v>
       </c>
       <c r="K61" s="3">
         <v>32624300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>915100</v>
+        <v>949000</v>
       </c>
       <c r="E62" s="3">
-        <v>532800</v>
+        <v>552500</v>
       </c>
       <c r="F62" s="3">
-        <v>361100</v>
+        <v>374500</v>
       </c>
       <c r="G62" s="3">
-        <v>705000</v>
+        <v>731100</v>
       </c>
       <c r="H62" s="3">
-        <v>762300</v>
+        <v>790500</v>
       </c>
       <c r="I62" s="3">
-        <v>820700</v>
+        <v>851100</v>
       </c>
       <c r="J62" s="3">
-        <v>714900</v>
+        <v>741400</v>
       </c>
       <c r="K62" s="3">
         <v>850000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>415726000</v>
+        <v>431123000</v>
       </c>
       <c r="E66" s="3">
-        <v>343339000</v>
+        <v>356055000</v>
       </c>
       <c r="F66" s="3">
-        <v>318724000</v>
+        <v>330529000</v>
       </c>
       <c r="G66" s="3">
-        <v>295302000</v>
+        <v>306239000</v>
       </c>
       <c r="H66" s="3">
-        <v>275164000</v>
+        <v>285355000</v>
       </c>
       <c r="I66" s="3">
-        <v>250159000</v>
+        <v>259424000</v>
       </c>
       <c r="J66" s="3">
-        <v>229839000</v>
+        <v>238352000</v>
       </c>
       <c r="K66" s="3">
         <v>233997000</v>
@@ -2555,25 +2555,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>292800</v>
+        <v>303600</v>
       </c>
       <c r="E70" s="3">
-        <v>222000</v>
+        <v>230200</v>
       </c>
       <c r="F70" s="3">
-        <v>222000</v>
+        <v>230200</v>
       </c>
       <c r="G70" s="3">
-        <v>222000</v>
+        <v>230200</v>
       </c>
       <c r="H70" s="3">
-        <v>222000</v>
+        <v>230200</v>
       </c>
       <c r="I70" s="3">
-        <v>222000</v>
+        <v>230200</v>
       </c>
       <c r="J70" s="3">
-        <v>222000</v>
+        <v>230200</v>
       </c>
       <c r="K70" s="3">
         <v>460400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20675900</v>
+        <v>21441700</v>
       </c>
       <c r="E72" s="3">
-        <v>18597100</v>
+        <v>19285900</v>
       </c>
       <c r="F72" s="3">
-        <v>16840400</v>
+        <v>17464100</v>
       </c>
       <c r="G72" s="3">
-        <v>15098400</v>
+        <v>15657600</v>
       </c>
       <c r="H72" s="3">
-        <v>14328200</v>
+        <v>14858900</v>
       </c>
       <c r="I72" s="3">
-        <v>12854500</v>
+        <v>13330600</v>
       </c>
       <c r="J72" s="3">
-        <v>11492700</v>
+        <v>11918300</v>
       </c>
       <c r="K72" s="3">
         <v>10680700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31441300</v>
+        <v>32605900</v>
       </c>
       <c r="E76" s="3">
-        <v>28715800</v>
+        <v>29779300</v>
       </c>
       <c r="F76" s="3">
-        <v>26361500</v>
+        <v>27337900</v>
       </c>
       <c r="G76" s="3">
-        <v>24976900</v>
+        <v>25901900</v>
       </c>
       <c r="H76" s="3">
-        <v>24758100</v>
+        <v>25675100</v>
       </c>
       <c r="I76" s="3">
-        <v>23417100</v>
+        <v>24284400</v>
       </c>
       <c r="J76" s="3">
-        <v>22083900</v>
+        <v>22901800</v>
       </c>
       <c r="K76" s="3">
         <v>21692000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2706600</v>
+        <v>2806900</v>
       </c>
       <c r="E81" s="3">
-        <v>2524300</v>
+        <v>2617700</v>
       </c>
       <c r="F81" s="3">
-        <v>2349000</v>
+        <v>2436000</v>
       </c>
       <c r="G81" s="3">
-        <v>2203100</v>
+        <v>2284700</v>
       </c>
       <c r="H81" s="3">
-        <v>1839300</v>
+        <v>1907400</v>
       </c>
       <c r="I81" s="3">
-        <v>1611300</v>
+        <v>1671000</v>
       </c>
       <c r="J81" s="3">
-        <v>1466900</v>
+        <v>1521200</v>
       </c>
       <c r="K81" s="3">
         <v>1865700</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>548500</v>
+        <v>568800</v>
       </c>
       <c r="E83" s="3">
-        <v>244600</v>
+        <v>253600</v>
       </c>
       <c r="F83" s="3">
-        <v>205200</v>
+        <v>212800</v>
       </c>
       <c r="G83" s="3">
-        <v>210600</v>
+        <v>218400</v>
       </c>
       <c r="H83" s="3">
-        <v>225900</v>
+        <v>234300</v>
       </c>
       <c r="I83" s="3">
-        <v>253500</v>
+        <v>262900</v>
       </c>
       <c r="J83" s="3">
-        <v>259000</v>
+        <v>268600</v>
       </c>
       <c r="K83" s="3">
         <v>251000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5815000</v>
+        <v>6030400</v>
       </c>
       <c r="E89" s="3">
-        <v>-5119400</v>
+        <v>-5309000</v>
       </c>
       <c r="F89" s="3">
-        <v>827300</v>
+        <v>857900</v>
       </c>
       <c r="G89" s="3">
-        <v>3075700</v>
+        <v>3189600</v>
       </c>
       <c r="H89" s="3">
-        <v>2406000</v>
+        <v>2495100</v>
       </c>
       <c r="I89" s="3">
-        <v>-1685300</v>
+        <v>-1747700</v>
       </c>
       <c r="J89" s="3">
-        <v>-890600</v>
+        <v>-923600</v>
       </c>
       <c r="K89" s="3">
         <v>7617400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-219000</v>
+        <v>-227100</v>
       </c>
       <c r="E91" s="3">
-        <v>-115800</v>
+        <v>-120100</v>
       </c>
       <c r="F91" s="3">
-        <v>-125700</v>
+        <v>-130400</v>
       </c>
       <c r="G91" s="3">
-        <v>-204200</v>
+        <v>-211800</v>
       </c>
       <c r="H91" s="3">
-        <v>-101100</v>
+        <v>-104900</v>
       </c>
       <c r="I91" s="3">
-        <v>-147500</v>
+        <v>-153000</v>
       </c>
       <c r="J91" s="3">
-        <v>-238100</v>
+        <v>-247000</v>
       </c>
       <c r="K91" s="3">
         <v>-246000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-18377200</v>
+        <v>-19057800</v>
       </c>
       <c r="E94" s="3">
-        <v>-4465200</v>
+        <v>-4630600</v>
       </c>
       <c r="F94" s="3">
-        <v>-8669900</v>
+        <v>-8991100</v>
       </c>
       <c r="G94" s="3">
-        <v>-6151000</v>
+        <v>-6378900</v>
       </c>
       <c r="H94" s="3">
-        <v>-4283800</v>
+        <v>-4442400</v>
       </c>
       <c r="I94" s="3">
-        <v>778200</v>
+        <v>807100</v>
       </c>
       <c r="J94" s="3">
-        <v>2750700</v>
+        <v>2852600</v>
       </c>
       <c r="K94" s="3">
         <v>-2121600</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-672900</v>
+        <v>-697800</v>
       </c>
       <c r="E96" s="3">
-        <v>-578900</v>
+        <v>-600400</v>
       </c>
       <c r="F96" s="3">
-        <v>-572300</v>
+        <v>-593500</v>
       </c>
       <c r="G96" s="3">
-        <v>-542000</v>
+        <v>-562000</v>
       </c>
       <c r="H96" s="3">
-        <v>-442400</v>
+        <v>-458800</v>
       </c>
       <c r="I96" s="3">
-        <v>-323800</v>
+        <v>-335800</v>
       </c>
       <c r="J96" s="3">
-        <v>-343500</v>
+        <v>-356200</v>
       </c>
       <c r="K96" s="3">
         <v>-546600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>12861800</v>
+        <v>13338200</v>
       </c>
       <c r="E100" s="3">
-        <v>11183300</v>
+        <v>11597500</v>
       </c>
       <c r="F100" s="3">
-        <v>8369300</v>
+        <v>8679300</v>
       </c>
       <c r="G100" s="3">
-        <v>3924100</v>
+        <v>4069500</v>
       </c>
       <c r="H100" s="3">
-        <v>1063300</v>
+        <v>1102700</v>
       </c>
       <c r="I100" s="3">
-        <v>556400</v>
+        <v>577000</v>
       </c>
       <c r="J100" s="3">
-        <v>-1042400</v>
+        <v>-1081000</v>
       </c>
       <c r="K100" s="3">
         <v>-4638300</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>23800</v>
+        <v>24700</v>
       </c>
       <c r="E101" s="3">
-        <v>-24800</v>
+        <v>-25700</v>
       </c>
       <c r="F101" s="3">
-        <v>-37300</v>
+        <v>-38700</v>
       </c>
       <c r="G101" s="3">
-        <v>-18300</v>
+        <v>-19000</v>
       </c>
       <c r="H101" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="I101" s="3">
-        <v>13200</v>
+        <v>13600</v>
       </c>
       <c r="J101" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K101" s="3">
         <v>3600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>323500</v>
+        <v>335500</v>
       </c>
       <c r="E102" s="3">
-        <v>1573900</v>
+        <v>1632200</v>
       </c>
       <c r="F102" s="3">
-        <v>489300</v>
+        <v>507500</v>
       </c>
       <c r="G102" s="3">
-        <v>830500</v>
+        <v>861200</v>
       </c>
       <c r="H102" s="3">
-        <v>-807700</v>
+        <v>-837600</v>
       </c>
       <c r="I102" s="3">
-        <v>-337600</v>
+        <v>-350100</v>
       </c>
       <c r="J102" s="3">
-        <v>820900</v>
+        <v>851300</v>
       </c>
       <c r="K102" s="3">
         <v>861100</v>

--- a/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13194200</v>
+        <v>14293700</v>
       </c>
       <c r="E8" s="3">
-        <v>11400900</v>
+        <v>12350900</v>
       </c>
       <c r="F8" s="3">
-        <v>9910900</v>
+        <v>10736800</v>
       </c>
       <c r="G8" s="3">
-        <v>9438500</v>
+        <v>10225000</v>
       </c>
       <c r="H8" s="3">
-        <v>9349000</v>
+        <v>10128000</v>
       </c>
       <c r="I8" s="3">
-        <v>10130800</v>
+        <v>10975100</v>
       </c>
       <c r="J8" s="3">
-        <v>10573900</v>
+        <v>11455100</v>
       </c>
       <c r="K8" s="3">
         <v>11758400</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-486200</v>
+        <v>-526800</v>
       </c>
       <c r="E15" s="3">
-        <v>-206100</v>
+        <v>-223300</v>
       </c>
       <c r="F15" s="3">
-        <v>-201900</v>
+        <v>-218800</v>
       </c>
       <c r="G15" s="3">
-        <v>-211400</v>
+        <v>-229000</v>
       </c>
       <c r="H15" s="3">
-        <v>-225900</v>
+        <v>-244800</v>
       </c>
       <c r="I15" s="3">
-        <v>-262900</v>
+        <v>-284800</v>
       </c>
       <c r="J15" s="3">
-        <v>-268600</v>
+        <v>-291000</v>
       </c>
       <c r="K15" s="3">
         <v>-257500</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5014300</v>
+        <v>5432200</v>
       </c>
       <c r="E17" s="3">
-        <v>4193600</v>
+        <v>4543100</v>
       </c>
       <c r="F17" s="3">
-        <v>4008700</v>
+        <v>4342800</v>
       </c>
       <c r="G17" s="3">
-        <v>4316400</v>
+        <v>4676100</v>
       </c>
       <c r="H17" s="3">
-        <v>4585100</v>
+        <v>4967200</v>
       </c>
       <c r="I17" s="3">
-        <v>5220700</v>
+        <v>5655800</v>
       </c>
       <c r="J17" s="3">
-        <v>5972500</v>
+        <v>6470200</v>
       </c>
       <c r="K17" s="3">
         <v>7000400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8179900</v>
+        <v>8861500</v>
       </c>
       <c r="E18" s="3">
-        <v>7207300</v>
+        <v>7807900</v>
       </c>
       <c r="F18" s="3">
-        <v>5902100</v>
+        <v>6394000</v>
       </c>
       <c r="G18" s="3">
-        <v>5122100</v>
+        <v>5548900</v>
       </c>
       <c r="H18" s="3">
-        <v>4763800</v>
+        <v>5160800</v>
       </c>
       <c r="I18" s="3">
-        <v>4910100</v>
+        <v>5319300</v>
       </c>
       <c r="J18" s="3">
-        <v>4601500</v>
+        <v>4984900</v>
       </c>
       <c r="K18" s="3">
         <v>4758100</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4054200</v>
+        <v>-4392100</v>
       </c>
       <c r="E20" s="3">
-        <v>-3455300</v>
+        <v>-3743300</v>
       </c>
       <c r="F20" s="3">
-        <v>-2713300</v>
+        <v>-2939400</v>
       </c>
       <c r="G20" s="3">
-        <v>-2458900</v>
+        <v>-2663800</v>
       </c>
       <c r="H20" s="3">
-        <v>-2125700</v>
+        <v>-2302900</v>
       </c>
       <c r="I20" s="3">
-        <v>-2501300</v>
+        <v>-2709800</v>
       </c>
       <c r="J20" s="3">
-        <v>-2348500</v>
+        <v>-2544200</v>
       </c>
       <c r="K20" s="3">
         <v>-2044300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4694500</v>
+        <v>5078900</v>
       </c>
       <c r="E21" s="3">
-        <v>4005600</v>
+        <v>4336300</v>
       </c>
       <c r="F21" s="3">
-        <v>3401700</v>
+        <v>3682600</v>
       </c>
       <c r="G21" s="3">
-        <v>2881500</v>
+        <v>3119100</v>
       </c>
       <c r="H21" s="3">
-        <v>2872300</v>
+        <v>3108900</v>
       </c>
       <c r="I21" s="3">
-        <v>2671700</v>
+        <v>2891200</v>
       </c>
       <c r="J21" s="3">
-        <v>2521600</v>
+        <v>2728500</v>
       </c>
       <c r="K21" s="3">
         <v>2967700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4125700</v>
+        <v>4469500</v>
       </c>
       <c r="E23" s="3">
-        <v>3752000</v>
+        <v>4064600</v>
       </c>
       <c r="F23" s="3">
-        <v>3188900</v>
+        <v>3454600</v>
       </c>
       <c r="G23" s="3">
-        <v>2663200</v>
+        <v>2885100</v>
       </c>
       <c r="H23" s="3">
-        <v>2638100</v>
+        <v>2857900</v>
       </c>
       <c r="I23" s="3">
-        <v>2408800</v>
+        <v>2609500</v>
       </c>
       <c r="J23" s="3">
-        <v>2253000</v>
+        <v>2440700</v>
       </c>
       <c r="K23" s="3">
         <v>2713700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1066100</v>
+        <v>1154900</v>
       </c>
       <c r="E24" s="3">
-        <v>1065400</v>
+        <v>1154200</v>
       </c>
       <c r="F24" s="3">
-        <v>712400</v>
+        <v>771800</v>
       </c>
       <c r="G24" s="3">
-        <v>290300</v>
+        <v>314500</v>
       </c>
       <c r="H24" s="3">
-        <v>583500</v>
+        <v>632100</v>
       </c>
       <c r="I24" s="3">
-        <v>561100</v>
+        <v>607800</v>
       </c>
       <c r="J24" s="3">
-        <v>523000</v>
+        <v>566500</v>
       </c>
       <c r="K24" s="3">
         <v>620500</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3059600</v>
+        <v>3314600</v>
       </c>
       <c r="E26" s="3">
-        <v>2686500</v>
+        <v>2910400</v>
       </c>
       <c r="F26" s="3">
-        <v>2476400</v>
+        <v>2682800</v>
       </c>
       <c r="G26" s="3">
-        <v>2372900</v>
+        <v>2570700</v>
       </c>
       <c r="H26" s="3">
-        <v>2054600</v>
+        <v>2225800</v>
       </c>
       <c r="I26" s="3">
-        <v>1847700</v>
+        <v>2001600</v>
       </c>
       <c r="J26" s="3">
-        <v>1730000</v>
+        <v>1874200</v>
       </c>
       <c r="K26" s="3">
         <v>2093200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2806900</v>
+        <v>3040800</v>
       </c>
       <c r="E27" s="3">
-        <v>2617700</v>
+        <v>2835900</v>
       </c>
       <c r="F27" s="3">
-        <v>2436000</v>
+        <v>2639100</v>
       </c>
       <c r="G27" s="3">
-        <v>2284700</v>
+        <v>2475100</v>
       </c>
       <c r="H27" s="3">
-        <v>1907400</v>
+        <v>2066400</v>
       </c>
       <c r="I27" s="3">
-        <v>1671000</v>
+        <v>1810200</v>
       </c>
       <c r="J27" s="3">
-        <v>1521200</v>
+        <v>1647900</v>
       </c>
       <c r="K27" s="3">
         <v>1865700</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4054200</v>
+        <v>4392100</v>
       </c>
       <c r="E32" s="3">
-        <v>3455300</v>
+        <v>3743300</v>
       </c>
       <c r="F32" s="3">
-        <v>2713300</v>
+        <v>2939400</v>
       </c>
       <c r="G32" s="3">
-        <v>2458900</v>
+        <v>2663800</v>
       </c>
       <c r="H32" s="3">
-        <v>2125700</v>
+        <v>2302900</v>
       </c>
       <c r="I32" s="3">
-        <v>2501300</v>
+        <v>2709800</v>
       </c>
       <c r="J32" s="3">
-        <v>2348500</v>
+        <v>2544200</v>
       </c>
       <c r="K32" s="3">
         <v>2044300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2806900</v>
+        <v>3040800</v>
       </c>
       <c r="E33" s="3">
-        <v>2617700</v>
+        <v>2835900</v>
       </c>
       <c r="F33" s="3">
-        <v>2436000</v>
+        <v>2639100</v>
       </c>
       <c r="G33" s="3">
-        <v>2284700</v>
+        <v>2475100</v>
       </c>
       <c r="H33" s="3">
-        <v>1907400</v>
+        <v>2066400</v>
       </c>
       <c r="I33" s="3">
-        <v>1671000</v>
+        <v>1810200</v>
       </c>
       <c r="J33" s="3">
-        <v>1521200</v>
+        <v>1647900</v>
       </c>
       <c r="K33" s="3">
         <v>1865700</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2806900</v>
+        <v>3040800</v>
       </c>
       <c r="E35" s="3">
-        <v>2617700</v>
+        <v>2835900</v>
       </c>
       <c r="F35" s="3">
-        <v>2436000</v>
+        <v>2639100</v>
       </c>
       <c r="G35" s="3">
-        <v>2284700</v>
+        <v>2475100</v>
       </c>
       <c r="H35" s="3">
-        <v>1907400</v>
+        <v>2066400</v>
       </c>
       <c r="I35" s="3">
-        <v>1671000</v>
+        <v>1810200</v>
       </c>
       <c r="J35" s="3">
-        <v>1521200</v>
+        <v>1647900</v>
       </c>
       <c r="K35" s="3">
         <v>1865700</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>26088100</v>
+        <v>28262100</v>
       </c>
       <c r="E41" s="3">
-        <v>17584700</v>
+        <v>19050100</v>
       </c>
       <c r="F41" s="3">
-        <v>21536200</v>
+        <v>23330900</v>
       </c>
       <c r="G41" s="3">
-        <v>20085200</v>
+        <v>21759000</v>
       </c>
       <c r="H41" s="3">
-        <v>22409200</v>
+        <v>24276600</v>
       </c>
       <c r="I41" s="3">
-        <v>21225800</v>
+        <v>22994600</v>
       </c>
       <c r="J41" s="3">
-        <v>18963200</v>
+        <v>20543500</v>
       </c>
       <c r="K41" s="3">
         <v>21492900</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>135203000</v>
+        <v>146470000</v>
       </c>
       <c r="E42" s="3">
-        <v>94181400</v>
+        <v>102030000</v>
       </c>
       <c r="F42" s="3">
-        <v>29772600</v>
+        <v>32253600</v>
       </c>
       <c r="G42" s="3">
-        <v>27816500</v>
+        <v>30134600</v>
       </c>
       <c r="H42" s="3">
-        <v>23417000</v>
+        <v>25368400</v>
       </c>
       <c r="I42" s="3">
-        <v>24081000</v>
+        <v>26087800</v>
       </c>
       <c r="J42" s="3">
-        <v>19413700</v>
+        <v>21031500</v>
       </c>
       <c r="K42" s="3">
         <v>36475400</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1220400</v>
+        <v>1322100</v>
       </c>
       <c r="E47" s="3">
-        <v>563900</v>
+        <v>610900</v>
       </c>
       <c r="F47" s="3">
-        <v>530300</v>
+        <v>574500</v>
       </c>
       <c r="G47" s="3">
-        <v>297000</v>
+        <v>321800</v>
       </c>
       <c r="H47" s="3">
-        <v>330100</v>
+        <v>357600</v>
       </c>
       <c r="I47" s="3">
-        <v>287200</v>
+        <v>311100</v>
       </c>
       <c r="J47" s="3">
-        <v>276000</v>
+        <v>299000</v>
       </c>
       <c r="K47" s="3">
         <v>250800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3840400</v>
+        <v>4160500</v>
       </c>
       <c r="E48" s="3">
-        <v>2922100</v>
+        <v>3165600</v>
       </c>
       <c r="F48" s="3">
-        <v>2889700</v>
+        <v>3130500</v>
       </c>
       <c r="G48" s="3">
-        <v>2939000</v>
+        <v>3183900</v>
       </c>
       <c r="H48" s="3">
-        <v>2741900</v>
+        <v>2970400</v>
       </c>
       <c r="I48" s="3">
-        <v>2868400</v>
+        <v>3107500</v>
       </c>
       <c r="J48" s="3">
-        <v>3279800</v>
+        <v>3553100</v>
       </c>
       <c r="K48" s="3">
         <v>2048700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4669300</v>
+        <v>5058400</v>
       </c>
       <c r="E49" s="3">
-        <v>3628900</v>
+        <v>3931300</v>
       </c>
       <c r="F49" s="3">
-        <v>3588500</v>
+        <v>3887500</v>
       </c>
       <c r="G49" s="3">
-        <v>3550300</v>
+        <v>3846100</v>
       </c>
       <c r="H49" s="3">
-        <v>3583700</v>
+        <v>3882400</v>
       </c>
       <c r="I49" s="3">
-        <v>3488400</v>
+        <v>3779100</v>
       </c>
       <c r="J49" s="3">
-        <v>3550200</v>
+        <v>3846000</v>
       </c>
       <c r="K49" s="3">
         <v>3829000</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>205900</v>
+        <v>223000</v>
       </c>
       <c r="E52" s="3">
-        <v>365000</v>
+        <v>395400</v>
       </c>
       <c r="F52" s="3">
-        <v>503900</v>
+        <v>545800</v>
       </c>
       <c r="G52" s="3">
-        <v>542600</v>
+        <v>587900</v>
       </c>
       <c r="H52" s="3">
-        <v>140800</v>
+        <v>152500</v>
       </c>
       <c r="I52" s="3">
-        <v>199300</v>
+        <v>215900</v>
       </c>
       <c r="J52" s="3">
-        <v>368900</v>
+        <v>399700</v>
       </c>
       <c r="K52" s="3">
         <v>129700</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>464032000</v>
+        <v>502702000</v>
       </c>
       <c r="E54" s="3">
-        <v>386064000</v>
+        <v>418237000</v>
       </c>
       <c r="F54" s="3">
-        <v>358097000</v>
+        <v>387938000</v>
       </c>
       <c r="G54" s="3">
-        <v>332372000</v>
+        <v>360069000</v>
       </c>
       <c r="H54" s="3">
-        <v>311260000</v>
+        <v>337199000</v>
       </c>
       <c r="I54" s="3">
-        <v>283938000</v>
+        <v>307600000</v>
       </c>
       <c r="J54" s="3">
-        <v>261484000</v>
+        <v>283274000</v>
       </c>
       <c r="K54" s="3">
         <v>256149000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11416700</v>
+        <v>12368000</v>
       </c>
       <c r="E57" s="3">
-        <v>9315700</v>
+        <v>10092000</v>
       </c>
       <c r="F57" s="3">
-        <v>8867400</v>
+        <v>9606300</v>
       </c>
       <c r="G57" s="3">
-        <v>7111300</v>
+        <v>7703900</v>
       </c>
       <c r="H57" s="3">
-        <v>9216700</v>
+        <v>9984800</v>
       </c>
       <c r="I57" s="3">
-        <v>7152200</v>
+        <v>7748200</v>
       </c>
       <c r="J57" s="3">
-        <v>5110400</v>
+        <v>5536200</v>
       </c>
       <c r="K57" s="3">
         <v>12956700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3399400</v>
+        <v>3682700</v>
       </c>
       <c r="E59" s="3">
-        <v>3147500</v>
+        <v>3409800</v>
       </c>
       <c r="F59" s="3">
-        <v>2838600</v>
+        <v>3075200</v>
       </c>
       <c r="G59" s="3">
-        <v>2618900</v>
+        <v>2837200</v>
       </c>
       <c r="H59" s="3">
-        <v>2505900</v>
+        <v>2714700</v>
       </c>
       <c r="I59" s="3">
-        <v>2937900</v>
+        <v>3182700</v>
       </c>
       <c r="J59" s="3">
-        <v>2998300</v>
+        <v>3248200</v>
       </c>
       <c r="K59" s="3">
         <v>6317900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>85268200</v>
+        <v>92373900</v>
       </c>
       <c r="E61" s="3">
-        <v>70553200</v>
+        <v>76432600</v>
       </c>
       <c r="F61" s="3">
-        <v>57960700</v>
+        <v>62790700</v>
       </c>
       <c r="G61" s="3">
-        <v>50732200</v>
+        <v>54959900</v>
       </c>
       <c r="H61" s="3">
-        <v>46759200</v>
+        <v>50655800</v>
       </c>
       <c r="I61" s="3">
-        <v>31361100</v>
+        <v>33974500</v>
       </c>
       <c r="J61" s="3">
-        <v>31492800</v>
+        <v>34117200</v>
       </c>
       <c r="K61" s="3">
         <v>32624300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>949000</v>
+        <v>1028100</v>
       </c>
       <c r="E62" s="3">
-        <v>552500</v>
+        <v>598600</v>
       </c>
       <c r="F62" s="3">
-        <v>374500</v>
+        <v>405700</v>
       </c>
       <c r="G62" s="3">
-        <v>731100</v>
+        <v>792100</v>
       </c>
       <c r="H62" s="3">
-        <v>790500</v>
+        <v>856400</v>
       </c>
       <c r="I62" s="3">
-        <v>851100</v>
+        <v>922000</v>
       </c>
       <c r="J62" s="3">
-        <v>741400</v>
+        <v>803100</v>
       </c>
       <c r="K62" s="3">
         <v>850000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>431123000</v>
+        <v>467050000</v>
       </c>
       <c r="E66" s="3">
-        <v>356055000</v>
+        <v>385726000</v>
       </c>
       <c r="F66" s="3">
-        <v>330529000</v>
+        <v>358073000</v>
       </c>
       <c r="G66" s="3">
-        <v>306239000</v>
+        <v>331759000</v>
       </c>
       <c r="H66" s="3">
-        <v>285355000</v>
+        <v>309135000</v>
       </c>
       <c r="I66" s="3">
-        <v>259424000</v>
+        <v>281042000</v>
       </c>
       <c r="J66" s="3">
-        <v>238352000</v>
+        <v>258215000</v>
       </c>
       <c r="K66" s="3">
         <v>233997000</v>
@@ -2555,25 +2555,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>303600</v>
+        <v>328900</v>
       </c>
       <c r="E70" s="3">
-        <v>230200</v>
+        <v>249400</v>
       </c>
       <c r="F70" s="3">
-        <v>230200</v>
+        <v>249400</v>
       </c>
       <c r="G70" s="3">
-        <v>230200</v>
+        <v>249400</v>
       </c>
       <c r="H70" s="3">
-        <v>230200</v>
+        <v>249400</v>
       </c>
       <c r="I70" s="3">
-        <v>230200</v>
+        <v>249400</v>
       </c>
       <c r="J70" s="3">
-        <v>230200</v>
+        <v>249400</v>
       </c>
       <c r="K70" s="3">
         <v>460400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21441700</v>
+        <v>23228500</v>
       </c>
       <c r="E72" s="3">
-        <v>19285900</v>
+        <v>20893100</v>
       </c>
       <c r="F72" s="3">
-        <v>17464100</v>
+        <v>18919400</v>
       </c>
       <c r="G72" s="3">
-        <v>15657600</v>
+        <v>16962400</v>
       </c>
       <c r="H72" s="3">
-        <v>14858900</v>
+        <v>16097100</v>
       </c>
       <c r="I72" s="3">
-        <v>13330600</v>
+        <v>14441500</v>
       </c>
       <c r="J72" s="3">
-        <v>11918300</v>
+        <v>12911500</v>
       </c>
       <c r="K72" s="3">
         <v>10680700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32605900</v>
+        <v>35323000</v>
       </c>
       <c r="E76" s="3">
-        <v>29779300</v>
+        <v>32260900</v>
       </c>
       <c r="F76" s="3">
-        <v>27337900</v>
+        <v>29616000</v>
       </c>
       <c r="G76" s="3">
-        <v>25901900</v>
+        <v>28060400</v>
       </c>
       <c r="H76" s="3">
-        <v>25675100</v>
+        <v>27814700</v>
       </c>
       <c r="I76" s="3">
-        <v>24284400</v>
+        <v>26308100</v>
       </c>
       <c r="J76" s="3">
-        <v>22901800</v>
+        <v>24810300</v>
       </c>
       <c r="K76" s="3">
         <v>21692000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2806900</v>
+        <v>3040800</v>
       </c>
       <c r="E81" s="3">
-        <v>2617700</v>
+        <v>2835900</v>
       </c>
       <c r="F81" s="3">
-        <v>2436000</v>
+        <v>2639100</v>
       </c>
       <c r="G81" s="3">
-        <v>2284700</v>
+        <v>2475100</v>
       </c>
       <c r="H81" s="3">
-        <v>1907400</v>
+        <v>2066400</v>
       </c>
       <c r="I81" s="3">
-        <v>1671000</v>
+        <v>1810200</v>
       </c>
       <c r="J81" s="3">
-        <v>1521200</v>
+        <v>1647900</v>
       </c>
       <c r="K81" s="3">
         <v>1865700</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>568800</v>
+        <v>616200</v>
       </c>
       <c r="E83" s="3">
-        <v>253600</v>
+        <v>274700</v>
       </c>
       <c r="F83" s="3">
-        <v>212800</v>
+        <v>230500</v>
       </c>
       <c r="G83" s="3">
-        <v>218400</v>
+        <v>236500</v>
       </c>
       <c r="H83" s="3">
-        <v>234300</v>
+        <v>253800</v>
       </c>
       <c r="I83" s="3">
-        <v>262900</v>
+        <v>284800</v>
       </c>
       <c r="J83" s="3">
-        <v>268600</v>
+        <v>291000</v>
       </c>
       <c r="K83" s="3">
         <v>251000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6030400</v>
+        <v>6532900</v>
       </c>
       <c r="E89" s="3">
-        <v>-5309000</v>
+        <v>-5751400</v>
       </c>
       <c r="F89" s="3">
-        <v>857900</v>
+        <v>929400</v>
       </c>
       <c r="G89" s="3">
-        <v>3189600</v>
+        <v>3455400</v>
       </c>
       <c r="H89" s="3">
-        <v>2495100</v>
+        <v>2703000</v>
       </c>
       <c r="I89" s="3">
-        <v>-1747700</v>
+        <v>-1893400</v>
       </c>
       <c r="J89" s="3">
-        <v>-923600</v>
+        <v>-1000600</v>
       </c>
       <c r="K89" s="3">
         <v>7617400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-227100</v>
+        <v>-246100</v>
       </c>
       <c r="E91" s="3">
-        <v>-120100</v>
+        <v>-130100</v>
       </c>
       <c r="F91" s="3">
-        <v>-130400</v>
+        <v>-141200</v>
       </c>
       <c r="G91" s="3">
-        <v>-211800</v>
+        <v>-229400</v>
       </c>
       <c r="H91" s="3">
-        <v>-104900</v>
+        <v>-113600</v>
       </c>
       <c r="I91" s="3">
-        <v>-153000</v>
+        <v>-165700</v>
       </c>
       <c r="J91" s="3">
-        <v>-247000</v>
+        <v>-267500</v>
       </c>
       <c r="K91" s="3">
         <v>-246000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-19057800</v>
+        <v>-20646000</v>
       </c>
       <c r="E94" s="3">
-        <v>-4630600</v>
+        <v>-5016500</v>
       </c>
       <c r="F94" s="3">
-        <v>-8991100</v>
+        <v>-9740300</v>
       </c>
       <c r="G94" s="3">
-        <v>-6378900</v>
+        <v>-6910400</v>
       </c>
       <c r="H94" s="3">
-        <v>-4442400</v>
+        <v>-4812600</v>
       </c>
       <c r="I94" s="3">
-        <v>807100</v>
+        <v>874300</v>
       </c>
       <c r="J94" s="3">
-        <v>2852600</v>
+        <v>3090300</v>
       </c>
       <c r="K94" s="3">
         <v>-2121600</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-697800</v>
+        <v>-756000</v>
       </c>
       <c r="E96" s="3">
-        <v>-600400</v>
+        <v>-650400</v>
       </c>
       <c r="F96" s="3">
-        <v>-593500</v>
+        <v>-643000</v>
       </c>
       <c r="G96" s="3">
-        <v>-562000</v>
+        <v>-608900</v>
       </c>
       <c r="H96" s="3">
-        <v>-458800</v>
+        <v>-497000</v>
       </c>
       <c r="I96" s="3">
-        <v>-335800</v>
+        <v>-363800</v>
       </c>
       <c r="J96" s="3">
-        <v>-356200</v>
+        <v>-385900</v>
       </c>
       <c r="K96" s="3">
         <v>-546600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>13338200</v>
+        <v>14449700</v>
       </c>
       <c r="E100" s="3">
-        <v>11597500</v>
+        <v>12563900</v>
       </c>
       <c r="F100" s="3">
-        <v>8679300</v>
+        <v>9402500</v>
       </c>
       <c r="G100" s="3">
-        <v>4069500</v>
+        <v>4408600</v>
       </c>
       <c r="H100" s="3">
-        <v>1102700</v>
+        <v>1194600</v>
       </c>
       <c r="I100" s="3">
-        <v>577000</v>
+        <v>625000</v>
       </c>
       <c r="J100" s="3">
-        <v>-1081000</v>
+        <v>-1171100</v>
       </c>
       <c r="K100" s="3">
         <v>-4638300</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>24700</v>
+        <v>26800</v>
       </c>
       <c r="E101" s="3">
-        <v>-25700</v>
+        <v>-27900</v>
       </c>
       <c r="F101" s="3">
-        <v>-38700</v>
+        <v>-41900</v>
       </c>
       <c r="G101" s="3">
-        <v>-19000</v>
+        <v>-20600</v>
       </c>
       <c r="H101" s="3">
-        <v>7000</v>
+        <v>7600</v>
       </c>
       <c r="I101" s="3">
-        <v>13600</v>
+        <v>14800</v>
       </c>
       <c r="J101" s="3">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="K101" s="3">
         <v>3600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>335500</v>
+        <v>363500</v>
       </c>
       <c r="E102" s="3">
-        <v>1632200</v>
+        <v>1768200</v>
       </c>
       <c r="F102" s="3">
-        <v>507500</v>
+        <v>549700</v>
       </c>
       <c r="G102" s="3">
-        <v>861200</v>
+        <v>933000</v>
       </c>
       <c r="H102" s="3">
-        <v>-837600</v>
+        <v>-907400</v>
       </c>
       <c r="I102" s="3">
-        <v>-350100</v>
+        <v>-379300</v>
       </c>
       <c r="J102" s="3">
-        <v>851300</v>
+        <v>922200</v>
       </c>
       <c r="K102" s="3">
         <v>861100</v>

--- a/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>SHG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,93 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14293700</v>
+        <v>13001100</v>
       </c>
       <c r="E8" s="3">
-        <v>12350900</v>
+        <v>13822500</v>
       </c>
       <c r="F8" s="3">
-        <v>10736800</v>
+        <v>11943800</v>
       </c>
       <c r="G8" s="3">
-        <v>10225000</v>
+        <v>10382800</v>
       </c>
       <c r="H8" s="3">
-        <v>10128000</v>
+        <v>9887900</v>
       </c>
       <c r="I8" s="3">
-        <v>10975100</v>
+        <v>9794100</v>
       </c>
       <c r="J8" s="3">
+        <v>10613200</v>
+      </c>
+      <c r="K8" s="3">
         <v>11455100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11758400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12402600</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,9 +782,12 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,9 +818,12 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,42 +942,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-526800</v>
+        <v>-532800</v>
       </c>
       <c r="E15" s="3">
-        <v>-223300</v>
+        <v>-509400</v>
       </c>
       <c r="F15" s="3">
-        <v>-218800</v>
+        <v>-215900</v>
       </c>
       <c r="G15" s="3">
-        <v>-229000</v>
+        <v>-211600</v>
       </c>
       <c r="H15" s="3">
-        <v>-244800</v>
+        <v>-221400</v>
       </c>
       <c r="I15" s="3">
-        <v>-284800</v>
+        <v>-236700</v>
       </c>
       <c r="J15" s="3">
+        <v>-275400</v>
+      </c>
+      <c r="K15" s="3">
         <v>-291000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-257500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-269100</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5432200</v>
+        <v>4304300</v>
       </c>
       <c r="E17" s="3">
-        <v>4543100</v>
+        <v>5253100</v>
       </c>
       <c r="F17" s="3">
-        <v>4342800</v>
+        <v>4393300</v>
       </c>
       <c r="G17" s="3">
-        <v>4676100</v>
+        <v>4199600</v>
       </c>
       <c r="H17" s="3">
-        <v>4967200</v>
+        <v>4521900</v>
       </c>
       <c r="I17" s="3">
-        <v>5655800</v>
+        <v>4803500</v>
       </c>
       <c r="J17" s="3">
+        <v>5469300</v>
+      </c>
+      <c r="K17" s="3">
         <v>6470200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7000400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6837100</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8861500</v>
+        <v>8696800</v>
       </c>
       <c r="E18" s="3">
-        <v>7807900</v>
+        <v>8569400</v>
       </c>
       <c r="F18" s="3">
-        <v>6394000</v>
+        <v>7550500</v>
       </c>
       <c r="G18" s="3">
-        <v>5548900</v>
+        <v>6183200</v>
       </c>
       <c r="H18" s="3">
-        <v>5160800</v>
+        <v>5366000</v>
       </c>
       <c r="I18" s="3">
-        <v>5319300</v>
+        <v>4990700</v>
       </c>
       <c r="J18" s="3">
+        <v>5143900</v>
+      </c>
+      <c r="K18" s="3">
         <v>4984900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4758100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5565600</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,74 +1082,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4392100</v>
+        <v>-4513400</v>
       </c>
       <c r="E20" s="3">
-        <v>-3743300</v>
+        <v>-4247300</v>
       </c>
       <c r="F20" s="3">
-        <v>-2939400</v>
+        <v>-3619900</v>
       </c>
       <c r="G20" s="3">
-        <v>-2663800</v>
+        <v>-2842500</v>
       </c>
       <c r="H20" s="3">
-        <v>-2302900</v>
+        <v>-2576000</v>
       </c>
       <c r="I20" s="3">
-        <v>-2709800</v>
+        <v>-2227000</v>
       </c>
       <c r="J20" s="3">
+        <v>-2620500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2544200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2044300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1656200</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5078900</v>
+        <v>4859700</v>
       </c>
       <c r="E21" s="3">
-        <v>4336300</v>
+        <v>4918000</v>
       </c>
       <c r="F21" s="3">
-        <v>3682600</v>
+        <v>4196300</v>
       </c>
       <c r="G21" s="3">
-        <v>3119100</v>
+        <v>3563600</v>
       </c>
       <c r="H21" s="3">
-        <v>3108900</v>
+        <v>3018800</v>
       </c>
       <c r="I21" s="3">
-        <v>2891200</v>
+        <v>3009100</v>
       </c>
       <c r="J21" s="3">
+        <v>2798900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2728500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2967700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4165500</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4469500</v>
+        <v>4183400</v>
       </c>
       <c r="E23" s="3">
-        <v>4064600</v>
+        <v>4322100</v>
       </c>
       <c r="F23" s="3">
-        <v>3454600</v>
+        <v>3930600</v>
       </c>
       <c r="G23" s="3">
-        <v>2885100</v>
+        <v>3340700</v>
       </c>
       <c r="H23" s="3">
-        <v>2857900</v>
+        <v>2790000</v>
       </c>
       <c r="I23" s="3">
-        <v>2609500</v>
+        <v>2763700</v>
       </c>
       <c r="J23" s="3">
+        <v>2523500</v>
+      </c>
+      <c r="K23" s="3">
         <v>2440700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2713700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3909400</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1154900</v>
+        <v>1105100</v>
       </c>
       <c r="E24" s="3">
-        <v>1154200</v>
+        <v>1116800</v>
       </c>
       <c r="F24" s="3">
-        <v>771800</v>
+        <v>1116100</v>
       </c>
       <c r="G24" s="3">
-        <v>314500</v>
+        <v>746400</v>
       </c>
       <c r="H24" s="3">
-        <v>632100</v>
+        <v>304100</v>
       </c>
       <c r="I24" s="3">
-        <v>607800</v>
+        <v>611300</v>
       </c>
       <c r="J24" s="3">
+        <v>587800</v>
+      </c>
+      <c r="K24" s="3">
         <v>566500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>620500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>860900</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3314600</v>
+        <v>3078300</v>
       </c>
       <c r="E26" s="3">
-        <v>2910400</v>
+        <v>3205300</v>
       </c>
       <c r="F26" s="3">
-        <v>2682800</v>
+        <v>2814500</v>
       </c>
       <c r="G26" s="3">
-        <v>2570700</v>
+        <v>2594300</v>
       </c>
       <c r="H26" s="3">
-        <v>2225800</v>
+        <v>2485900</v>
       </c>
       <c r="I26" s="3">
-        <v>2001600</v>
+        <v>2152400</v>
       </c>
       <c r="J26" s="3">
+        <v>1935700</v>
+      </c>
+      <c r="K26" s="3">
         <v>1874200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2093200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3048500</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3040800</v>
+        <v>2929800</v>
       </c>
       <c r="E27" s="3">
-        <v>2835900</v>
+        <v>2940500</v>
       </c>
       <c r="F27" s="3">
-        <v>2639100</v>
+        <v>2742400</v>
       </c>
       <c r="G27" s="3">
-        <v>2475100</v>
+        <v>2552100</v>
       </c>
       <c r="H27" s="3">
-        <v>2066400</v>
+        <v>2393500</v>
       </c>
       <c r="I27" s="3">
-        <v>1810200</v>
+        <v>1998300</v>
       </c>
       <c r="J27" s="3">
+        <v>1750500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1647900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1865700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2643900</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4392100</v>
+        <v>4513400</v>
       </c>
       <c r="E32" s="3">
-        <v>3743300</v>
+        <v>4247300</v>
       </c>
       <c r="F32" s="3">
-        <v>2939400</v>
+        <v>3619900</v>
       </c>
       <c r="G32" s="3">
-        <v>2663800</v>
+        <v>2842500</v>
       </c>
       <c r="H32" s="3">
-        <v>2302900</v>
+        <v>2576000</v>
       </c>
       <c r="I32" s="3">
-        <v>2709800</v>
+        <v>2227000</v>
       </c>
       <c r="J32" s="3">
+        <v>2620500</v>
+      </c>
+      <c r="K32" s="3">
         <v>2544200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2044300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1656200</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3040800</v>
+        <v>2929800</v>
       </c>
       <c r="E33" s="3">
-        <v>2835900</v>
+        <v>2940500</v>
       </c>
       <c r="F33" s="3">
-        <v>2639100</v>
+        <v>2742400</v>
       </c>
       <c r="G33" s="3">
-        <v>2475100</v>
+        <v>2552100</v>
       </c>
       <c r="H33" s="3">
-        <v>2066400</v>
+        <v>2393500</v>
       </c>
       <c r="I33" s="3">
-        <v>1810200</v>
+        <v>1998300</v>
       </c>
       <c r="J33" s="3">
+        <v>1750500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1647900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1865700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2643900</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3040800</v>
+        <v>2929800</v>
       </c>
       <c r="E35" s="3">
-        <v>2835900</v>
+        <v>2940500</v>
       </c>
       <c r="F35" s="3">
-        <v>2639100</v>
+        <v>2742400</v>
       </c>
       <c r="G35" s="3">
-        <v>2475100</v>
+        <v>2552100</v>
       </c>
       <c r="H35" s="3">
-        <v>2066400</v>
+        <v>2393500</v>
       </c>
       <c r="I35" s="3">
-        <v>1810200</v>
+        <v>1998300</v>
       </c>
       <c r="J35" s="3">
+        <v>1750500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1647900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1865700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2643900</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,74 +1731,81 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>28262100</v>
+        <v>34234600</v>
       </c>
       <c r="E41" s="3">
-        <v>19050100</v>
+        <v>27330400</v>
       </c>
       <c r="F41" s="3">
-        <v>23330900</v>
+        <v>18422100</v>
       </c>
       <c r="G41" s="3">
-        <v>21759000</v>
+        <v>22561800</v>
       </c>
       <c r="H41" s="3">
-        <v>24276600</v>
+        <v>21041700</v>
       </c>
       <c r="I41" s="3">
-        <v>22994600</v>
+        <v>23476300</v>
       </c>
       <c r="J41" s="3">
+        <v>22236600</v>
+      </c>
+      <c r="K41" s="3">
         <v>20543500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21492900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6880200</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>146470000</v>
+        <v>149885000</v>
       </c>
       <c r="E42" s="3">
-        <v>102030000</v>
+        <v>141641000</v>
       </c>
       <c r="F42" s="3">
-        <v>32253600</v>
+        <v>98666200</v>
       </c>
       <c r="G42" s="3">
-        <v>30134600</v>
+        <v>31190300</v>
       </c>
       <c r="H42" s="3">
-        <v>25368400</v>
+        <v>29141100</v>
       </c>
       <c r="I42" s="3">
-        <v>26087800</v>
+        <v>24532000</v>
       </c>
       <c r="J42" s="3">
+        <v>25227700</v>
+      </c>
+      <c r="K42" s="3">
         <v>21031500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>36475400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>19224100</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1744,9 +1836,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1872,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1810,9 +1908,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1843,108 +1944,120 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1322100</v>
+        <v>2338800</v>
       </c>
       <c r="E47" s="3">
-        <v>610900</v>
+        <v>1278500</v>
       </c>
       <c r="F47" s="3">
-        <v>574500</v>
+        <v>590800</v>
       </c>
       <c r="G47" s="3">
-        <v>321800</v>
+        <v>555500</v>
       </c>
       <c r="H47" s="3">
-        <v>357600</v>
+        <v>311200</v>
       </c>
       <c r="I47" s="3">
-        <v>311100</v>
+        <v>345800</v>
       </c>
       <c r="J47" s="3">
+        <v>300900</v>
+      </c>
+      <c r="K47" s="3">
         <v>299000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>250800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>224000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4160500</v>
+        <v>4052300</v>
       </c>
       <c r="E48" s="3">
-        <v>3165600</v>
+        <v>4023300</v>
       </c>
       <c r="F48" s="3">
-        <v>3130500</v>
+        <v>3061300</v>
       </c>
       <c r="G48" s="3">
-        <v>3183900</v>
+        <v>3027300</v>
       </c>
       <c r="H48" s="3">
-        <v>2970400</v>
+        <v>3078900</v>
       </c>
       <c r="I48" s="3">
-        <v>3107500</v>
+        <v>2872400</v>
       </c>
       <c r="J48" s="3">
+        <v>3005000</v>
+      </c>
+      <c r="K48" s="3">
         <v>3553100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2048700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2942100</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5058400</v>
+        <v>4822900</v>
       </c>
       <c r="E49" s="3">
-        <v>3931300</v>
+        <v>4891700</v>
       </c>
       <c r="F49" s="3">
-        <v>3887500</v>
+        <v>3801700</v>
       </c>
       <c r="G49" s="3">
-        <v>3846100</v>
+        <v>3759300</v>
       </c>
       <c r="H49" s="3">
-        <v>3882400</v>
+        <v>3719300</v>
       </c>
       <c r="I49" s="3">
-        <v>3779100</v>
+        <v>3754400</v>
       </c>
       <c r="J49" s="3">
+        <v>3654500</v>
+      </c>
+      <c r="K49" s="3">
         <v>3846000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3829000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3783100</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>223000</v>
+        <v>253500</v>
       </c>
       <c r="E52" s="3">
-        <v>395400</v>
+        <v>215700</v>
       </c>
       <c r="F52" s="3">
-        <v>545800</v>
+        <v>382400</v>
       </c>
       <c r="G52" s="3">
-        <v>587900</v>
+        <v>527900</v>
       </c>
       <c r="H52" s="3">
-        <v>152500</v>
+        <v>568500</v>
       </c>
       <c r="I52" s="3">
-        <v>215900</v>
+        <v>147500</v>
       </c>
       <c r="J52" s="3">
+        <v>208800</v>
+      </c>
+      <c r="K52" s="3">
         <v>399700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>129700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>26300</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>502702000</v>
+        <v>532606000</v>
       </c>
       <c r="E54" s="3">
-        <v>418237000</v>
+        <v>486129000</v>
       </c>
       <c r="F54" s="3">
-        <v>387938000</v>
+        <v>404448000</v>
       </c>
       <c r="G54" s="3">
-        <v>360069000</v>
+        <v>375149000</v>
       </c>
       <c r="H54" s="3">
-        <v>337199000</v>
+        <v>348199000</v>
       </c>
       <c r="I54" s="3">
-        <v>307600000</v>
+        <v>326082000</v>
       </c>
       <c r="J54" s="3">
+        <v>297459000</v>
+      </c>
+      <c r="K54" s="3">
         <v>283274000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>256149000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>259238000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,41 +2267,45 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12368000</v>
+        <v>18104600</v>
       </c>
       <c r="E57" s="3">
-        <v>10092000</v>
+        <v>11960300</v>
       </c>
       <c r="F57" s="3">
-        <v>9606300</v>
+        <v>9759300</v>
       </c>
       <c r="G57" s="3">
-        <v>7703900</v>
+        <v>9289600</v>
       </c>
       <c r="H57" s="3">
-        <v>9984800</v>
+        <v>7450000</v>
       </c>
       <c r="I57" s="3">
-        <v>7748200</v>
+        <v>9655600</v>
       </c>
       <c r="J57" s="3">
+        <v>7492800</v>
+      </c>
+      <c r="K57" s="3">
         <v>5536200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12956700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6784100</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2203,42 +2336,48 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3682700</v>
+        <v>3059200</v>
       </c>
       <c r="E59" s="3">
-        <v>3409800</v>
+        <v>3561300</v>
       </c>
       <c r="F59" s="3">
-        <v>3075200</v>
+        <v>3297300</v>
       </c>
       <c r="G59" s="3">
-        <v>2837200</v>
+        <v>2973800</v>
       </c>
       <c r="H59" s="3">
-        <v>2714700</v>
+        <v>2743600</v>
       </c>
       <c r="I59" s="3">
-        <v>3182700</v>
+        <v>2625200</v>
       </c>
       <c r="J59" s="3">
+        <v>3077800</v>
+      </c>
+      <c r="K59" s="3">
         <v>3248200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6317900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3833300</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2269,75 +2408,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>92373900</v>
+        <v>91947900</v>
       </c>
       <c r="E61" s="3">
-        <v>76432600</v>
+        <v>89328600</v>
       </c>
       <c r="F61" s="3">
-        <v>62790700</v>
+        <v>73912900</v>
       </c>
       <c r="G61" s="3">
-        <v>54959900</v>
+        <v>60720700</v>
       </c>
       <c r="H61" s="3">
-        <v>50655800</v>
+        <v>53148000</v>
       </c>
       <c r="I61" s="3">
-        <v>33974500</v>
+        <v>48985800</v>
       </c>
       <c r="J61" s="3">
+        <v>32854500</v>
+      </c>
+      <c r="K61" s="3">
         <v>34117200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32624300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>53793200</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1028100</v>
+        <v>1273300</v>
       </c>
       <c r="E62" s="3">
-        <v>598600</v>
+        <v>994200</v>
       </c>
       <c r="F62" s="3">
-        <v>405700</v>
+        <v>578800</v>
       </c>
       <c r="G62" s="3">
-        <v>792100</v>
+        <v>392300</v>
       </c>
       <c r="H62" s="3">
-        <v>856400</v>
+        <v>766000</v>
       </c>
       <c r="I62" s="3">
-        <v>922000</v>
+        <v>828100</v>
       </c>
       <c r="J62" s="3">
+        <v>891600</v>
+      </c>
+      <c r="K62" s="3">
         <v>803100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>850000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>467050000</v>
+        <v>493825000</v>
       </c>
       <c r="E66" s="3">
-        <v>385726000</v>
+        <v>451653000</v>
       </c>
       <c r="F66" s="3">
-        <v>358073000</v>
+        <v>373010000</v>
       </c>
       <c r="G66" s="3">
-        <v>331759000</v>
+        <v>346268000</v>
       </c>
       <c r="H66" s="3">
-        <v>309135000</v>
+        <v>320822000</v>
       </c>
       <c r="I66" s="3">
-        <v>281042000</v>
+        <v>298943000</v>
       </c>
       <c r="J66" s="3">
+        <v>271777000</v>
+      </c>
+      <c r="K66" s="3">
         <v>258215000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>233997000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>237281000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,42 +2712,48 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>328900</v>
+        <v>318100</v>
       </c>
       <c r="E70" s="3">
+        <v>318100</v>
+      </c>
+      <c r="F70" s="3">
+        <v>241200</v>
+      </c>
+      <c r="G70" s="3">
+        <v>241200</v>
+      </c>
+      <c r="H70" s="3">
+        <v>241200</v>
+      </c>
+      <c r="I70" s="3">
+        <v>241200</v>
+      </c>
+      <c r="J70" s="3">
+        <v>241200</v>
+      </c>
+      <c r="K70" s="3">
         <v>249400</v>
       </c>
-      <c r="F70" s="3">
-        <v>249400</v>
-      </c>
-      <c r="G70" s="3">
-        <v>249400</v>
-      </c>
-      <c r="H70" s="3">
-        <v>249400</v>
-      </c>
-      <c r="I70" s="3">
-        <v>249400</v>
-      </c>
-      <c r="J70" s="3">
-        <v>249400</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>460400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>246600</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23228500</v>
+        <v>24443900</v>
       </c>
       <c r="E72" s="3">
-        <v>20893100</v>
+        <v>22462700</v>
       </c>
       <c r="F72" s="3">
-        <v>18919400</v>
+        <v>20204300</v>
       </c>
       <c r="G72" s="3">
-        <v>16962400</v>
+        <v>18295700</v>
       </c>
       <c r="H72" s="3">
-        <v>16097100</v>
+        <v>16403200</v>
       </c>
       <c r="I72" s="3">
-        <v>14441500</v>
+        <v>15566400</v>
       </c>
       <c r="J72" s="3">
+        <v>13965400</v>
+      </c>
+      <c r="K72" s="3">
         <v>12911500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10680700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9746800</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>35323000</v>
+        <v>38463100</v>
       </c>
       <c r="E76" s="3">
-        <v>32260900</v>
+        <v>34158500</v>
       </c>
       <c r="F76" s="3">
-        <v>29616000</v>
+        <v>31197400</v>
       </c>
       <c r="G76" s="3">
-        <v>28060400</v>
+        <v>28639600</v>
       </c>
       <c r="H76" s="3">
-        <v>27814700</v>
+        <v>27135300</v>
       </c>
       <c r="I76" s="3">
-        <v>26308100</v>
+        <v>26897700</v>
       </c>
       <c r="J76" s="3">
+        <v>25440800</v>
+      </c>
+      <c r="K76" s="3">
         <v>24810300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21692000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21710300</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3040800</v>
+        <v>2929800</v>
       </c>
       <c r="E81" s="3">
-        <v>2835900</v>
+        <v>2940500</v>
       </c>
       <c r="F81" s="3">
-        <v>2639100</v>
+        <v>2742400</v>
       </c>
       <c r="G81" s="3">
-        <v>2475100</v>
+        <v>2552100</v>
       </c>
       <c r="H81" s="3">
-        <v>2066400</v>
+        <v>2393500</v>
       </c>
       <c r="I81" s="3">
-        <v>1810200</v>
+        <v>1998300</v>
       </c>
       <c r="J81" s="3">
+        <v>1750500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1647900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1865700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2643900</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>616200</v>
+        <v>676300</v>
       </c>
       <c r="E83" s="3">
-        <v>274700</v>
+        <v>595900</v>
       </c>
       <c r="F83" s="3">
-        <v>230500</v>
+        <v>265700</v>
       </c>
       <c r="G83" s="3">
-        <v>236500</v>
+        <v>222900</v>
       </c>
       <c r="H83" s="3">
-        <v>253800</v>
+        <v>228700</v>
       </c>
       <c r="I83" s="3">
-        <v>284800</v>
+        <v>245400</v>
       </c>
       <c r="J83" s="3">
+        <v>275400</v>
+      </c>
+      <c r="K83" s="3">
         <v>291000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>251000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>259000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6532900</v>
+        <v>-3880200</v>
       </c>
       <c r="E89" s="3">
-        <v>-5751400</v>
+        <v>6317600</v>
       </c>
       <c r="F89" s="3">
-        <v>929400</v>
+        <v>-5561800</v>
       </c>
       <c r="G89" s="3">
-        <v>3455400</v>
+        <v>898800</v>
       </c>
       <c r="H89" s="3">
-        <v>2703000</v>
+        <v>3341500</v>
       </c>
       <c r="I89" s="3">
-        <v>-1893400</v>
+        <v>2613900</v>
       </c>
       <c r="J89" s="3">
+        <v>-1831000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1000600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7617400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1269900</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,8 +3364,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3154,32 +3374,35 @@
         <v>-246100</v>
       </c>
       <c r="E91" s="3">
-        <v>-130100</v>
+        <v>-237900</v>
       </c>
       <c r="F91" s="3">
-        <v>-141200</v>
+        <v>-125800</v>
       </c>
       <c r="G91" s="3">
-        <v>-229400</v>
+        <v>-136600</v>
       </c>
       <c r="H91" s="3">
-        <v>-113600</v>
+        <v>-221800</v>
       </c>
       <c r="I91" s="3">
-        <v>-165700</v>
+        <v>-109900</v>
       </c>
       <c r="J91" s="3">
+        <v>-160300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-267500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-246000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-423200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-20646000</v>
+        <v>-2662800</v>
       </c>
       <c r="E94" s="3">
-        <v>-5016500</v>
+        <v>-19965300</v>
       </c>
       <c r="F94" s="3">
-        <v>-9740300</v>
+        <v>-4851100</v>
       </c>
       <c r="G94" s="3">
-        <v>-6910400</v>
+        <v>-9419200</v>
       </c>
       <c r="H94" s="3">
-        <v>-4812600</v>
+        <v>-6682600</v>
       </c>
       <c r="I94" s="3">
-        <v>874300</v>
+        <v>-4654000</v>
       </c>
       <c r="J94" s="3">
+        <v>845500</v>
+      </c>
+      <c r="K94" s="3">
         <v>3090300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2121600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3702100</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-756000</v>
+        <v>-852600</v>
       </c>
       <c r="E96" s="3">
-        <v>-650400</v>
+        <v>-731100</v>
       </c>
       <c r="F96" s="3">
-        <v>-643000</v>
+        <v>-628900</v>
       </c>
       <c r="G96" s="3">
-        <v>-608900</v>
+        <v>-621800</v>
       </c>
       <c r="H96" s="3">
-        <v>-497000</v>
+        <v>-588800</v>
       </c>
       <c r="I96" s="3">
-        <v>-363800</v>
+        <v>-480600</v>
       </c>
       <c r="J96" s="3">
+        <v>-351800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-385900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-546600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-527000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>14449700</v>
+        <v>6934900</v>
       </c>
       <c r="E100" s="3">
-        <v>12563900</v>
+        <v>13973400</v>
       </c>
       <c r="F100" s="3">
-        <v>9402500</v>
+        <v>12149700</v>
       </c>
       <c r="G100" s="3">
-        <v>4408600</v>
+        <v>9092600</v>
       </c>
       <c r="H100" s="3">
-        <v>1194600</v>
+        <v>4263300</v>
       </c>
       <c r="I100" s="3">
-        <v>625000</v>
+        <v>1155200</v>
       </c>
       <c r="J100" s="3">
+        <v>604400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1171100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4638300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1655800</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>26800</v>
+        <v>-54100</v>
       </c>
       <c r="E101" s="3">
-        <v>-27900</v>
+        <v>25900</v>
       </c>
       <c r="F101" s="3">
-        <v>-41900</v>
+        <v>-27000</v>
       </c>
       <c r="G101" s="3">
-        <v>-20600</v>
+        <v>-40500</v>
       </c>
       <c r="H101" s="3">
-        <v>7600</v>
+        <v>-19900</v>
       </c>
       <c r="I101" s="3">
-        <v>14800</v>
+        <v>7400</v>
       </c>
       <c r="J101" s="3">
-        <v>3600</v>
+        <v>14300</v>
       </c>
       <c r="K101" s="3">
         <v>3600</v>
       </c>
       <c r="L101" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>363500</v>
+        <v>337800</v>
       </c>
       <c r="E102" s="3">
-        <v>1768200</v>
+        <v>351500</v>
       </c>
       <c r="F102" s="3">
-        <v>549700</v>
+        <v>1709900</v>
       </c>
       <c r="G102" s="3">
-        <v>933000</v>
+        <v>531600</v>
       </c>
       <c r="H102" s="3">
-        <v>-907400</v>
+        <v>902300</v>
       </c>
       <c r="I102" s="3">
-        <v>-379300</v>
+        <v>-877500</v>
       </c>
       <c r="J102" s="3">
+        <v>-366800</v>
+      </c>
+      <c r="K102" s="3">
         <v>922200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>861100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-777400</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13001100</v>
+        <v>13148900</v>
       </c>
       <c r="E8" s="3">
-        <v>13822500</v>
+        <v>13979600</v>
       </c>
       <c r="F8" s="3">
-        <v>11943800</v>
+        <v>12079500</v>
       </c>
       <c r="G8" s="3">
-        <v>10382800</v>
+        <v>10500800</v>
       </c>
       <c r="H8" s="3">
-        <v>9887900</v>
+        <v>10000300</v>
       </c>
       <c r="I8" s="3">
-        <v>9794100</v>
+        <v>9905400</v>
       </c>
       <c r="J8" s="3">
-        <v>10613200</v>
+        <v>10733900</v>
       </c>
       <c r="K8" s="3">
         <v>11455100</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-532800</v>
+        <v>-538900</v>
       </c>
       <c r="E15" s="3">
-        <v>-509400</v>
+        <v>-515200</v>
       </c>
       <c r="F15" s="3">
-        <v>-215900</v>
+        <v>-218400</v>
       </c>
       <c r="G15" s="3">
-        <v>-211600</v>
+        <v>-214000</v>
       </c>
       <c r="H15" s="3">
-        <v>-221400</v>
+        <v>-223900</v>
       </c>
       <c r="I15" s="3">
-        <v>-236700</v>
+        <v>-239400</v>
       </c>
       <c r="J15" s="3">
-        <v>-275400</v>
+        <v>-278500</v>
       </c>
       <c r="K15" s="3">
         <v>-291000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4304300</v>
+        <v>4353300</v>
       </c>
       <c r="E17" s="3">
-        <v>5253100</v>
+        <v>5312800</v>
       </c>
       <c r="F17" s="3">
-        <v>4393300</v>
+        <v>4443200</v>
       </c>
       <c r="G17" s="3">
-        <v>4199600</v>
+        <v>4247300</v>
       </c>
       <c r="H17" s="3">
-        <v>4521900</v>
+        <v>4573300</v>
       </c>
       <c r="I17" s="3">
-        <v>4803500</v>
+        <v>4858000</v>
       </c>
       <c r="J17" s="3">
-        <v>5469300</v>
+        <v>5531500</v>
       </c>
       <c r="K17" s="3">
         <v>6470200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8696800</v>
+        <v>8795600</v>
       </c>
       <c r="E18" s="3">
-        <v>8569400</v>
+        <v>8666800</v>
       </c>
       <c r="F18" s="3">
-        <v>7550500</v>
+        <v>7636300</v>
       </c>
       <c r="G18" s="3">
-        <v>6183200</v>
+        <v>6253500</v>
       </c>
       <c r="H18" s="3">
-        <v>5366000</v>
+        <v>5427000</v>
       </c>
       <c r="I18" s="3">
-        <v>4990700</v>
+        <v>5047400</v>
       </c>
       <c r="J18" s="3">
-        <v>5143900</v>
+        <v>5202400</v>
       </c>
       <c r="K18" s="3">
         <v>4984900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4513400</v>
+        <v>-4564700</v>
       </c>
       <c r="E20" s="3">
-        <v>-4247300</v>
+        <v>-4295500</v>
       </c>
       <c r="F20" s="3">
-        <v>-3619900</v>
+        <v>-3661000</v>
       </c>
       <c r="G20" s="3">
-        <v>-2842500</v>
+        <v>-2874800</v>
       </c>
       <c r="H20" s="3">
-        <v>-2576000</v>
+        <v>-2605300</v>
       </c>
       <c r="I20" s="3">
-        <v>-2227000</v>
+        <v>-2252300</v>
       </c>
       <c r="J20" s="3">
-        <v>-2620500</v>
+        <v>-2650200</v>
       </c>
       <c r="K20" s="3">
         <v>-2544200</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4859700</v>
+        <v>4914900</v>
       </c>
       <c r="E21" s="3">
-        <v>4918000</v>
+        <v>4973900</v>
       </c>
       <c r="F21" s="3">
-        <v>4196300</v>
+        <v>4244000</v>
       </c>
       <c r="G21" s="3">
-        <v>3563600</v>
+        <v>3604100</v>
       </c>
       <c r="H21" s="3">
-        <v>3018800</v>
+        <v>3053100</v>
       </c>
       <c r="I21" s="3">
-        <v>3009100</v>
+        <v>3043300</v>
       </c>
       <c r="J21" s="3">
-        <v>2798900</v>
+        <v>2830700</v>
       </c>
       <c r="K21" s="3">
         <v>2728500</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4183400</v>
+        <v>4230900</v>
       </c>
       <c r="E23" s="3">
-        <v>4322100</v>
+        <v>4371200</v>
       </c>
       <c r="F23" s="3">
-        <v>3930600</v>
+        <v>3975300</v>
       </c>
       <c r="G23" s="3">
-        <v>3340700</v>
+        <v>3378700</v>
       </c>
       <c r="H23" s="3">
-        <v>2790000</v>
+        <v>2821700</v>
       </c>
       <c r="I23" s="3">
-        <v>2763700</v>
+        <v>2795100</v>
       </c>
       <c r="J23" s="3">
-        <v>2523500</v>
+        <v>2552100</v>
       </c>
       <c r="K23" s="3">
         <v>2440700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1105100</v>
+        <v>1117700</v>
       </c>
       <c r="E24" s="3">
-        <v>1116800</v>
+        <v>1129500</v>
       </c>
       <c r="F24" s="3">
-        <v>1116100</v>
+        <v>1128800</v>
       </c>
       <c r="G24" s="3">
-        <v>746400</v>
+        <v>754800</v>
       </c>
       <c r="H24" s="3">
-        <v>304100</v>
+        <v>307500</v>
       </c>
       <c r="I24" s="3">
-        <v>611300</v>
+        <v>618200</v>
       </c>
       <c r="J24" s="3">
-        <v>587800</v>
+        <v>594500</v>
       </c>
       <c r="K24" s="3">
         <v>566500</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3078300</v>
+        <v>3113300</v>
       </c>
       <c r="E26" s="3">
-        <v>3205300</v>
+        <v>3241700</v>
       </c>
       <c r="F26" s="3">
-        <v>2814500</v>
+        <v>2846500</v>
       </c>
       <c r="G26" s="3">
-        <v>2594300</v>
+        <v>2623800</v>
       </c>
       <c r="H26" s="3">
-        <v>2485900</v>
+        <v>2514200</v>
       </c>
       <c r="I26" s="3">
-        <v>2152400</v>
+        <v>2176900</v>
       </c>
       <c r="J26" s="3">
-        <v>1935700</v>
+        <v>1957700</v>
       </c>
       <c r="K26" s="3">
         <v>1874200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2929800</v>
+        <v>2963000</v>
       </c>
       <c r="E27" s="3">
-        <v>2940500</v>
+        <v>2973900</v>
       </c>
       <c r="F27" s="3">
-        <v>2742400</v>
+        <v>2773600</v>
       </c>
       <c r="G27" s="3">
-        <v>2552100</v>
+        <v>2581100</v>
       </c>
       <c r="H27" s="3">
-        <v>2393500</v>
+        <v>2420700</v>
       </c>
       <c r="I27" s="3">
-        <v>1998300</v>
+        <v>2021000</v>
       </c>
       <c r="J27" s="3">
-        <v>1750500</v>
+        <v>1770400</v>
       </c>
       <c r="K27" s="3">
         <v>1647900</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4513400</v>
+        <v>4564700</v>
       </c>
       <c r="E32" s="3">
-        <v>4247300</v>
+        <v>4295500</v>
       </c>
       <c r="F32" s="3">
-        <v>3619900</v>
+        <v>3661000</v>
       </c>
       <c r="G32" s="3">
-        <v>2842500</v>
+        <v>2874800</v>
       </c>
       <c r="H32" s="3">
-        <v>2576000</v>
+        <v>2605300</v>
       </c>
       <c r="I32" s="3">
-        <v>2227000</v>
+        <v>2252300</v>
       </c>
       <c r="J32" s="3">
-        <v>2620500</v>
+        <v>2650200</v>
       </c>
       <c r="K32" s="3">
         <v>2544200</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2929800</v>
+        <v>2963000</v>
       </c>
       <c r="E33" s="3">
-        <v>2940500</v>
+        <v>2973900</v>
       </c>
       <c r="F33" s="3">
-        <v>2742400</v>
+        <v>2773600</v>
       </c>
       <c r="G33" s="3">
-        <v>2552100</v>
+        <v>2581100</v>
       </c>
       <c r="H33" s="3">
-        <v>2393500</v>
+        <v>2420700</v>
       </c>
       <c r="I33" s="3">
-        <v>1998300</v>
+        <v>2021000</v>
       </c>
       <c r="J33" s="3">
-        <v>1750500</v>
+        <v>1770400</v>
       </c>
       <c r="K33" s="3">
         <v>1647900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2929800</v>
+        <v>2963000</v>
       </c>
       <c r="E35" s="3">
-        <v>2940500</v>
+        <v>2973900</v>
       </c>
       <c r="F35" s="3">
-        <v>2742400</v>
+        <v>2773600</v>
       </c>
       <c r="G35" s="3">
-        <v>2552100</v>
+        <v>2581100</v>
       </c>
       <c r="H35" s="3">
-        <v>2393500</v>
+        <v>2420700</v>
       </c>
       <c r="I35" s="3">
-        <v>1998300</v>
+        <v>2021000</v>
       </c>
       <c r="J35" s="3">
-        <v>1750500</v>
+        <v>1770400</v>
       </c>
       <c r="K35" s="3">
         <v>1647900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34234600</v>
+        <v>34623600</v>
       </c>
       <c r="E41" s="3">
-        <v>27330400</v>
+        <v>27641000</v>
       </c>
       <c r="F41" s="3">
-        <v>18422100</v>
+        <v>18631400</v>
       </c>
       <c r="G41" s="3">
-        <v>22561800</v>
+        <v>22818200</v>
       </c>
       <c r="H41" s="3">
-        <v>21041700</v>
+        <v>21280800</v>
       </c>
       <c r="I41" s="3">
-        <v>23476300</v>
+        <v>23743100</v>
       </c>
       <c r="J41" s="3">
-        <v>22236600</v>
+        <v>22489300</v>
       </c>
       <c r="K41" s="3">
         <v>20543500</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>149885000</v>
+        <v>151588000</v>
       </c>
       <c r="E42" s="3">
-        <v>141641000</v>
+        <v>143250000</v>
       </c>
       <c r="F42" s="3">
-        <v>98666200</v>
+        <v>99787400</v>
       </c>
       <c r="G42" s="3">
-        <v>31190300</v>
+        <v>31544700</v>
       </c>
       <c r="H42" s="3">
-        <v>29141100</v>
+        <v>29472300</v>
       </c>
       <c r="I42" s="3">
-        <v>24532000</v>
+        <v>24810800</v>
       </c>
       <c r="J42" s="3">
-        <v>25227700</v>
+        <v>25514400</v>
       </c>
       <c r="K42" s="3">
         <v>21031500</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2338800</v>
+        <v>2365400</v>
       </c>
       <c r="E47" s="3">
-        <v>1278500</v>
+        <v>1293000</v>
       </c>
       <c r="F47" s="3">
-        <v>590800</v>
+        <v>597500</v>
       </c>
       <c r="G47" s="3">
-        <v>555500</v>
+        <v>561900</v>
       </c>
       <c r="H47" s="3">
-        <v>311200</v>
+        <v>314700</v>
       </c>
       <c r="I47" s="3">
-        <v>345800</v>
+        <v>349800</v>
       </c>
       <c r="J47" s="3">
-        <v>300900</v>
+        <v>304300</v>
       </c>
       <c r="K47" s="3">
         <v>299000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4052300</v>
+        <v>4098400</v>
       </c>
       <c r="E48" s="3">
-        <v>4023300</v>
+        <v>4069000</v>
       </c>
       <c r="F48" s="3">
-        <v>3061300</v>
+        <v>3096000</v>
       </c>
       <c r="G48" s="3">
-        <v>3027300</v>
+        <v>3061700</v>
       </c>
       <c r="H48" s="3">
-        <v>3078900</v>
+        <v>3113900</v>
       </c>
       <c r="I48" s="3">
-        <v>2872400</v>
+        <v>2905100</v>
       </c>
       <c r="J48" s="3">
-        <v>3005000</v>
+        <v>3039200</v>
       </c>
       <c r="K48" s="3">
         <v>3553100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4822900</v>
+        <v>4877800</v>
       </c>
       <c r="E49" s="3">
-        <v>4891700</v>
+        <v>4947300</v>
       </c>
       <c r="F49" s="3">
-        <v>3801700</v>
+        <v>3844900</v>
       </c>
       <c r="G49" s="3">
-        <v>3759300</v>
+        <v>3802100</v>
       </c>
       <c r="H49" s="3">
-        <v>3719300</v>
+        <v>3761600</v>
       </c>
       <c r="I49" s="3">
-        <v>3754400</v>
+        <v>3797000</v>
       </c>
       <c r="J49" s="3">
-        <v>3654500</v>
+        <v>3696000</v>
       </c>
       <c r="K49" s="3">
         <v>3846000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>253500</v>
+        <v>256400</v>
       </c>
       <c r="E52" s="3">
-        <v>215700</v>
+        <v>218100</v>
       </c>
       <c r="F52" s="3">
-        <v>382400</v>
+        <v>386700</v>
       </c>
       <c r="G52" s="3">
-        <v>527900</v>
+        <v>533900</v>
       </c>
       <c r="H52" s="3">
-        <v>568500</v>
+        <v>574900</v>
       </c>
       <c r="I52" s="3">
-        <v>147500</v>
+        <v>149200</v>
       </c>
       <c r="J52" s="3">
-        <v>208800</v>
+        <v>211200</v>
       </c>
       <c r="K52" s="3">
         <v>399700</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>532606000</v>
+        <v>538658000</v>
       </c>
       <c r="E54" s="3">
-        <v>486129000</v>
+        <v>491653000</v>
       </c>
       <c r="F54" s="3">
-        <v>404448000</v>
+        <v>409045000</v>
       </c>
       <c r="G54" s="3">
-        <v>375149000</v>
+        <v>379412000</v>
       </c>
       <c r="H54" s="3">
-        <v>348199000</v>
+        <v>352156000</v>
       </c>
       <c r="I54" s="3">
-        <v>326082000</v>
+        <v>329788000</v>
       </c>
       <c r="J54" s="3">
-        <v>297459000</v>
+        <v>300839000</v>
       </c>
       <c r="K54" s="3">
         <v>283274000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18104600</v>
+        <v>18310400</v>
       </c>
       <c r="E57" s="3">
-        <v>11960300</v>
+        <v>12096200</v>
       </c>
       <c r="F57" s="3">
-        <v>9759300</v>
+        <v>9870200</v>
       </c>
       <c r="G57" s="3">
-        <v>9289600</v>
+        <v>9395200</v>
       </c>
       <c r="H57" s="3">
-        <v>7450000</v>
+        <v>7534600</v>
       </c>
       <c r="I57" s="3">
-        <v>9655600</v>
+        <v>9765300</v>
       </c>
       <c r="J57" s="3">
-        <v>7492800</v>
+        <v>7578000</v>
       </c>
       <c r="K57" s="3">
         <v>5536200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3059200</v>
+        <v>3093900</v>
       </c>
       <c r="E59" s="3">
-        <v>3561300</v>
+        <v>3601700</v>
       </c>
       <c r="F59" s="3">
-        <v>3297300</v>
+        <v>3334800</v>
       </c>
       <c r="G59" s="3">
-        <v>2973800</v>
+        <v>3007600</v>
       </c>
       <c r="H59" s="3">
-        <v>2743600</v>
+        <v>2774800</v>
       </c>
       <c r="I59" s="3">
-        <v>2625200</v>
+        <v>2655000</v>
       </c>
       <c r="J59" s="3">
-        <v>3077800</v>
+        <v>3112800</v>
       </c>
       <c r="K59" s="3">
         <v>3248200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>91947900</v>
+        <v>92992800</v>
       </c>
       <c r="E61" s="3">
-        <v>89328600</v>
+        <v>90343700</v>
       </c>
       <c r="F61" s="3">
-        <v>73912900</v>
+        <v>74752800</v>
       </c>
       <c r="G61" s="3">
-        <v>60720700</v>
+        <v>61410700</v>
       </c>
       <c r="H61" s="3">
-        <v>53148000</v>
+        <v>53752000</v>
       </c>
       <c r="I61" s="3">
-        <v>48985800</v>
+        <v>49542500</v>
       </c>
       <c r="J61" s="3">
-        <v>32854500</v>
+        <v>33227800</v>
       </c>
       <c r="K61" s="3">
         <v>34117200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1273300</v>
+        <v>1287700</v>
       </c>
       <c r="E62" s="3">
-        <v>994200</v>
+        <v>1005500</v>
       </c>
       <c r="F62" s="3">
-        <v>578800</v>
+        <v>585400</v>
       </c>
       <c r="G62" s="3">
-        <v>392300</v>
+        <v>396800</v>
       </c>
       <c r="H62" s="3">
-        <v>766000</v>
+        <v>774700</v>
       </c>
       <c r="I62" s="3">
-        <v>828100</v>
+        <v>837600</v>
       </c>
       <c r="J62" s="3">
-        <v>891600</v>
+        <v>901700</v>
       </c>
       <c r="K62" s="3">
         <v>803100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>493825000</v>
+        <v>499436000</v>
       </c>
       <c r="E66" s="3">
-        <v>451653000</v>
+        <v>456785000</v>
       </c>
       <c r="F66" s="3">
-        <v>373010000</v>
+        <v>377249000</v>
       </c>
       <c r="G66" s="3">
-        <v>346268000</v>
+        <v>350203000</v>
       </c>
       <c r="H66" s="3">
-        <v>320822000</v>
+        <v>324468000</v>
       </c>
       <c r="I66" s="3">
-        <v>298943000</v>
+        <v>302340000</v>
       </c>
       <c r="J66" s="3">
-        <v>271777000</v>
+        <v>274866000</v>
       </c>
       <c r="K66" s="3">
         <v>258215000</v>
@@ -2722,25 +2722,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>318100</v>
+        <v>321700</v>
       </c>
       <c r="E70" s="3">
-        <v>318100</v>
+        <v>321700</v>
       </c>
       <c r="F70" s="3">
-        <v>241200</v>
+        <v>243900</v>
       </c>
       <c r="G70" s="3">
-        <v>241200</v>
+        <v>243900</v>
       </c>
       <c r="H70" s="3">
-        <v>241200</v>
+        <v>243900</v>
       </c>
       <c r="I70" s="3">
-        <v>241200</v>
+        <v>243900</v>
       </c>
       <c r="J70" s="3">
-        <v>241200</v>
+        <v>243900</v>
       </c>
       <c r="K70" s="3">
         <v>249400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24443900</v>
+        <v>24721700</v>
       </c>
       <c r="E72" s="3">
-        <v>22462700</v>
+        <v>22718000</v>
       </c>
       <c r="F72" s="3">
-        <v>20204300</v>
+        <v>20433900</v>
       </c>
       <c r="G72" s="3">
-        <v>18295700</v>
+        <v>18503600</v>
       </c>
       <c r="H72" s="3">
-        <v>16403200</v>
+        <v>16589600</v>
       </c>
       <c r="I72" s="3">
-        <v>15566400</v>
+        <v>15743300</v>
       </c>
       <c r="J72" s="3">
-        <v>13965400</v>
+        <v>14124100</v>
       </c>
       <c r="K72" s="3">
         <v>12911500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>38463100</v>
+        <v>38900200</v>
       </c>
       <c r="E76" s="3">
-        <v>34158500</v>
+        <v>34546700</v>
       </c>
       <c r="F76" s="3">
-        <v>31197400</v>
+        <v>31551900</v>
       </c>
       <c r="G76" s="3">
-        <v>28639600</v>
+        <v>28965100</v>
       </c>
       <c r="H76" s="3">
-        <v>27135300</v>
+        <v>27443700</v>
       </c>
       <c r="I76" s="3">
-        <v>26897700</v>
+        <v>27203400</v>
       </c>
       <c r="J76" s="3">
-        <v>25440800</v>
+        <v>25729900</v>
       </c>
       <c r="K76" s="3">
         <v>24810300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2929800</v>
+        <v>2963000</v>
       </c>
       <c r="E81" s="3">
-        <v>2940500</v>
+        <v>2973900</v>
       </c>
       <c r="F81" s="3">
-        <v>2742400</v>
+        <v>2773600</v>
       </c>
       <c r="G81" s="3">
-        <v>2552100</v>
+        <v>2581100</v>
       </c>
       <c r="H81" s="3">
-        <v>2393500</v>
+        <v>2420700</v>
       </c>
       <c r="I81" s="3">
-        <v>1998300</v>
+        <v>2021000</v>
       </c>
       <c r="J81" s="3">
-        <v>1750500</v>
+        <v>1770400</v>
       </c>
       <c r="K81" s="3">
         <v>1647900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>676300</v>
+        <v>684000</v>
       </c>
       <c r="E83" s="3">
-        <v>595900</v>
+        <v>602700</v>
       </c>
       <c r="F83" s="3">
-        <v>265700</v>
+        <v>268700</v>
       </c>
       <c r="G83" s="3">
-        <v>222900</v>
+        <v>225500</v>
       </c>
       <c r="H83" s="3">
-        <v>228700</v>
+        <v>231300</v>
       </c>
       <c r="I83" s="3">
-        <v>245400</v>
+        <v>248200</v>
       </c>
       <c r="J83" s="3">
-        <v>275400</v>
+        <v>278500</v>
       </c>
       <c r="K83" s="3">
         <v>291000</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3880200</v>
+        <v>-3924300</v>
       </c>
       <c r="E89" s="3">
-        <v>6317600</v>
+        <v>6389400</v>
       </c>
       <c r="F89" s="3">
-        <v>-5561800</v>
+        <v>-5625000</v>
       </c>
       <c r="G89" s="3">
-        <v>898800</v>
+        <v>909000</v>
       </c>
       <c r="H89" s="3">
-        <v>3341500</v>
+        <v>3379500</v>
       </c>
       <c r="I89" s="3">
-        <v>2613900</v>
+        <v>2643600</v>
       </c>
       <c r="J89" s="3">
-        <v>-1831000</v>
+        <v>-1851800</v>
       </c>
       <c r="K89" s="3">
         <v>-1000600</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-246100</v>
+        <v>-248900</v>
       </c>
       <c r="E91" s="3">
-        <v>-237900</v>
+        <v>-240600</v>
       </c>
       <c r="F91" s="3">
-        <v>-125800</v>
+        <v>-127200</v>
       </c>
       <c r="G91" s="3">
-        <v>-136600</v>
+        <v>-138100</v>
       </c>
       <c r="H91" s="3">
-        <v>-221800</v>
+        <v>-224400</v>
       </c>
       <c r="I91" s="3">
-        <v>-109900</v>
+        <v>-111100</v>
       </c>
       <c r="J91" s="3">
-        <v>-160300</v>
+        <v>-162100</v>
       </c>
       <c r="K91" s="3">
         <v>-267500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2662800</v>
+        <v>-2693100</v>
       </c>
       <c r="E94" s="3">
-        <v>-19965300</v>
+        <v>-20192200</v>
       </c>
       <c r="F94" s="3">
-        <v>-4851100</v>
+        <v>-4906200</v>
       </c>
       <c r="G94" s="3">
-        <v>-9419200</v>
+        <v>-9526200</v>
       </c>
       <c r="H94" s="3">
-        <v>-6682600</v>
+        <v>-6758500</v>
       </c>
       <c r="I94" s="3">
-        <v>-4654000</v>
+        <v>-4706900</v>
       </c>
       <c r="J94" s="3">
-        <v>845500</v>
+        <v>855100</v>
       </c>
       <c r="K94" s="3">
         <v>3090300</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-852600</v>
+        <v>-862300</v>
       </c>
       <c r="E96" s="3">
-        <v>-731100</v>
+        <v>-739400</v>
       </c>
       <c r="F96" s="3">
-        <v>-628900</v>
+        <v>-636100</v>
       </c>
       <c r="G96" s="3">
-        <v>-621800</v>
+        <v>-628800</v>
       </c>
       <c r="H96" s="3">
-        <v>-588800</v>
+        <v>-595500</v>
       </c>
       <c r="I96" s="3">
-        <v>-480600</v>
+        <v>-486100</v>
       </c>
       <c r="J96" s="3">
-        <v>-351800</v>
+        <v>-355800</v>
       </c>
       <c r="K96" s="3">
         <v>-385900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6934900</v>
+        <v>7013700</v>
       </c>
       <c r="E100" s="3">
-        <v>13973400</v>
+        <v>14132100</v>
       </c>
       <c r="F100" s="3">
-        <v>12149700</v>
+        <v>12287800</v>
       </c>
       <c r="G100" s="3">
-        <v>9092600</v>
+        <v>9195900</v>
       </c>
       <c r="H100" s="3">
-        <v>4263300</v>
+        <v>4311700</v>
       </c>
       <c r="I100" s="3">
-        <v>1155200</v>
+        <v>1168300</v>
       </c>
       <c r="J100" s="3">
-        <v>604400</v>
+        <v>611300</v>
       </c>
       <c r="K100" s="3">
         <v>-1171100</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-54100</v>
+        <v>-54800</v>
       </c>
       <c r="E101" s="3">
-        <v>25900</v>
+        <v>26200</v>
       </c>
       <c r="F101" s="3">
-        <v>-27000</v>
+        <v>-27300</v>
       </c>
       <c r="G101" s="3">
-        <v>-40500</v>
+        <v>-41000</v>
       </c>
       <c r="H101" s="3">
-        <v>-19900</v>
+        <v>-20100</v>
       </c>
       <c r="I101" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="J101" s="3">
-        <v>14300</v>
+        <v>14500</v>
       </c>
       <c r="K101" s="3">
         <v>3600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>337800</v>
+        <v>341600</v>
       </c>
       <c r="E102" s="3">
-        <v>351500</v>
+        <v>355500</v>
       </c>
       <c r="F102" s="3">
-        <v>1709900</v>
+        <v>1729400</v>
       </c>
       <c r="G102" s="3">
-        <v>531600</v>
+        <v>537700</v>
       </c>
       <c r="H102" s="3">
-        <v>902300</v>
+        <v>912500</v>
       </c>
       <c r="I102" s="3">
-        <v>-877500</v>
+        <v>-887500</v>
       </c>
       <c r="J102" s="3">
-        <v>-366800</v>
+        <v>-370900</v>
       </c>
       <c r="K102" s="3">
         <v>922200</v>

--- a/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13148900</v>
+        <v>12557900</v>
       </c>
       <c r="E8" s="3">
-        <v>13979600</v>
+        <v>13351300</v>
       </c>
       <c r="F8" s="3">
-        <v>12079500</v>
+        <v>11536600</v>
       </c>
       <c r="G8" s="3">
-        <v>10500800</v>
+        <v>10028900</v>
       </c>
       <c r="H8" s="3">
-        <v>10000300</v>
+        <v>9550900</v>
       </c>
       <c r="I8" s="3">
-        <v>9905400</v>
+        <v>9460200</v>
       </c>
       <c r="J8" s="3">
-        <v>10733900</v>
+        <v>10251400</v>
       </c>
       <c r="K8" s="3">
         <v>11455100</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-538900</v>
+        <v>-514700</v>
       </c>
       <c r="E15" s="3">
-        <v>-515200</v>
+        <v>-492000</v>
       </c>
       <c r="F15" s="3">
-        <v>-218400</v>
+        <v>-208500</v>
       </c>
       <c r="G15" s="3">
-        <v>-214000</v>
+        <v>-204300</v>
       </c>
       <c r="H15" s="3">
-        <v>-223900</v>
+        <v>-213900</v>
       </c>
       <c r="I15" s="3">
-        <v>-239400</v>
+        <v>-228600</v>
       </c>
       <c r="J15" s="3">
-        <v>-278500</v>
+        <v>-266000</v>
       </c>
       <c r="K15" s="3">
         <v>-291000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4353300</v>
+        <v>4157600</v>
       </c>
       <c r="E17" s="3">
-        <v>5312800</v>
+        <v>5074000</v>
       </c>
       <c r="F17" s="3">
-        <v>4443200</v>
+        <v>4243500</v>
       </c>
       <c r="G17" s="3">
-        <v>4247300</v>
+        <v>4056500</v>
       </c>
       <c r="H17" s="3">
-        <v>4573300</v>
+        <v>4367800</v>
       </c>
       <c r="I17" s="3">
-        <v>4858000</v>
+        <v>4639700</v>
       </c>
       <c r="J17" s="3">
-        <v>5531500</v>
+        <v>5282900</v>
       </c>
       <c r="K17" s="3">
         <v>6470200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8795600</v>
+        <v>8400300</v>
       </c>
       <c r="E18" s="3">
-        <v>8666800</v>
+        <v>8277300</v>
       </c>
       <c r="F18" s="3">
-        <v>7636300</v>
+        <v>7293100</v>
       </c>
       <c r="G18" s="3">
-        <v>6253500</v>
+        <v>5972400</v>
       </c>
       <c r="H18" s="3">
-        <v>5427000</v>
+        <v>5183100</v>
       </c>
       <c r="I18" s="3">
-        <v>5047400</v>
+        <v>4820500</v>
       </c>
       <c r="J18" s="3">
-        <v>5202400</v>
+        <v>4968600</v>
       </c>
       <c r="K18" s="3">
         <v>4984900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4564700</v>
+        <v>-4359500</v>
       </c>
       <c r="E20" s="3">
-        <v>-4295500</v>
+        <v>-4102500</v>
       </c>
       <c r="F20" s="3">
-        <v>-3661000</v>
+        <v>-3496500</v>
       </c>
       <c r="G20" s="3">
-        <v>-2874800</v>
+        <v>-2745600</v>
       </c>
       <c r="H20" s="3">
-        <v>-2605300</v>
+        <v>-2488200</v>
       </c>
       <c r="I20" s="3">
-        <v>-2252300</v>
+        <v>-2151000</v>
       </c>
       <c r="J20" s="3">
-        <v>-2650200</v>
+        <v>-2531100</v>
       </c>
       <c r="K20" s="3">
         <v>-2544200</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4914900</v>
+        <v>4694000</v>
       </c>
       <c r="E21" s="3">
-        <v>4973900</v>
+        <v>4750400</v>
       </c>
       <c r="F21" s="3">
-        <v>4244000</v>
+        <v>4053200</v>
       </c>
       <c r="G21" s="3">
-        <v>3604100</v>
+        <v>3442200</v>
       </c>
       <c r="H21" s="3">
-        <v>3053100</v>
+        <v>2915900</v>
       </c>
       <c r="I21" s="3">
-        <v>3043300</v>
+        <v>2906500</v>
       </c>
       <c r="J21" s="3">
-        <v>2830700</v>
+        <v>2703500</v>
       </c>
       <c r="K21" s="3">
         <v>2728500</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4230900</v>
+        <v>4040800</v>
       </c>
       <c r="E23" s="3">
-        <v>4371200</v>
+        <v>4174800</v>
       </c>
       <c r="F23" s="3">
-        <v>3975300</v>
+        <v>3796600</v>
       </c>
       <c r="G23" s="3">
-        <v>3378700</v>
+        <v>3226800</v>
       </c>
       <c r="H23" s="3">
-        <v>2821700</v>
+        <v>2694900</v>
       </c>
       <c r="I23" s="3">
-        <v>2795100</v>
+        <v>2669500</v>
       </c>
       <c r="J23" s="3">
-        <v>2552100</v>
+        <v>2437400</v>
       </c>
       <c r="K23" s="3">
         <v>2440700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1117700</v>
+        <v>1067400</v>
       </c>
       <c r="E24" s="3">
-        <v>1129500</v>
+        <v>1078800</v>
       </c>
       <c r="F24" s="3">
-        <v>1128800</v>
+        <v>1078100</v>
       </c>
       <c r="G24" s="3">
-        <v>754800</v>
+        <v>720900</v>
       </c>
       <c r="H24" s="3">
-        <v>307500</v>
+        <v>293700</v>
       </c>
       <c r="I24" s="3">
-        <v>618200</v>
+        <v>590400</v>
       </c>
       <c r="J24" s="3">
-        <v>594500</v>
+        <v>567800</v>
       </c>
       <c r="K24" s="3">
         <v>566500</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3113300</v>
+        <v>2973400</v>
       </c>
       <c r="E26" s="3">
-        <v>3241700</v>
+        <v>3096000</v>
       </c>
       <c r="F26" s="3">
-        <v>2846500</v>
+        <v>2718500</v>
       </c>
       <c r="G26" s="3">
-        <v>2623800</v>
+        <v>2505900</v>
       </c>
       <c r="H26" s="3">
-        <v>2514200</v>
+        <v>2401200</v>
       </c>
       <c r="I26" s="3">
-        <v>2176900</v>
+        <v>2079100</v>
       </c>
       <c r="J26" s="3">
-        <v>1957700</v>
+        <v>1869700</v>
       </c>
       <c r="K26" s="3">
         <v>1874200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2963000</v>
+        <v>2829900</v>
       </c>
       <c r="E27" s="3">
-        <v>2973900</v>
+        <v>2840300</v>
       </c>
       <c r="F27" s="3">
-        <v>2773600</v>
+        <v>2648900</v>
       </c>
       <c r="G27" s="3">
-        <v>2581100</v>
+        <v>2465000</v>
       </c>
       <c r="H27" s="3">
-        <v>2420700</v>
+        <v>2311900</v>
       </c>
       <c r="I27" s="3">
-        <v>2021000</v>
+        <v>1930100</v>
       </c>
       <c r="J27" s="3">
-        <v>1770400</v>
+        <v>1690800</v>
       </c>
       <c r="K27" s="3">
         <v>1647900</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4564700</v>
+        <v>4359500</v>
       </c>
       <c r="E32" s="3">
-        <v>4295500</v>
+        <v>4102500</v>
       </c>
       <c r="F32" s="3">
-        <v>3661000</v>
+        <v>3496500</v>
       </c>
       <c r="G32" s="3">
-        <v>2874800</v>
+        <v>2745600</v>
       </c>
       <c r="H32" s="3">
-        <v>2605300</v>
+        <v>2488200</v>
       </c>
       <c r="I32" s="3">
-        <v>2252300</v>
+        <v>2151000</v>
       </c>
       <c r="J32" s="3">
-        <v>2650200</v>
+        <v>2531100</v>
       </c>
       <c r="K32" s="3">
         <v>2544200</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2963000</v>
+        <v>2829900</v>
       </c>
       <c r="E33" s="3">
-        <v>2973900</v>
+        <v>2840300</v>
       </c>
       <c r="F33" s="3">
-        <v>2773600</v>
+        <v>2648900</v>
       </c>
       <c r="G33" s="3">
-        <v>2581100</v>
+        <v>2465000</v>
       </c>
       <c r="H33" s="3">
-        <v>2420700</v>
+        <v>2311900</v>
       </c>
       <c r="I33" s="3">
-        <v>2021000</v>
+        <v>1930100</v>
       </c>
       <c r="J33" s="3">
-        <v>1770400</v>
+        <v>1690800</v>
       </c>
       <c r="K33" s="3">
         <v>1647900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2963000</v>
+        <v>2829900</v>
       </c>
       <c r="E35" s="3">
-        <v>2973900</v>
+        <v>2840300</v>
       </c>
       <c r="F35" s="3">
-        <v>2773600</v>
+        <v>2648900</v>
       </c>
       <c r="G35" s="3">
-        <v>2581100</v>
+        <v>2465000</v>
       </c>
       <c r="H35" s="3">
-        <v>2420700</v>
+        <v>2311900</v>
       </c>
       <c r="I35" s="3">
-        <v>2021000</v>
+        <v>1930100</v>
       </c>
       <c r="J35" s="3">
-        <v>1770400</v>
+        <v>1690800</v>
       </c>
       <c r="K35" s="3">
         <v>1647900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34623600</v>
+        <v>33067500</v>
       </c>
       <c r="E41" s="3">
-        <v>27641000</v>
+        <v>26398700</v>
       </c>
       <c r="F41" s="3">
-        <v>18631400</v>
+        <v>17794100</v>
       </c>
       <c r="G41" s="3">
-        <v>22818200</v>
+        <v>21792600</v>
       </c>
       <c r="H41" s="3">
-        <v>21280800</v>
+        <v>20324400</v>
       </c>
       <c r="I41" s="3">
-        <v>23743100</v>
+        <v>22676000</v>
       </c>
       <c r="J41" s="3">
-        <v>22489300</v>
+        <v>21478500</v>
       </c>
       <c r="K41" s="3">
         <v>20543500</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>151588000</v>
+        <v>144775000</v>
       </c>
       <c r="E42" s="3">
-        <v>143250000</v>
+        <v>136812000</v>
       </c>
       <c r="F42" s="3">
-        <v>99787400</v>
+        <v>95302600</v>
       </c>
       <c r="G42" s="3">
-        <v>31544700</v>
+        <v>30127000</v>
       </c>
       <c r="H42" s="3">
-        <v>29472300</v>
+        <v>28147700</v>
       </c>
       <c r="I42" s="3">
-        <v>24810800</v>
+        <v>23695700</v>
       </c>
       <c r="J42" s="3">
-        <v>25514400</v>
+        <v>24367700</v>
       </c>
       <c r="K42" s="3">
         <v>21031500</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2365400</v>
+        <v>2259100</v>
       </c>
       <c r="E47" s="3">
-        <v>1293000</v>
+        <v>1234900</v>
       </c>
       <c r="F47" s="3">
-        <v>597500</v>
+        <v>570600</v>
       </c>
       <c r="G47" s="3">
-        <v>561900</v>
+        <v>536600</v>
       </c>
       <c r="H47" s="3">
-        <v>314700</v>
+        <v>300600</v>
       </c>
       <c r="I47" s="3">
-        <v>349800</v>
+        <v>334100</v>
       </c>
       <c r="J47" s="3">
-        <v>304300</v>
+        <v>290600</v>
       </c>
       <c r="K47" s="3">
         <v>299000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4098400</v>
+        <v>3914200</v>
       </c>
       <c r="E48" s="3">
-        <v>4069000</v>
+        <v>3886100</v>
       </c>
       <c r="F48" s="3">
-        <v>3096000</v>
+        <v>2956900</v>
       </c>
       <c r="G48" s="3">
-        <v>3061700</v>
+        <v>2924100</v>
       </c>
       <c r="H48" s="3">
-        <v>3113900</v>
+        <v>2974000</v>
       </c>
       <c r="I48" s="3">
-        <v>2905100</v>
+        <v>2774500</v>
       </c>
       <c r="J48" s="3">
-        <v>3039200</v>
+        <v>2902600</v>
       </c>
       <c r="K48" s="3">
         <v>3553100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4877800</v>
+        <v>4658500</v>
       </c>
       <c r="E49" s="3">
-        <v>4947300</v>
+        <v>4724900</v>
       </c>
       <c r="F49" s="3">
-        <v>3844900</v>
+        <v>3672100</v>
       </c>
       <c r="G49" s="3">
-        <v>3802100</v>
+        <v>3631200</v>
       </c>
       <c r="H49" s="3">
-        <v>3761600</v>
+        <v>3592500</v>
       </c>
       <c r="I49" s="3">
-        <v>3797000</v>
+        <v>3626400</v>
       </c>
       <c r="J49" s="3">
-        <v>3696000</v>
+        <v>3529900</v>
       </c>
       <c r="K49" s="3">
         <v>3846000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>256400</v>
+        <v>244900</v>
       </c>
       <c r="E52" s="3">
-        <v>218100</v>
+        <v>208300</v>
       </c>
       <c r="F52" s="3">
-        <v>386700</v>
+        <v>369400</v>
       </c>
       <c r="G52" s="3">
-        <v>533900</v>
+        <v>509900</v>
       </c>
       <c r="H52" s="3">
-        <v>574900</v>
+        <v>549100</v>
       </c>
       <c r="I52" s="3">
-        <v>149200</v>
+        <v>142500</v>
       </c>
       <c r="J52" s="3">
-        <v>211200</v>
+        <v>201700</v>
       </c>
       <c r="K52" s="3">
         <v>399700</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>538658000</v>
+        <v>514449000</v>
       </c>
       <c r="E54" s="3">
-        <v>491653000</v>
+        <v>469557000</v>
       </c>
       <c r="F54" s="3">
-        <v>409045000</v>
+        <v>390660000</v>
       </c>
       <c r="G54" s="3">
-        <v>379412000</v>
+        <v>362360000</v>
       </c>
       <c r="H54" s="3">
-        <v>352156000</v>
+        <v>336328000</v>
       </c>
       <c r="I54" s="3">
-        <v>329788000</v>
+        <v>314966000</v>
       </c>
       <c r="J54" s="3">
-        <v>300839000</v>
+        <v>287319000</v>
       </c>
       <c r="K54" s="3">
         <v>283274000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18310400</v>
+        <v>17487400</v>
       </c>
       <c r="E57" s="3">
-        <v>12096200</v>
+        <v>11552600</v>
       </c>
       <c r="F57" s="3">
-        <v>9870200</v>
+        <v>9426600</v>
       </c>
       <c r="G57" s="3">
-        <v>9395200</v>
+        <v>8973000</v>
       </c>
       <c r="H57" s="3">
-        <v>7534600</v>
+        <v>7196000</v>
       </c>
       <c r="I57" s="3">
-        <v>9765300</v>
+        <v>9326400</v>
       </c>
       <c r="J57" s="3">
-        <v>7578000</v>
+        <v>7237400</v>
       </c>
       <c r="K57" s="3">
         <v>5536200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3093900</v>
+        <v>2954900</v>
       </c>
       <c r="E59" s="3">
-        <v>3601700</v>
+        <v>3439900</v>
       </c>
       <c r="F59" s="3">
-        <v>3334800</v>
+        <v>3184900</v>
       </c>
       <c r="G59" s="3">
-        <v>3007600</v>
+        <v>2872400</v>
       </c>
       <c r="H59" s="3">
-        <v>2774800</v>
+        <v>2650100</v>
       </c>
       <c r="I59" s="3">
-        <v>2655000</v>
+        <v>2535700</v>
       </c>
       <c r="J59" s="3">
-        <v>3112800</v>
+        <v>2972900</v>
       </c>
       <c r="K59" s="3">
         <v>3248200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>92992800</v>
+        <v>88813300</v>
       </c>
       <c r="E61" s="3">
-        <v>90343700</v>
+        <v>86283300</v>
       </c>
       <c r="F61" s="3">
-        <v>74752800</v>
+        <v>71393100</v>
       </c>
       <c r="G61" s="3">
-        <v>61410700</v>
+        <v>58650700</v>
       </c>
       <c r="H61" s="3">
-        <v>53752000</v>
+        <v>51336200</v>
       </c>
       <c r="I61" s="3">
-        <v>49542500</v>
+        <v>47315800</v>
       </c>
       <c r="J61" s="3">
-        <v>33227800</v>
+        <v>31734400</v>
       </c>
       <c r="K61" s="3">
         <v>34117200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1287700</v>
+        <v>1229900</v>
       </c>
       <c r="E62" s="3">
-        <v>1005500</v>
+        <v>960300</v>
       </c>
       <c r="F62" s="3">
-        <v>585400</v>
+        <v>559100</v>
       </c>
       <c r="G62" s="3">
-        <v>396800</v>
+        <v>378900</v>
       </c>
       <c r="H62" s="3">
-        <v>774700</v>
+        <v>739800</v>
       </c>
       <c r="I62" s="3">
-        <v>837600</v>
+        <v>799900</v>
       </c>
       <c r="J62" s="3">
-        <v>901700</v>
+        <v>861200</v>
       </c>
       <c r="K62" s="3">
         <v>803100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>499436000</v>
+        <v>476990000</v>
       </c>
       <c r="E66" s="3">
-        <v>456785000</v>
+        <v>436255000</v>
       </c>
       <c r="F66" s="3">
-        <v>377249000</v>
+        <v>360294000</v>
       </c>
       <c r="G66" s="3">
-        <v>350203000</v>
+        <v>334464000</v>
       </c>
       <c r="H66" s="3">
-        <v>324468000</v>
+        <v>309885000</v>
       </c>
       <c r="I66" s="3">
-        <v>302340000</v>
+        <v>288752000</v>
       </c>
       <c r="J66" s="3">
-        <v>274866000</v>
+        <v>262512000</v>
       </c>
       <c r="K66" s="3">
         <v>258215000</v>
@@ -2722,25 +2722,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>321700</v>
+        <v>307200</v>
       </c>
       <c r="E70" s="3">
-        <v>321700</v>
+        <v>307200</v>
       </c>
       <c r="F70" s="3">
-        <v>243900</v>
+        <v>232900</v>
       </c>
       <c r="G70" s="3">
-        <v>243900</v>
+        <v>232900</v>
       </c>
       <c r="H70" s="3">
-        <v>243900</v>
+        <v>232900</v>
       </c>
       <c r="I70" s="3">
-        <v>243900</v>
+        <v>232900</v>
       </c>
       <c r="J70" s="3">
-        <v>243900</v>
+        <v>232900</v>
       </c>
       <c r="K70" s="3">
         <v>249400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24721700</v>
+        <v>23610600</v>
       </c>
       <c r="E72" s="3">
-        <v>22718000</v>
+        <v>21696900</v>
       </c>
       <c r="F72" s="3">
-        <v>20433900</v>
+        <v>19515500</v>
       </c>
       <c r="G72" s="3">
-        <v>18503600</v>
+        <v>17672000</v>
       </c>
       <c r="H72" s="3">
-        <v>16589600</v>
+        <v>15844000</v>
       </c>
       <c r="I72" s="3">
-        <v>15743300</v>
+        <v>15035800</v>
       </c>
       <c r="J72" s="3">
-        <v>14124100</v>
+        <v>13489300</v>
       </c>
       <c r="K72" s="3">
         <v>12911500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>38900200</v>
+        <v>37151900</v>
       </c>
       <c r="E76" s="3">
-        <v>34546700</v>
+        <v>32994100</v>
       </c>
       <c r="F76" s="3">
-        <v>31551900</v>
+        <v>30133900</v>
       </c>
       <c r="G76" s="3">
-        <v>28965100</v>
+        <v>27663400</v>
       </c>
       <c r="H76" s="3">
-        <v>27443700</v>
+        <v>26210300</v>
       </c>
       <c r="I76" s="3">
-        <v>27203400</v>
+        <v>25980800</v>
       </c>
       <c r="J76" s="3">
-        <v>25729900</v>
+        <v>24573600</v>
       </c>
       <c r="K76" s="3">
         <v>24810300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2963000</v>
+        <v>2829900</v>
       </c>
       <c r="E81" s="3">
-        <v>2973900</v>
+        <v>2840300</v>
       </c>
       <c r="F81" s="3">
-        <v>2773600</v>
+        <v>2648900</v>
       </c>
       <c r="G81" s="3">
-        <v>2581100</v>
+        <v>2465000</v>
       </c>
       <c r="H81" s="3">
-        <v>2420700</v>
+        <v>2311900</v>
       </c>
       <c r="I81" s="3">
-        <v>2021000</v>
+        <v>1930100</v>
       </c>
       <c r="J81" s="3">
-        <v>1770400</v>
+        <v>1690800</v>
       </c>
       <c r="K81" s="3">
         <v>1647900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>684000</v>
+        <v>653200</v>
       </c>
       <c r="E83" s="3">
-        <v>602700</v>
+        <v>575600</v>
       </c>
       <c r="F83" s="3">
-        <v>268700</v>
+        <v>256600</v>
       </c>
       <c r="G83" s="3">
-        <v>225500</v>
+        <v>215300</v>
       </c>
       <c r="H83" s="3">
-        <v>231300</v>
+        <v>220900</v>
       </c>
       <c r="I83" s="3">
-        <v>248200</v>
+        <v>237000</v>
       </c>
       <c r="J83" s="3">
-        <v>278500</v>
+        <v>266000</v>
       </c>
       <c r="K83" s="3">
         <v>291000</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3924300</v>
+        <v>-3747900</v>
       </c>
       <c r="E89" s="3">
-        <v>6389400</v>
+        <v>6102200</v>
       </c>
       <c r="F89" s="3">
-        <v>-5625000</v>
+        <v>-5372200</v>
       </c>
       <c r="G89" s="3">
-        <v>909000</v>
+        <v>868100</v>
       </c>
       <c r="H89" s="3">
-        <v>3379500</v>
+        <v>3227600</v>
       </c>
       <c r="I89" s="3">
-        <v>2643600</v>
+        <v>2524800</v>
       </c>
       <c r="J89" s="3">
-        <v>-1851800</v>
+        <v>-1768500</v>
       </c>
       <c r="K89" s="3">
         <v>-1000600</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-248900</v>
+        <v>-237700</v>
       </c>
       <c r="E91" s="3">
-        <v>-240600</v>
+        <v>-229800</v>
       </c>
       <c r="F91" s="3">
-        <v>-127200</v>
+        <v>-121500</v>
       </c>
       <c r="G91" s="3">
-        <v>-138100</v>
+        <v>-131900</v>
       </c>
       <c r="H91" s="3">
-        <v>-224400</v>
+        <v>-214300</v>
       </c>
       <c r="I91" s="3">
-        <v>-111100</v>
+        <v>-106100</v>
       </c>
       <c r="J91" s="3">
-        <v>-162100</v>
+        <v>-154800</v>
       </c>
       <c r="K91" s="3">
         <v>-267500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2693100</v>
+        <v>-2572000</v>
       </c>
       <c r="E94" s="3">
-        <v>-20192200</v>
+        <v>-19284700</v>
       </c>
       <c r="F94" s="3">
-        <v>-4906200</v>
+        <v>-4685700</v>
       </c>
       <c r="G94" s="3">
-        <v>-9526200</v>
+        <v>-9098100</v>
       </c>
       <c r="H94" s="3">
-        <v>-6758500</v>
+        <v>-6454800</v>
       </c>
       <c r="I94" s="3">
-        <v>-4706900</v>
+        <v>-4495300</v>
       </c>
       <c r="J94" s="3">
-        <v>855100</v>
+        <v>816700</v>
       </c>
       <c r="K94" s="3">
         <v>3090300</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-862300</v>
+        <v>-823500</v>
       </c>
       <c r="E96" s="3">
-        <v>-739400</v>
+        <v>-706200</v>
       </c>
       <c r="F96" s="3">
-        <v>-636100</v>
+        <v>-607500</v>
       </c>
       <c r="G96" s="3">
-        <v>-628800</v>
+        <v>-600600</v>
       </c>
       <c r="H96" s="3">
-        <v>-595500</v>
+        <v>-568700</v>
       </c>
       <c r="I96" s="3">
-        <v>-486100</v>
+        <v>-464200</v>
       </c>
       <c r="J96" s="3">
-        <v>-355800</v>
+        <v>-339800</v>
       </c>
       <c r="K96" s="3">
         <v>-385900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7013700</v>
+        <v>6698500</v>
       </c>
       <c r="E100" s="3">
-        <v>14132100</v>
+        <v>13497000</v>
       </c>
       <c r="F100" s="3">
-        <v>12287800</v>
+        <v>11735500</v>
       </c>
       <c r="G100" s="3">
-        <v>9195900</v>
+        <v>8782600</v>
       </c>
       <c r="H100" s="3">
-        <v>4311700</v>
+        <v>4117900</v>
       </c>
       <c r="I100" s="3">
-        <v>1168300</v>
+        <v>1115800</v>
       </c>
       <c r="J100" s="3">
-        <v>611300</v>
+        <v>583800</v>
       </c>
       <c r="K100" s="3">
         <v>-1171100</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-54800</v>
+        <v>-52300</v>
       </c>
       <c r="E101" s="3">
-        <v>26200</v>
+        <v>25000</v>
       </c>
       <c r="F101" s="3">
-        <v>-27300</v>
+        <v>-26000</v>
       </c>
       <c r="G101" s="3">
-        <v>-41000</v>
+        <v>-39100</v>
       </c>
       <c r="H101" s="3">
-        <v>-20100</v>
+        <v>-19200</v>
       </c>
       <c r="I101" s="3">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="J101" s="3">
-        <v>14500</v>
+        <v>13800</v>
       </c>
       <c r="K101" s="3">
         <v>3600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>341600</v>
+        <v>326200</v>
       </c>
       <c r="E102" s="3">
-        <v>355500</v>
+        <v>339500</v>
       </c>
       <c r="F102" s="3">
-        <v>1729400</v>
+        <v>1651600</v>
       </c>
       <c r="G102" s="3">
-        <v>537700</v>
+        <v>513500</v>
       </c>
       <c r="H102" s="3">
-        <v>912500</v>
+        <v>871500</v>
       </c>
       <c r="I102" s="3">
-        <v>-887500</v>
+        <v>-847600</v>
       </c>
       <c r="J102" s="3">
-        <v>-370900</v>
+        <v>-354300</v>
       </c>
       <c r="K102" s="3">
         <v>922200</v>

--- a/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12557900</v>
+        <v>12410200</v>
       </c>
       <c r="E8" s="3">
-        <v>13351300</v>
+        <v>13194200</v>
       </c>
       <c r="F8" s="3">
-        <v>11536600</v>
+        <v>11400900</v>
       </c>
       <c r="G8" s="3">
-        <v>10028900</v>
+        <v>9910900</v>
       </c>
       <c r="H8" s="3">
-        <v>9550900</v>
+        <v>9438500</v>
       </c>
       <c r="I8" s="3">
-        <v>9460200</v>
+        <v>9349000</v>
       </c>
       <c r="J8" s="3">
-        <v>10251400</v>
+        <v>10130800</v>
       </c>
       <c r="K8" s="3">
         <v>11455100</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-514700</v>
+        <v>-508600</v>
       </c>
       <c r="E15" s="3">
-        <v>-492000</v>
+        <v>-486200</v>
       </c>
       <c r="F15" s="3">
-        <v>-208500</v>
+        <v>-206100</v>
       </c>
       <c r="G15" s="3">
-        <v>-204300</v>
+        <v>-201900</v>
       </c>
       <c r="H15" s="3">
-        <v>-213900</v>
+        <v>-211400</v>
       </c>
       <c r="I15" s="3">
-        <v>-228600</v>
+        <v>-225900</v>
       </c>
       <c r="J15" s="3">
-        <v>-266000</v>
+        <v>-262900</v>
       </c>
       <c r="K15" s="3">
         <v>-291000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4157600</v>
+        <v>5269700</v>
       </c>
       <c r="E17" s="3">
-        <v>5074000</v>
+        <v>5838100</v>
       </c>
       <c r="F17" s="3">
-        <v>4243500</v>
+        <v>4821800</v>
       </c>
       <c r="G17" s="3">
-        <v>4056500</v>
+        <v>4008700</v>
       </c>
       <c r="H17" s="3">
-        <v>4367800</v>
+        <v>4316400</v>
       </c>
       <c r="I17" s="3">
-        <v>4639700</v>
+        <v>4585100</v>
       </c>
       <c r="J17" s="3">
-        <v>5282900</v>
+        <v>5220700</v>
       </c>
       <c r="K17" s="3">
         <v>6470200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8400300</v>
+        <v>7140400</v>
       </c>
       <c r="E18" s="3">
-        <v>8277300</v>
+        <v>7356100</v>
       </c>
       <c r="F18" s="3">
-        <v>7293100</v>
+        <v>6579100</v>
       </c>
       <c r="G18" s="3">
-        <v>5972400</v>
+        <v>5902100</v>
       </c>
       <c r="H18" s="3">
-        <v>5183100</v>
+        <v>5122100</v>
       </c>
       <c r="I18" s="3">
-        <v>4820500</v>
+        <v>4763800</v>
       </c>
       <c r="J18" s="3">
-        <v>4968600</v>
+        <v>4910100</v>
       </c>
       <c r="K18" s="3">
         <v>4984900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4359500</v>
+        <v>-3147200</v>
       </c>
       <c r="E20" s="3">
-        <v>-4102500</v>
+        <v>-3230400</v>
       </c>
       <c r="F20" s="3">
-        <v>-3496500</v>
+        <v>-2827100</v>
       </c>
       <c r="G20" s="3">
-        <v>-2745600</v>
+        <v>-2713300</v>
       </c>
       <c r="H20" s="3">
-        <v>-2488200</v>
+        <v>-2458900</v>
       </c>
       <c r="I20" s="3">
-        <v>-2151000</v>
+        <v>-2125700</v>
       </c>
       <c r="J20" s="3">
-        <v>-2531100</v>
+        <v>-2501300</v>
       </c>
       <c r="K20" s="3">
         <v>-2544200</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4694000</v>
+        <v>4638800</v>
       </c>
       <c r="E21" s="3">
-        <v>4750400</v>
+        <v>4694500</v>
       </c>
       <c r="F21" s="3">
-        <v>4053200</v>
+        <v>4005600</v>
       </c>
       <c r="G21" s="3">
-        <v>3442200</v>
+        <v>3401700</v>
       </c>
       <c r="H21" s="3">
-        <v>2915900</v>
+        <v>2881500</v>
       </c>
       <c r="I21" s="3">
-        <v>2906500</v>
+        <v>2872300</v>
       </c>
       <c r="J21" s="3">
-        <v>2703500</v>
+        <v>2671700</v>
       </c>
       <c r="K21" s="3">
         <v>2728500</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4040800</v>
+        <v>3993300</v>
       </c>
       <c r="E23" s="3">
-        <v>4174800</v>
+        <v>4125700</v>
       </c>
       <c r="F23" s="3">
-        <v>3796600</v>
+        <v>3752000</v>
       </c>
       <c r="G23" s="3">
-        <v>3226800</v>
+        <v>3188900</v>
       </c>
       <c r="H23" s="3">
-        <v>2694900</v>
+        <v>2663200</v>
       </c>
       <c r="I23" s="3">
-        <v>2669500</v>
+        <v>2638100</v>
       </c>
       <c r="J23" s="3">
-        <v>2437400</v>
+        <v>2408800</v>
       </c>
       <c r="K23" s="3">
         <v>2440700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1067400</v>
+        <v>1054900</v>
       </c>
       <c r="E24" s="3">
-        <v>1078800</v>
+        <v>1066100</v>
       </c>
       <c r="F24" s="3">
-        <v>1078100</v>
+        <v>1065400</v>
       </c>
       <c r="G24" s="3">
-        <v>720900</v>
+        <v>712400</v>
       </c>
       <c r="H24" s="3">
-        <v>293700</v>
+        <v>290300</v>
       </c>
       <c r="I24" s="3">
-        <v>590400</v>
+        <v>583500</v>
       </c>
       <c r="J24" s="3">
-        <v>567800</v>
+        <v>561100</v>
       </c>
       <c r="K24" s="3">
         <v>566500</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2973400</v>
+        <v>2938400</v>
       </c>
       <c r="E26" s="3">
-        <v>3096000</v>
+        <v>3059600</v>
       </c>
       <c r="F26" s="3">
-        <v>2718500</v>
+        <v>2686500</v>
       </c>
       <c r="G26" s="3">
-        <v>2505900</v>
+        <v>2476400</v>
       </c>
       <c r="H26" s="3">
-        <v>2401200</v>
+        <v>2372900</v>
       </c>
       <c r="I26" s="3">
-        <v>2079100</v>
+        <v>2054600</v>
       </c>
       <c r="J26" s="3">
-        <v>1869700</v>
+        <v>1847700</v>
       </c>
       <c r="K26" s="3">
         <v>1874200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2829900</v>
+        <v>2796600</v>
       </c>
       <c r="E27" s="3">
-        <v>2840300</v>
+        <v>2806900</v>
       </c>
       <c r="F27" s="3">
-        <v>2648900</v>
+        <v>2617700</v>
       </c>
       <c r="G27" s="3">
-        <v>2465000</v>
+        <v>2436000</v>
       </c>
       <c r="H27" s="3">
-        <v>2311900</v>
+        <v>2284700</v>
       </c>
       <c r="I27" s="3">
-        <v>1930100</v>
+        <v>1907400</v>
       </c>
       <c r="J27" s="3">
-        <v>1690800</v>
+        <v>1671000</v>
       </c>
       <c r="K27" s="3">
         <v>1647900</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4359500</v>
+        <v>3147200</v>
       </c>
       <c r="E32" s="3">
-        <v>4102500</v>
+        <v>3230400</v>
       </c>
       <c r="F32" s="3">
-        <v>3496500</v>
+        <v>2827100</v>
       </c>
       <c r="G32" s="3">
-        <v>2745600</v>
+        <v>2713300</v>
       </c>
       <c r="H32" s="3">
-        <v>2488200</v>
+        <v>2458900</v>
       </c>
       <c r="I32" s="3">
-        <v>2151000</v>
+        <v>2125700</v>
       </c>
       <c r="J32" s="3">
-        <v>2531100</v>
+        <v>2501300</v>
       </c>
       <c r="K32" s="3">
         <v>2544200</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2829900</v>
+        <v>2796600</v>
       </c>
       <c r="E33" s="3">
-        <v>2840300</v>
+        <v>2806900</v>
       </c>
       <c r="F33" s="3">
-        <v>2648900</v>
+        <v>2617700</v>
       </c>
       <c r="G33" s="3">
-        <v>2465000</v>
+        <v>2436000</v>
       </c>
       <c r="H33" s="3">
-        <v>2311900</v>
+        <v>2284700</v>
       </c>
       <c r="I33" s="3">
-        <v>1930100</v>
+        <v>1907400</v>
       </c>
       <c r="J33" s="3">
-        <v>1690800</v>
+        <v>1671000</v>
       </c>
       <c r="K33" s="3">
         <v>1647900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2829900</v>
+        <v>2796600</v>
       </c>
       <c r="E35" s="3">
-        <v>2840300</v>
+        <v>2806900</v>
       </c>
       <c r="F35" s="3">
-        <v>2648900</v>
+        <v>2617700</v>
       </c>
       <c r="G35" s="3">
-        <v>2465000</v>
+        <v>2436000</v>
       </c>
       <c r="H35" s="3">
-        <v>2311900</v>
+        <v>2284700</v>
       </c>
       <c r="I35" s="3">
-        <v>1930100</v>
+        <v>1907400</v>
       </c>
       <c r="J35" s="3">
-        <v>1690800</v>
+        <v>1671000</v>
       </c>
       <c r="K35" s="3">
         <v>1647900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>33067500</v>
+        <v>32678500</v>
       </c>
       <c r="E41" s="3">
-        <v>26398700</v>
+        <v>26088100</v>
       </c>
       <c r="F41" s="3">
-        <v>17794100</v>
+        <v>17584700</v>
       </c>
       <c r="G41" s="3">
-        <v>21792600</v>
+        <v>21536200</v>
       </c>
       <c r="H41" s="3">
-        <v>20324400</v>
+        <v>20085200</v>
       </c>
       <c r="I41" s="3">
-        <v>22676000</v>
+        <v>22409200</v>
       </c>
       <c r="J41" s="3">
-        <v>21478500</v>
+        <v>21225800</v>
       </c>
       <c r="K41" s="3">
         <v>20543500</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>144775000</v>
+        <v>143072000</v>
       </c>
       <c r="E42" s="3">
-        <v>136812000</v>
+        <v>135203000</v>
       </c>
       <c r="F42" s="3">
-        <v>95302600</v>
+        <v>94181400</v>
       </c>
       <c r="G42" s="3">
-        <v>30127000</v>
+        <v>29772600</v>
       </c>
       <c r="H42" s="3">
-        <v>28147700</v>
+        <v>27816500</v>
       </c>
       <c r="I42" s="3">
-        <v>23695700</v>
+        <v>23417000</v>
       </c>
       <c r="J42" s="3">
-        <v>24367700</v>
+        <v>24081000</v>
       </c>
       <c r="K42" s="3">
         <v>21031500</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2259100</v>
+        <v>2232500</v>
       </c>
       <c r="E47" s="3">
-        <v>1234900</v>
+        <v>1220400</v>
       </c>
       <c r="F47" s="3">
-        <v>570600</v>
+        <v>563900</v>
       </c>
       <c r="G47" s="3">
-        <v>536600</v>
+        <v>530300</v>
       </c>
       <c r="H47" s="3">
-        <v>300600</v>
+        <v>297000</v>
       </c>
       <c r="I47" s="3">
-        <v>334100</v>
+        <v>330100</v>
       </c>
       <c r="J47" s="3">
-        <v>290600</v>
+        <v>287200</v>
       </c>
       <c r="K47" s="3">
         <v>299000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3914200</v>
+        <v>3868100</v>
       </c>
       <c r="E48" s="3">
-        <v>3886100</v>
+        <v>3840400</v>
       </c>
       <c r="F48" s="3">
-        <v>2956900</v>
+        <v>2922100</v>
       </c>
       <c r="G48" s="3">
-        <v>2924100</v>
+        <v>2889700</v>
       </c>
       <c r="H48" s="3">
-        <v>2974000</v>
+        <v>2939000</v>
       </c>
       <c r="I48" s="3">
-        <v>2774500</v>
+        <v>2741900</v>
       </c>
       <c r="J48" s="3">
-        <v>2902600</v>
+        <v>2868400</v>
       </c>
       <c r="K48" s="3">
         <v>3553100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4658500</v>
+        <v>4603700</v>
       </c>
       <c r="E49" s="3">
-        <v>4724900</v>
+        <v>4669300</v>
       </c>
       <c r="F49" s="3">
-        <v>3672100</v>
+        <v>3628900</v>
       </c>
       <c r="G49" s="3">
-        <v>3631200</v>
+        <v>3588500</v>
       </c>
       <c r="H49" s="3">
-        <v>3592500</v>
+        <v>3550300</v>
       </c>
       <c r="I49" s="3">
-        <v>3626400</v>
+        <v>3583700</v>
       </c>
       <c r="J49" s="3">
-        <v>3529900</v>
+        <v>3488400</v>
       </c>
       <c r="K49" s="3">
         <v>3846000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>244900</v>
+        <v>242000</v>
       </c>
       <c r="E52" s="3">
-        <v>208300</v>
+        <v>205900</v>
       </c>
       <c r="F52" s="3">
-        <v>369400</v>
+        <v>365000</v>
       </c>
       <c r="G52" s="3">
-        <v>509900</v>
+        <v>503900</v>
       </c>
       <c r="H52" s="3">
-        <v>549100</v>
+        <v>542600</v>
       </c>
       <c r="I52" s="3">
-        <v>142500</v>
+        <v>140800</v>
       </c>
       <c r="J52" s="3">
-        <v>201700</v>
+        <v>199300</v>
       </c>
       <c r="K52" s="3">
         <v>399700</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>514449000</v>
+        <v>508397000</v>
       </c>
       <c r="E54" s="3">
-        <v>469557000</v>
+        <v>464032000</v>
       </c>
       <c r="F54" s="3">
-        <v>390660000</v>
+        <v>386064000</v>
       </c>
       <c r="G54" s="3">
-        <v>362360000</v>
+        <v>358097000</v>
       </c>
       <c r="H54" s="3">
-        <v>336328000</v>
+        <v>332372000</v>
       </c>
       <c r="I54" s="3">
-        <v>314966000</v>
+        <v>311260000</v>
       </c>
       <c r="J54" s="3">
-        <v>287319000</v>
+        <v>283938000</v>
       </c>
       <c r="K54" s="3">
         <v>283274000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17487400</v>
+        <v>17281700</v>
       </c>
       <c r="E57" s="3">
-        <v>11552600</v>
+        <v>11416700</v>
       </c>
       <c r="F57" s="3">
-        <v>9426600</v>
+        <v>9315700</v>
       </c>
       <c r="G57" s="3">
-        <v>8973000</v>
+        <v>8867400</v>
       </c>
       <c r="H57" s="3">
-        <v>7196000</v>
+        <v>7111300</v>
       </c>
       <c r="I57" s="3">
-        <v>9326400</v>
+        <v>9216700</v>
       </c>
       <c r="J57" s="3">
-        <v>7237400</v>
+        <v>7152200</v>
       </c>
       <c r="K57" s="3">
         <v>5536200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2954900</v>
+        <v>2920100</v>
       </c>
       <c r="E59" s="3">
-        <v>3439900</v>
+        <v>3399400</v>
       </c>
       <c r="F59" s="3">
-        <v>3184900</v>
+        <v>3147500</v>
       </c>
       <c r="G59" s="3">
-        <v>2872400</v>
+        <v>2838600</v>
       </c>
       <c r="H59" s="3">
-        <v>2650100</v>
+        <v>2618900</v>
       </c>
       <c r="I59" s="3">
-        <v>2535700</v>
+        <v>2505900</v>
       </c>
       <c r="J59" s="3">
-        <v>2972900</v>
+        <v>2937900</v>
       </c>
       <c r="K59" s="3">
         <v>3248200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>88813300</v>
+        <v>87768500</v>
       </c>
       <c r="E61" s="3">
-        <v>86283300</v>
+        <v>85268200</v>
       </c>
       <c r="F61" s="3">
-        <v>71393100</v>
+        <v>70553200</v>
       </c>
       <c r="G61" s="3">
-        <v>58650700</v>
+        <v>57960700</v>
       </c>
       <c r="H61" s="3">
-        <v>51336200</v>
+        <v>50732200</v>
       </c>
       <c r="I61" s="3">
-        <v>47315800</v>
+        <v>46759200</v>
       </c>
       <c r="J61" s="3">
-        <v>31734400</v>
+        <v>31361100</v>
       </c>
       <c r="K61" s="3">
         <v>34117200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1229900</v>
+        <v>1215400</v>
       </c>
       <c r="E62" s="3">
-        <v>960300</v>
+        <v>949000</v>
       </c>
       <c r="F62" s="3">
-        <v>559100</v>
+        <v>552500</v>
       </c>
       <c r="G62" s="3">
-        <v>378900</v>
+        <v>374500</v>
       </c>
       <c r="H62" s="3">
-        <v>739800</v>
+        <v>731100</v>
       </c>
       <c r="I62" s="3">
-        <v>799900</v>
+        <v>790500</v>
       </c>
       <c r="J62" s="3">
-        <v>861200</v>
+        <v>851100</v>
       </c>
       <c r="K62" s="3">
         <v>803100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>476990000</v>
+        <v>471378000</v>
       </c>
       <c r="E66" s="3">
-        <v>436255000</v>
+        <v>431123000</v>
       </c>
       <c r="F66" s="3">
-        <v>360294000</v>
+        <v>356055000</v>
       </c>
       <c r="G66" s="3">
-        <v>334464000</v>
+        <v>330529000</v>
       </c>
       <c r="H66" s="3">
-        <v>309885000</v>
+        <v>306239000</v>
       </c>
       <c r="I66" s="3">
-        <v>288752000</v>
+        <v>285355000</v>
       </c>
       <c r="J66" s="3">
-        <v>262512000</v>
+        <v>259424000</v>
       </c>
       <c r="K66" s="3">
         <v>258215000</v>
@@ -2722,25 +2722,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>307200</v>
+        <v>303600</v>
       </c>
       <c r="E70" s="3">
-        <v>307200</v>
+        <v>303600</v>
       </c>
       <c r="F70" s="3">
-        <v>232900</v>
+        <v>230200</v>
       </c>
       <c r="G70" s="3">
-        <v>232900</v>
+        <v>230200</v>
       </c>
       <c r="H70" s="3">
-        <v>232900</v>
+        <v>230200</v>
       </c>
       <c r="I70" s="3">
-        <v>232900</v>
+        <v>230200</v>
       </c>
       <c r="J70" s="3">
-        <v>232900</v>
+        <v>230200</v>
       </c>
       <c r="K70" s="3">
         <v>249400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23610600</v>
+        <v>23332800</v>
       </c>
       <c r="E72" s="3">
-        <v>21696900</v>
+        <v>21441700</v>
       </c>
       <c r="F72" s="3">
-        <v>19515500</v>
+        <v>19285900</v>
       </c>
       <c r="G72" s="3">
-        <v>17672000</v>
+        <v>17464100</v>
       </c>
       <c r="H72" s="3">
-        <v>15844000</v>
+        <v>15657600</v>
       </c>
       <c r="I72" s="3">
-        <v>15035800</v>
+        <v>14858900</v>
       </c>
       <c r="J72" s="3">
-        <v>13489300</v>
+        <v>13330600</v>
       </c>
       <c r="K72" s="3">
         <v>12911500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>37151900</v>
+        <v>36714800</v>
       </c>
       <c r="E76" s="3">
-        <v>32994100</v>
+        <v>32605900</v>
       </c>
       <c r="F76" s="3">
-        <v>30133900</v>
+        <v>29779300</v>
       </c>
       <c r="G76" s="3">
-        <v>27663400</v>
+        <v>27337900</v>
       </c>
       <c r="H76" s="3">
-        <v>26210300</v>
+        <v>25901900</v>
       </c>
       <c r="I76" s="3">
-        <v>25980800</v>
+        <v>25675100</v>
       </c>
       <c r="J76" s="3">
-        <v>24573600</v>
+        <v>24284400</v>
       </c>
       <c r="K76" s="3">
         <v>24810300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2829900</v>
+        <v>2796600</v>
       </c>
       <c r="E81" s="3">
-        <v>2840300</v>
+        <v>2806900</v>
       </c>
       <c r="F81" s="3">
-        <v>2648900</v>
+        <v>2617700</v>
       </c>
       <c r="G81" s="3">
-        <v>2465000</v>
+        <v>2436000</v>
       </c>
       <c r="H81" s="3">
-        <v>2311900</v>
+        <v>2284700</v>
       </c>
       <c r="I81" s="3">
-        <v>1930100</v>
+        <v>1907400</v>
       </c>
       <c r="J81" s="3">
-        <v>1690800</v>
+        <v>1671000</v>
       </c>
       <c r="K81" s="3">
         <v>1647900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>653200</v>
+        <v>645500</v>
       </c>
       <c r="E83" s="3">
-        <v>575600</v>
+        <v>568800</v>
       </c>
       <c r="F83" s="3">
-        <v>256600</v>
+        <v>253600</v>
       </c>
       <c r="G83" s="3">
-        <v>215300</v>
+        <v>212800</v>
       </c>
       <c r="H83" s="3">
-        <v>220900</v>
+        <v>218400</v>
       </c>
       <c r="I83" s="3">
-        <v>237000</v>
+        <v>234300</v>
       </c>
       <c r="J83" s="3">
-        <v>266000</v>
+        <v>262900</v>
       </c>
       <c r="K83" s="3">
         <v>291000</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3747900</v>
+        <v>-3703800</v>
       </c>
       <c r="E89" s="3">
-        <v>6102200</v>
+        <v>6030400</v>
       </c>
       <c r="F89" s="3">
-        <v>-5372200</v>
+        <v>-5309000</v>
       </c>
       <c r="G89" s="3">
-        <v>868100</v>
+        <v>857900</v>
       </c>
       <c r="H89" s="3">
-        <v>3227600</v>
+        <v>3189600</v>
       </c>
       <c r="I89" s="3">
-        <v>2524800</v>
+        <v>2495100</v>
       </c>
       <c r="J89" s="3">
-        <v>-1768500</v>
+        <v>-1747700</v>
       </c>
       <c r="K89" s="3">
         <v>-1000600</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-237700</v>
+        <v>-234900</v>
       </c>
       <c r="E91" s="3">
-        <v>-229800</v>
+        <v>-227100</v>
       </c>
       <c r="F91" s="3">
-        <v>-121500</v>
+        <v>-120100</v>
       </c>
       <c r="G91" s="3">
-        <v>-131900</v>
+        <v>-130400</v>
       </c>
       <c r="H91" s="3">
-        <v>-214300</v>
+        <v>-211800</v>
       </c>
       <c r="I91" s="3">
-        <v>-106100</v>
+        <v>-104900</v>
       </c>
       <c r="J91" s="3">
-        <v>-154800</v>
+        <v>-153000</v>
       </c>
       <c r="K91" s="3">
         <v>-267500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2572000</v>
+        <v>-2541800</v>
       </c>
       <c r="E94" s="3">
-        <v>-19284700</v>
+        <v>-19057800</v>
       </c>
       <c r="F94" s="3">
-        <v>-4685700</v>
+        <v>-4630600</v>
       </c>
       <c r="G94" s="3">
-        <v>-9098100</v>
+        <v>-8991100</v>
       </c>
       <c r="H94" s="3">
-        <v>-6454800</v>
+        <v>-6378900</v>
       </c>
       <c r="I94" s="3">
-        <v>-4495300</v>
+        <v>-4442400</v>
       </c>
       <c r="J94" s="3">
-        <v>816700</v>
+        <v>807100</v>
       </c>
       <c r="K94" s="3">
         <v>3090300</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-823500</v>
+        <v>-813800</v>
       </c>
       <c r="E96" s="3">
-        <v>-706200</v>
+        <v>-697800</v>
       </c>
       <c r="F96" s="3">
-        <v>-607500</v>
+        <v>-600400</v>
       </c>
       <c r="G96" s="3">
-        <v>-600600</v>
+        <v>-593500</v>
       </c>
       <c r="H96" s="3">
-        <v>-568700</v>
+        <v>-562000</v>
       </c>
       <c r="I96" s="3">
-        <v>-464200</v>
+        <v>-458800</v>
       </c>
       <c r="J96" s="3">
-        <v>-339800</v>
+        <v>-335800</v>
       </c>
       <c r="K96" s="3">
         <v>-385900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6698500</v>
+        <v>6619700</v>
       </c>
       <c r="E100" s="3">
-        <v>13497000</v>
+        <v>13338200</v>
       </c>
       <c r="F100" s="3">
-        <v>11735500</v>
+        <v>11597500</v>
       </c>
       <c r="G100" s="3">
-        <v>8782600</v>
+        <v>8679300</v>
       </c>
       <c r="H100" s="3">
-        <v>4117900</v>
+        <v>4069500</v>
       </c>
       <c r="I100" s="3">
-        <v>1115800</v>
+        <v>1102700</v>
       </c>
       <c r="J100" s="3">
-        <v>583800</v>
+        <v>577000</v>
       </c>
       <c r="K100" s="3">
         <v>-1171100</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-52300</v>
+        <v>-51700</v>
       </c>
       <c r="E101" s="3">
-        <v>25000</v>
+        <v>24700</v>
       </c>
       <c r="F101" s="3">
-        <v>-26000</v>
+        <v>-25700</v>
       </c>
       <c r="G101" s="3">
-        <v>-39100</v>
+        <v>-38700</v>
       </c>
       <c r="H101" s="3">
-        <v>-19200</v>
+        <v>-19000</v>
       </c>
       <c r="I101" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="J101" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="K101" s="3">
         <v>3600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>326200</v>
+        <v>322400</v>
       </c>
       <c r="E102" s="3">
-        <v>339500</v>
+        <v>335500</v>
       </c>
       <c r="F102" s="3">
-        <v>1651600</v>
+        <v>1632200</v>
       </c>
       <c r="G102" s="3">
-        <v>513500</v>
+        <v>507500</v>
       </c>
       <c r="H102" s="3">
-        <v>871500</v>
+        <v>861200</v>
       </c>
       <c r="I102" s="3">
-        <v>-847600</v>
+        <v>-837600</v>
       </c>
       <c r="J102" s="3">
-        <v>-354300</v>
+        <v>-350100</v>
       </c>
       <c r="K102" s="3">
         <v>922200</v>

--- a/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>SHG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,99 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12410200</v>
+        <v>11926600</v>
       </c>
       <c r="E8" s="3">
-        <v>13194200</v>
+        <v>11966900</v>
       </c>
       <c r="F8" s="3">
-        <v>11400900</v>
+        <v>12723000</v>
       </c>
       <c r="G8" s="3">
-        <v>9910900</v>
+        <v>10993700</v>
       </c>
       <c r="H8" s="3">
-        <v>9438500</v>
+        <v>9556900</v>
       </c>
       <c r="I8" s="3">
-        <v>9349000</v>
+        <v>9101400</v>
       </c>
       <c r="J8" s="3">
+        <v>9015100</v>
+      </c>
+      <c r="K8" s="3">
         <v>10130800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11455100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11758400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12402600</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,9 +791,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,9 +830,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,45 +964,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-508600</v>
+        <v>-523000</v>
       </c>
       <c r="E15" s="3">
-        <v>-486200</v>
+        <v>-490400</v>
       </c>
       <c r="F15" s="3">
-        <v>-206100</v>
+        <v>-468900</v>
       </c>
       <c r="G15" s="3">
-        <v>-201900</v>
+        <v>-198700</v>
       </c>
       <c r="H15" s="3">
-        <v>-211400</v>
+        <v>-194700</v>
       </c>
       <c r="I15" s="3">
-        <v>-225900</v>
+        <v>-203800</v>
       </c>
       <c r="J15" s="3">
+        <v>-217900</v>
+      </c>
+      <c r="K15" s="3">
         <v>-262900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-291000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-257500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-269100</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5269700</v>
+        <v>3993000</v>
       </c>
       <c r="E17" s="3">
-        <v>5838100</v>
+        <v>5081500</v>
       </c>
       <c r="F17" s="3">
-        <v>4821800</v>
+        <v>5629600</v>
       </c>
       <c r="G17" s="3">
-        <v>4008700</v>
+        <v>4649600</v>
       </c>
       <c r="H17" s="3">
-        <v>4316400</v>
+        <v>3865600</v>
       </c>
       <c r="I17" s="3">
-        <v>4585100</v>
+        <v>4162200</v>
       </c>
       <c r="J17" s="3">
+        <v>4421400</v>
+      </c>
+      <c r="K17" s="3">
         <v>5220700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6470200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7000400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6837100</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7140400</v>
+        <v>7933700</v>
       </c>
       <c r="E18" s="3">
-        <v>7356100</v>
+        <v>6885400</v>
       </c>
       <c r="F18" s="3">
-        <v>6579100</v>
+        <v>7093400</v>
       </c>
       <c r="G18" s="3">
-        <v>5902100</v>
+        <v>6344100</v>
       </c>
       <c r="H18" s="3">
-        <v>5122100</v>
+        <v>5691300</v>
       </c>
       <c r="I18" s="3">
-        <v>4763800</v>
+        <v>4939200</v>
       </c>
       <c r="J18" s="3">
+        <v>4593700</v>
+      </c>
+      <c r="K18" s="3">
         <v>4910100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4984900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4758100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5565600</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,80 +1115,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3147200</v>
+        <v>-3410900</v>
       </c>
       <c r="E20" s="3">
-        <v>-3230400</v>
+        <v>-3034800</v>
       </c>
       <c r="F20" s="3">
-        <v>-2827100</v>
+        <v>-3115100</v>
       </c>
       <c r="G20" s="3">
-        <v>-2713300</v>
+        <v>-2726100</v>
       </c>
       <c r="H20" s="3">
-        <v>-2458900</v>
+        <v>-2616400</v>
       </c>
       <c r="I20" s="3">
-        <v>-2125700</v>
+        <v>-2371100</v>
       </c>
       <c r="J20" s="3">
+        <v>-2049800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2501300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2544200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2044300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1656200</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4638800</v>
+        <v>5263000</v>
       </c>
       <c r="E21" s="3">
-        <v>4694500</v>
+        <v>4480800</v>
       </c>
       <c r="F21" s="3">
-        <v>4005600</v>
+        <v>4533600</v>
       </c>
       <c r="G21" s="3">
-        <v>3401700</v>
+        <v>3865500</v>
       </c>
       <c r="H21" s="3">
-        <v>2881500</v>
+        <v>3282700</v>
       </c>
       <c r="I21" s="3">
-        <v>2872300</v>
+        <v>2781200</v>
       </c>
       <c r="J21" s="3">
+        <v>2772600</v>
+      </c>
+      <c r="K21" s="3">
         <v>2671700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2728500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2967700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4165500</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3993300</v>
+        <v>4522800</v>
       </c>
       <c r="E23" s="3">
-        <v>4125700</v>
+        <v>3850600</v>
       </c>
       <c r="F23" s="3">
-        <v>3752000</v>
+        <v>3978300</v>
       </c>
       <c r="G23" s="3">
-        <v>3188900</v>
+        <v>3618000</v>
       </c>
       <c r="H23" s="3">
-        <v>2663200</v>
+        <v>3075000</v>
       </c>
       <c r="I23" s="3">
-        <v>2638100</v>
+        <v>2568100</v>
       </c>
       <c r="J23" s="3">
+        <v>2543900</v>
+      </c>
+      <c r="K23" s="3">
         <v>2408800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2440700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2713700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3909400</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1054900</v>
+        <v>1191500</v>
       </c>
       <c r="E24" s="3">
-        <v>1066100</v>
+        <v>1017200</v>
       </c>
       <c r="F24" s="3">
-        <v>1065400</v>
+        <v>1028000</v>
       </c>
       <c r="G24" s="3">
-        <v>712400</v>
+        <v>1027400</v>
       </c>
       <c r="H24" s="3">
-        <v>290300</v>
+        <v>687000</v>
       </c>
       <c r="I24" s="3">
-        <v>583500</v>
+        <v>279900</v>
       </c>
       <c r="J24" s="3">
+        <v>562600</v>
+      </c>
+      <c r="K24" s="3">
         <v>561100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>566500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>620500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>860900</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2938400</v>
+        <v>3331200</v>
       </c>
       <c r="E26" s="3">
-        <v>3059600</v>
+        <v>2833400</v>
       </c>
       <c r="F26" s="3">
-        <v>2686500</v>
+        <v>2950300</v>
       </c>
       <c r="G26" s="3">
-        <v>2476400</v>
+        <v>2590600</v>
       </c>
       <c r="H26" s="3">
-        <v>2372900</v>
+        <v>2388000</v>
       </c>
       <c r="I26" s="3">
-        <v>2054600</v>
+        <v>2288200</v>
       </c>
       <c r="J26" s="3">
+        <v>1981200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1847700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1874200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2093200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3048500</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2796600</v>
+        <v>3161300</v>
       </c>
       <c r="E27" s="3">
-        <v>2806900</v>
+        <v>2696700</v>
       </c>
       <c r="F27" s="3">
-        <v>2617700</v>
+        <v>2706600</v>
       </c>
       <c r="G27" s="3">
-        <v>2436000</v>
+        <v>2524300</v>
       </c>
       <c r="H27" s="3">
-        <v>2284700</v>
+        <v>2349000</v>
       </c>
       <c r="I27" s="3">
-        <v>1907400</v>
+        <v>2203100</v>
       </c>
       <c r="J27" s="3">
+        <v>1839300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1671000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1647900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1865700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2643900</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3147200</v>
+        <v>3410900</v>
       </c>
       <c r="E32" s="3">
-        <v>3230400</v>
+        <v>3034800</v>
       </c>
       <c r="F32" s="3">
-        <v>2827100</v>
+        <v>3115100</v>
       </c>
       <c r="G32" s="3">
-        <v>2713300</v>
+        <v>2726100</v>
       </c>
       <c r="H32" s="3">
-        <v>2458900</v>
+        <v>2616400</v>
       </c>
       <c r="I32" s="3">
-        <v>2125700</v>
+        <v>2371100</v>
       </c>
       <c r="J32" s="3">
+        <v>2049800</v>
+      </c>
+      <c r="K32" s="3">
         <v>2501300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2544200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2044300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1656200</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2796600</v>
+        <v>3161300</v>
       </c>
       <c r="E33" s="3">
-        <v>2806900</v>
+        <v>2696700</v>
       </c>
       <c r="F33" s="3">
-        <v>2617700</v>
+        <v>2706600</v>
       </c>
       <c r="G33" s="3">
-        <v>2436000</v>
+        <v>2524300</v>
       </c>
       <c r="H33" s="3">
-        <v>2284700</v>
+        <v>2349000</v>
       </c>
       <c r="I33" s="3">
-        <v>1907400</v>
+        <v>2203100</v>
       </c>
       <c r="J33" s="3">
+        <v>1839300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1671000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1647900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1865700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2643900</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2796600</v>
+        <v>3161300</v>
       </c>
       <c r="E35" s="3">
-        <v>2806900</v>
+        <v>2696700</v>
       </c>
       <c r="F35" s="3">
-        <v>2617700</v>
+        <v>2706600</v>
       </c>
       <c r="G35" s="3">
-        <v>2436000</v>
+        <v>2524300</v>
       </c>
       <c r="H35" s="3">
-        <v>2284700</v>
+        <v>2349000</v>
       </c>
       <c r="I35" s="3">
-        <v>1907400</v>
+        <v>2203100</v>
       </c>
       <c r="J35" s="3">
+        <v>1839300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1671000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1647900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1865700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2643900</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,80 +1817,87 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>32678500</v>
+        <v>26165400</v>
       </c>
       <c r="E41" s="3">
-        <v>26088100</v>
+        <v>31511400</v>
       </c>
       <c r="F41" s="3">
-        <v>17584700</v>
+        <v>25156400</v>
       </c>
       <c r="G41" s="3">
-        <v>21536200</v>
+        <v>16956700</v>
       </c>
       <c r="H41" s="3">
-        <v>20085200</v>
+        <v>20767100</v>
       </c>
       <c r="I41" s="3">
-        <v>22409200</v>
+        <v>19367900</v>
       </c>
       <c r="J41" s="3">
+        <v>21608900</v>
+      </c>
+      <c r="K41" s="3">
         <v>21225800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20543500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21492900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6880200</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>143072000</v>
+        <v>146587000</v>
       </c>
       <c r="E42" s="3">
-        <v>135203000</v>
+        <v>137963000</v>
       </c>
       <c r="F42" s="3">
-        <v>94181400</v>
+        <v>130374000</v>
       </c>
       <c r="G42" s="3">
-        <v>29772600</v>
+        <v>90817800</v>
       </c>
       <c r="H42" s="3">
-        <v>27816500</v>
+        <v>28709300</v>
       </c>
       <c r="I42" s="3">
-        <v>23417000</v>
+        <v>26823100</v>
       </c>
       <c r="J42" s="3">
+        <v>22580600</v>
+      </c>
+      <c r="K42" s="3">
         <v>24081000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>21031500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>36475400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>19224100</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1839,9 +1931,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,9 +1970,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1911,9 +2009,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1947,117 +2048,129 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2232500</v>
+        <v>2360100</v>
       </c>
       <c r="E47" s="3">
-        <v>1220400</v>
+        <v>2152800</v>
       </c>
       <c r="F47" s="3">
-        <v>563900</v>
+        <v>1176800</v>
       </c>
       <c r="G47" s="3">
-        <v>530300</v>
+        <v>543800</v>
       </c>
       <c r="H47" s="3">
-        <v>297000</v>
+        <v>511300</v>
       </c>
       <c r="I47" s="3">
-        <v>330100</v>
+        <v>286400</v>
       </c>
       <c r="J47" s="3">
+        <v>318300</v>
+      </c>
+      <c r="K47" s="3">
         <v>287200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>299000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>250800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>224000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3868100</v>
+        <v>3824500</v>
       </c>
       <c r="E48" s="3">
-        <v>3840400</v>
+        <v>3730000</v>
       </c>
       <c r="F48" s="3">
-        <v>2922100</v>
+        <v>3703300</v>
       </c>
       <c r="G48" s="3">
-        <v>2889700</v>
+        <v>2817800</v>
       </c>
       <c r="H48" s="3">
-        <v>2939000</v>
+        <v>2786500</v>
       </c>
       <c r="I48" s="3">
-        <v>2741900</v>
+        <v>2834000</v>
       </c>
       <c r="J48" s="3">
+        <v>2643900</v>
+      </c>
+      <c r="K48" s="3">
         <v>2868400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3553100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2048700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2942100</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4603700</v>
+        <v>4572300</v>
       </c>
       <c r="E49" s="3">
-        <v>4669300</v>
+        <v>4439300</v>
       </c>
       <c r="F49" s="3">
-        <v>3628900</v>
+        <v>4502600</v>
       </c>
       <c r="G49" s="3">
-        <v>3588500</v>
+        <v>3499300</v>
       </c>
       <c r="H49" s="3">
-        <v>3550300</v>
+        <v>3460300</v>
       </c>
       <c r="I49" s="3">
-        <v>3583700</v>
+        <v>3423500</v>
       </c>
       <c r="J49" s="3">
+        <v>3455700</v>
+      </c>
+      <c r="K49" s="3">
         <v>3488400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3846000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3829000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3783100</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>242000</v>
+        <v>260200</v>
       </c>
       <c r="E52" s="3">
-        <v>205900</v>
+        <v>233400</v>
       </c>
       <c r="F52" s="3">
-        <v>365000</v>
+        <v>198500</v>
       </c>
       <c r="G52" s="3">
-        <v>503900</v>
+        <v>352000</v>
       </c>
       <c r="H52" s="3">
-        <v>542600</v>
+        <v>485900</v>
       </c>
       <c r="I52" s="3">
-        <v>140800</v>
+        <v>523300</v>
       </c>
       <c r="J52" s="3">
+        <v>135800</v>
+      </c>
+      <c r="K52" s="3">
         <v>199300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>399700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>129700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>26300</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>508397000</v>
+        <v>525003000</v>
       </c>
       <c r="E54" s="3">
-        <v>464032000</v>
+        <v>490240000</v>
       </c>
       <c r="F54" s="3">
-        <v>386064000</v>
+        <v>447460000</v>
       </c>
       <c r="G54" s="3">
-        <v>358097000</v>
+        <v>372276000</v>
       </c>
       <c r="H54" s="3">
-        <v>332372000</v>
+        <v>345308000</v>
       </c>
       <c r="I54" s="3">
-        <v>311260000</v>
+        <v>320501000</v>
       </c>
       <c r="J54" s="3">
+        <v>300144000</v>
+      </c>
+      <c r="K54" s="3">
         <v>283938000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>283274000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>256149000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>259238000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,44 +2397,48 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17281700</v>
+        <v>13084500</v>
       </c>
       <c r="E57" s="3">
-        <v>11416700</v>
+        <v>16664500</v>
       </c>
       <c r="F57" s="3">
-        <v>9315700</v>
+        <v>11008900</v>
       </c>
       <c r="G57" s="3">
-        <v>8867400</v>
+        <v>8983000</v>
       </c>
       <c r="H57" s="3">
-        <v>7111300</v>
+        <v>8550700</v>
       </c>
       <c r="I57" s="3">
-        <v>9216700</v>
+        <v>6857300</v>
       </c>
       <c r="J57" s="3">
+        <v>8887500</v>
+      </c>
+      <c r="K57" s="3">
         <v>7152200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5536200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12956700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6784100</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2339,45 +2472,51 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2920100</v>
+        <v>3247200</v>
       </c>
       <c r="E59" s="3">
-        <v>3399400</v>
+        <v>2815800</v>
       </c>
       <c r="F59" s="3">
-        <v>3147500</v>
+        <v>3278000</v>
       </c>
       <c r="G59" s="3">
-        <v>2838600</v>
+        <v>3035100</v>
       </c>
       <c r="H59" s="3">
-        <v>2618900</v>
+        <v>2737200</v>
       </c>
       <c r="I59" s="3">
-        <v>2505900</v>
+        <v>2525400</v>
       </c>
       <c r="J59" s="3">
+        <v>2416400</v>
+      </c>
+      <c r="K59" s="3">
         <v>2937900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3248200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6317900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3833300</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2411,81 +2550,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>87768500</v>
+        <v>90457900</v>
       </c>
       <c r="E61" s="3">
-        <v>85268200</v>
+        <v>84633900</v>
       </c>
       <c r="F61" s="3">
-        <v>70553200</v>
+        <v>82222900</v>
       </c>
       <c r="G61" s="3">
-        <v>57960700</v>
+        <v>68033400</v>
       </c>
       <c r="H61" s="3">
-        <v>50732200</v>
+        <v>55890600</v>
       </c>
       <c r="I61" s="3">
-        <v>46759200</v>
+        <v>48920400</v>
       </c>
       <c r="J61" s="3">
+        <v>45089200</v>
+      </c>
+      <c r="K61" s="3">
         <v>31361100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>34117200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32624300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>53793200</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1215400</v>
+        <v>1129100</v>
       </c>
       <c r="E62" s="3">
-        <v>949000</v>
+        <v>1172000</v>
       </c>
       <c r="F62" s="3">
-        <v>552500</v>
+        <v>915100</v>
       </c>
       <c r="G62" s="3">
-        <v>374500</v>
+        <v>532800</v>
       </c>
       <c r="H62" s="3">
-        <v>731100</v>
+        <v>361100</v>
       </c>
       <c r="I62" s="3">
-        <v>790500</v>
+        <v>705000</v>
       </c>
       <c r="J62" s="3">
+        <v>762300</v>
+      </c>
+      <c r="K62" s="3">
         <v>851100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>803100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>850000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>471378000</v>
+        <v>486697000</v>
       </c>
       <c r="E66" s="3">
-        <v>431123000</v>
+        <v>454543000</v>
       </c>
       <c r="F66" s="3">
-        <v>356055000</v>
+        <v>415726000</v>
       </c>
       <c r="G66" s="3">
-        <v>330529000</v>
+        <v>343339000</v>
       </c>
       <c r="H66" s="3">
-        <v>306239000</v>
+        <v>318724000</v>
       </c>
       <c r="I66" s="3">
-        <v>285355000</v>
+        <v>295302000</v>
       </c>
       <c r="J66" s="3">
+        <v>275164000</v>
+      </c>
+      <c r="K66" s="3">
         <v>259424000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>258215000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>233997000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>237281000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,45 +2879,51 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>303600</v>
+        <v>292800</v>
       </c>
       <c r="E70" s="3">
-        <v>303600</v>
+        <v>292800</v>
       </c>
       <c r="F70" s="3">
+        <v>292800</v>
+      </c>
+      <c r="G70" s="3">
+        <v>222000</v>
+      </c>
+      <c r="H70" s="3">
+        <v>222000</v>
+      </c>
+      <c r="I70" s="3">
+        <v>222000</v>
+      </c>
+      <c r="J70" s="3">
+        <v>222000</v>
+      </c>
+      <c r="K70" s="3">
         <v>230200</v>
       </c>
-      <c r="G70" s="3">
-        <v>230200</v>
-      </c>
-      <c r="H70" s="3">
-        <v>230200</v>
-      </c>
-      <c r="I70" s="3">
-        <v>230200</v>
-      </c>
-      <c r="J70" s="3">
-        <v>230200</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>249400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>460400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>246600</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23332800</v>
+        <v>24738500</v>
       </c>
       <c r="E72" s="3">
-        <v>21441700</v>
+        <v>22499500</v>
       </c>
       <c r="F72" s="3">
-        <v>19285900</v>
+        <v>20675900</v>
       </c>
       <c r="G72" s="3">
-        <v>17464100</v>
+        <v>18597100</v>
       </c>
       <c r="H72" s="3">
-        <v>15657600</v>
+        <v>16840400</v>
       </c>
       <c r="I72" s="3">
-        <v>14858900</v>
+        <v>15098400</v>
       </c>
       <c r="J72" s="3">
+        <v>14328200</v>
+      </c>
+      <c r="K72" s="3">
         <v>13330600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12911500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10680700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9746800</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>36714800</v>
+        <v>38013000</v>
       </c>
       <c r="E76" s="3">
-        <v>32605900</v>
+        <v>35403500</v>
       </c>
       <c r="F76" s="3">
-        <v>29779300</v>
+        <v>31441300</v>
       </c>
       <c r="G76" s="3">
-        <v>27337900</v>
+        <v>28715800</v>
       </c>
       <c r="H76" s="3">
-        <v>25901900</v>
+        <v>26361500</v>
       </c>
       <c r="I76" s="3">
-        <v>25675100</v>
+        <v>24976900</v>
       </c>
       <c r="J76" s="3">
+        <v>24758100</v>
+      </c>
+      <c r="K76" s="3">
         <v>24284400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24810300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21692000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21710300</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2796600</v>
+        <v>3161300</v>
       </c>
       <c r="E81" s="3">
-        <v>2806900</v>
+        <v>2696700</v>
       </c>
       <c r="F81" s="3">
-        <v>2617700</v>
+        <v>2706600</v>
       </c>
       <c r="G81" s="3">
-        <v>2436000</v>
+        <v>2524300</v>
       </c>
       <c r="H81" s="3">
-        <v>2284700</v>
+        <v>2349000</v>
       </c>
       <c r="I81" s="3">
-        <v>1907400</v>
+        <v>2203100</v>
       </c>
       <c r="J81" s="3">
+        <v>1839300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1671000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1647900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1865700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2643900</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>645500</v>
+        <v>731200</v>
       </c>
       <c r="E83" s="3">
-        <v>568800</v>
+        <v>622500</v>
       </c>
       <c r="F83" s="3">
-        <v>253600</v>
+        <v>548500</v>
       </c>
       <c r="G83" s="3">
-        <v>212800</v>
+        <v>244600</v>
       </c>
       <c r="H83" s="3">
-        <v>218400</v>
+        <v>205200</v>
       </c>
       <c r="I83" s="3">
-        <v>234300</v>
+        <v>210600</v>
       </c>
       <c r="J83" s="3">
+        <v>225900</v>
+      </c>
+      <c r="K83" s="3">
         <v>262900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>291000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>251000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>259000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3703800</v>
+        <v>8974900</v>
       </c>
       <c r="E89" s="3">
-        <v>6030400</v>
+        <v>-3571500</v>
       </c>
       <c r="F89" s="3">
-        <v>-5309000</v>
+        <v>5815000</v>
       </c>
       <c r="G89" s="3">
-        <v>857900</v>
+        <v>-5119400</v>
       </c>
       <c r="H89" s="3">
-        <v>3189600</v>
+        <v>827300</v>
       </c>
       <c r="I89" s="3">
-        <v>2495100</v>
+        <v>3075700</v>
       </c>
       <c r="J89" s="3">
+        <v>2406000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1747700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7617400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1269900</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-234900</v>
+        <v>-271200</v>
       </c>
       <c r="E91" s="3">
-        <v>-227100</v>
+        <v>-226500</v>
       </c>
       <c r="F91" s="3">
-        <v>-120100</v>
+        <v>-219000</v>
       </c>
       <c r="G91" s="3">
-        <v>-130400</v>
+        <v>-115800</v>
       </c>
       <c r="H91" s="3">
-        <v>-211800</v>
+        <v>-125700</v>
       </c>
       <c r="I91" s="3">
-        <v>-104900</v>
+        <v>-204200</v>
       </c>
       <c r="J91" s="3">
+        <v>-101100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-153000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-267500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-246000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-423200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2541800</v>
+        <v>-9744700</v>
       </c>
       <c r="E94" s="3">
-        <v>-19057800</v>
+        <v>-2451000</v>
       </c>
       <c r="F94" s="3">
-        <v>-4630600</v>
+        <v>-18377200</v>
       </c>
       <c r="G94" s="3">
-        <v>-8991100</v>
+        <v>-4465200</v>
       </c>
       <c r="H94" s="3">
-        <v>-6378900</v>
+        <v>-8669900</v>
       </c>
       <c r="I94" s="3">
-        <v>-4442400</v>
+        <v>-6151000</v>
       </c>
       <c r="J94" s="3">
+        <v>-4283800</v>
+      </c>
+      <c r="K94" s="3">
         <v>807100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3090300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2121600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3702100</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-813800</v>
+        <v>-987200</v>
       </c>
       <c r="E96" s="3">
-        <v>-697800</v>
+        <v>-784800</v>
       </c>
       <c r="F96" s="3">
-        <v>-600400</v>
+        <v>-672900</v>
       </c>
       <c r="G96" s="3">
-        <v>-593500</v>
+        <v>-578900</v>
       </c>
       <c r="H96" s="3">
-        <v>-562000</v>
+        <v>-572300</v>
       </c>
       <c r="I96" s="3">
-        <v>-458800</v>
+        <v>-542000</v>
       </c>
       <c r="J96" s="3">
+        <v>-442400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-335800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-385900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-546600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-527000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6619700</v>
+        <v>4019000</v>
       </c>
       <c r="E100" s="3">
-        <v>13338200</v>
+        <v>6383300</v>
       </c>
       <c r="F100" s="3">
-        <v>11597500</v>
+        <v>12861800</v>
       </c>
       <c r="G100" s="3">
-        <v>8679300</v>
+        <v>11183300</v>
       </c>
       <c r="H100" s="3">
-        <v>4069500</v>
+        <v>8369300</v>
       </c>
       <c r="I100" s="3">
-        <v>1102700</v>
+        <v>3924100</v>
       </c>
       <c r="J100" s="3">
+        <v>1063300</v>
+      </c>
+      <c r="K100" s="3">
         <v>577000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1171100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4638300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1655800</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-51700</v>
+        <v>88700</v>
       </c>
       <c r="E101" s="3">
-        <v>24700</v>
+        <v>-49800</v>
       </c>
       <c r="F101" s="3">
-        <v>-25700</v>
+        <v>23800</v>
       </c>
       <c r="G101" s="3">
-        <v>-38700</v>
+        <v>-24800</v>
       </c>
       <c r="H101" s="3">
-        <v>-19000</v>
+        <v>-37300</v>
       </c>
       <c r="I101" s="3">
-        <v>7000</v>
+        <v>-18300</v>
       </c>
       <c r="J101" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K101" s="3">
         <v>13600</v>
-      </c>
-      <c r="K101" s="3">
-        <v>3600</v>
       </c>
       <c r="L101" s="3">
         <v>3600</v>
       </c>
       <c r="M101" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>322400</v>
+        <v>3337900</v>
       </c>
       <c r="E102" s="3">
-        <v>335500</v>
+        <v>310900</v>
       </c>
       <c r="F102" s="3">
-        <v>1632200</v>
+        <v>323500</v>
       </c>
       <c r="G102" s="3">
-        <v>507500</v>
+        <v>1573900</v>
       </c>
       <c r="H102" s="3">
-        <v>861200</v>
+        <v>489300</v>
       </c>
       <c r="I102" s="3">
-        <v>-837600</v>
+        <v>830500</v>
       </c>
       <c r="J102" s="3">
+        <v>-807700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-350100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>922200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>861100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-777400</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11926600</v>
+        <v>11337700</v>
       </c>
       <c r="E8" s="3">
-        <v>11966900</v>
+        <v>11376000</v>
       </c>
       <c r="F8" s="3">
-        <v>12723000</v>
+        <v>12094700</v>
       </c>
       <c r="G8" s="3">
-        <v>10993700</v>
+        <v>10450800</v>
       </c>
       <c r="H8" s="3">
-        <v>9556900</v>
+        <v>9085000</v>
       </c>
       <c r="I8" s="3">
-        <v>9101400</v>
+        <v>8652000</v>
       </c>
       <c r="J8" s="3">
-        <v>9015100</v>
+        <v>8569900</v>
       </c>
       <c r="K8" s="3">
         <v>10130800</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-523000</v>
+        <v>-497200</v>
       </c>
       <c r="E15" s="3">
-        <v>-490400</v>
+        <v>-466200</v>
       </c>
       <c r="F15" s="3">
-        <v>-468900</v>
+        <v>-445700</v>
       </c>
       <c r="G15" s="3">
-        <v>-198700</v>
+        <v>-188900</v>
       </c>
       <c r="H15" s="3">
-        <v>-194700</v>
+        <v>-185100</v>
       </c>
       <c r="I15" s="3">
-        <v>-203800</v>
+        <v>-193800</v>
       </c>
       <c r="J15" s="3">
-        <v>-217900</v>
+        <v>-207100</v>
       </c>
       <c r="K15" s="3">
         <v>-262900</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3993000</v>
+        <v>3795800</v>
       </c>
       <c r="E17" s="3">
-        <v>5081500</v>
+        <v>4830600</v>
       </c>
       <c r="F17" s="3">
-        <v>5629600</v>
+        <v>5351600</v>
       </c>
       <c r="G17" s="3">
-        <v>4649600</v>
+        <v>4420000</v>
       </c>
       <c r="H17" s="3">
-        <v>3865600</v>
+        <v>3674700</v>
       </c>
       <c r="I17" s="3">
-        <v>4162200</v>
+        <v>3956700</v>
       </c>
       <c r="J17" s="3">
-        <v>4421400</v>
+        <v>4203000</v>
       </c>
       <c r="K17" s="3">
         <v>5220700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7933700</v>
+        <v>7541900</v>
       </c>
       <c r="E18" s="3">
-        <v>6885400</v>
+        <v>6545400</v>
       </c>
       <c r="F18" s="3">
-        <v>7093400</v>
+        <v>6743100</v>
       </c>
       <c r="G18" s="3">
-        <v>6344100</v>
+        <v>6030800</v>
       </c>
       <c r="H18" s="3">
-        <v>5691300</v>
+        <v>5410300</v>
       </c>
       <c r="I18" s="3">
-        <v>4939200</v>
+        <v>4695300</v>
       </c>
       <c r="J18" s="3">
-        <v>4593700</v>
+        <v>4366800</v>
       </c>
       <c r="K18" s="3">
         <v>4910100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3410900</v>
+        <v>-3242500</v>
       </c>
       <c r="E20" s="3">
-        <v>-3034800</v>
+        <v>-2884900</v>
       </c>
       <c r="F20" s="3">
-        <v>-3115100</v>
+        <v>-2961200</v>
       </c>
       <c r="G20" s="3">
-        <v>-2726100</v>
+        <v>-2591500</v>
       </c>
       <c r="H20" s="3">
-        <v>-2616400</v>
+        <v>-2487200</v>
       </c>
       <c r="I20" s="3">
-        <v>-2371100</v>
+        <v>-2254000</v>
       </c>
       <c r="J20" s="3">
-        <v>-2049800</v>
+        <v>-1948600</v>
       </c>
       <c r="K20" s="3">
         <v>-2501300</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5263000</v>
+        <v>5003500</v>
       </c>
       <c r="E21" s="3">
-        <v>4480800</v>
+        <v>4259900</v>
       </c>
       <c r="F21" s="3">
-        <v>4533600</v>
+        <v>4310000</v>
       </c>
       <c r="G21" s="3">
-        <v>3865500</v>
+        <v>3674800</v>
       </c>
       <c r="H21" s="3">
-        <v>3282700</v>
+        <v>3120700</v>
       </c>
       <c r="I21" s="3">
-        <v>2781200</v>
+        <v>2644000</v>
       </c>
       <c r="J21" s="3">
-        <v>2772600</v>
+        <v>2635800</v>
       </c>
       <c r="K21" s="3">
         <v>2671700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4522800</v>
+        <v>4299400</v>
       </c>
       <c r="E23" s="3">
-        <v>3850600</v>
+        <v>3660500</v>
       </c>
       <c r="F23" s="3">
-        <v>3978300</v>
+        <v>3781900</v>
       </c>
       <c r="G23" s="3">
-        <v>3618000</v>
+        <v>3439300</v>
       </c>
       <c r="H23" s="3">
-        <v>3075000</v>
+        <v>2923100</v>
       </c>
       <c r="I23" s="3">
-        <v>2568100</v>
+        <v>2441300</v>
       </c>
       <c r="J23" s="3">
-        <v>2543900</v>
+        <v>2418200</v>
       </c>
       <c r="K23" s="3">
         <v>2408800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1191500</v>
+        <v>1132700</v>
       </c>
       <c r="E24" s="3">
-        <v>1017200</v>
+        <v>967000</v>
       </c>
       <c r="F24" s="3">
-        <v>1028000</v>
+        <v>977200</v>
       </c>
       <c r="G24" s="3">
-        <v>1027400</v>
+        <v>976600</v>
       </c>
       <c r="H24" s="3">
-        <v>687000</v>
+        <v>653100</v>
       </c>
       <c r="I24" s="3">
-        <v>279900</v>
+        <v>266100</v>
       </c>
       <c r="J24" s="3">
-        <v>562600</v>
+        <v>534900</v>
       </c>
       <c r="K24" s="3">
         <v>561100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3331200</v>
+        <v>3166700</v>
       </c>
       <c r="E26" s="3">
-        <v>2833400</v>
+        <v>2693500</v>
       </c>
       <c r="F26" s="3">
-        <v>2950300</v>
+        <v>2804600</v>
       </c>
       <c r="G26" s="3">
-        <v>2590600</v>
+        <v>2462700</v>
       </c>
       <c r="H26" s="3">
-        <v>2388000</v>
+        <v>2270100</v>
       </c>
       <c r="I26" s="3">
-        <v>2288200</v>
+        <v>2175200</v>
       </c>
       <c r="J26" s="3">
-        <v>1981200</v>
+        <v>1883400</v>
       </c>
       <c r="K26" s="3">
         <v>1847700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3161300</v>
+        <v>3005200</v>
       </c>
       <c r="E27" s="3">
-        <v>2696700</v>
+        <v>2563500</v>
       </c>
       <c r="F27" s="3">
-        <v>2706600</v>
+        <v>2573000</v>
       </c>
       <c r="G27" s="3">
-        <v>2524300</v>
+        <v>2399600</v>
       </c>
       <c r="H27" s="3">
-        <v>2349000</v>
+        <v>2233000</v>
       </c>
       <c r="I27" s="3">
-        <v>2203100</v>
+        <v>2094300</v>
       </c>
       <c r="J27" s="3">
-        <v>1839300</v>
+        <v>1748500</v>
       </c>
       <c r="K27" s="3">
         <v>1671000</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3410900</v>
+        <v>3242500</v>
       </c>
       <c r="E32" s="3">
-        <v>3034800</v>
+        <v>2884900</v>
       </c>
       <c r="F32" s="3">
-        <v>3115100</v>
+        <v>2961200</v>
       </c>
       <c r="G32" s="3">
-        <v>2726100</v>
+        <v>2591500</v>
       </c>
       <c r="H32" s="3">
-        <v>2616400</v>
+        <v>2487200</v>
       </c>
       <c r="I32" s="3">
-        <v>2371100</v>
+        <v>2254000</v>
       </c>
       <c r="J32" s="3">
-        <v>2049800</v>
+        <v>1948600</v>
       </c>
       <c r="K32" s="3">
         <v>2501300</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3161300</v>
+        <v>3005200</v>
       </c>
       <c r="E33" s="3">
-        <v>2696700</v>
+        <v>2563500</v>
       </c>
       <c r="F33" s="3">
-        <v>2706600</v>
+        <v>2573000</v>
       </c>
       <c r="G33" s="3">
-        <v>2524300</v>
+        <v>2399600</v>
       </c>
       <c r="H33" s="3">
-        <v>2349000</v>
+        <v>2233000</v>
       </c>
       <c r="I33" s="3">
-        <v>2203100</v>
+        <v>2094300</v>
       </c>
       <c r="J33" s="3">
-        <v>1839300</v>
+        <v>1748500</v>
       </c>
       <c r="K33" s="3">
         <v>1671000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3161300</v>
+        <v>3005200</v>
       </c>
       <c r="E35" s="3">
-        <v>2696700</v>
+        <v>2563500</v>
       </c>
       <c r="F35" s="3">
-        <v>2706600</v>
+        <v>2573000</v>
       </c>
       <c r="G35" s="3">
-        <v>2524300</v>
+        <v>2399600</v>
       </c>
       <c r="H35" s="3">
-        <v>2349000</v>
+        <v>2233000</v>
       </c>
       <c r="I35" s="3">
-        <v>2203100</v>
+        <v>2094300</v>
       </c>
       <c r="J35" s="3">
-        <v>1839300</v>
+        <v>1748500</v>
       </c>
       <c r="K35" s="3">
         <v>1671000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>26165400</v>
+        <v>24873300</v>
       </c>
       <c r="E41" s="3">
-        <v>31511400</v>
+        <v>29955300</v>
       </c>
       <c r="F41" s="3">
-        <v>25156400</v>
+        <v>23914100</v>
       </c>
       <c r="G41" s="3">
-        <v>16956700</v>
+        <v>16119300</v>
       </c>
       <c r="H41" s="3">
-        <v>20767100</v>
+        <v>19741600</v>
       </c>
       <c r="I41" s="3">
-        <v>19367900</v>
+        <v>18411500</v>
       </c>
       <c r="J41" s="3">
-        <v>21608900</v>
+        <v>20541800</v>
       </c>
       <c r="K41" s="3">
         <v>21225800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>146587000</v>
+        <v>139348000</v>
       </c>
       <c r="E42" s="3">
-        <v>137963000</v>
+        <v>131150000</v>
       </c>
       <c r="F42" s="3">
-        <v>130374000</v>
+        <v>123936000</v>
       </c>
       <c r="G42" s="3">
-        <v>90817800</v>
+        <v>86332900</v>
       </c>
       <c r="H42" s="3">
-        <v>28709300</v>
+        <v>27291500</v>
       </c>
       <c r="I42" s="3">
-        <v>26823100</v>
+        <v>25498500</v>
       </c>
       <c r="J42" s="3">
-        <v>22580600</v>
+        <v>21465500</v>
       </c>
       <c r="K42" s="3">
         <v>24081000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2360100</v>
+        <v>2243600</v>
       </c>
       <c r="E47" s="3">
-        <v>2152800</v>
+        <v>2046500</v>
       </c>
       <c r="F47" s="3">
-        <v>1176800</v>
+        <v>1118700</v>
       </c>
       <c r="G47" s="3">
-        <v>543800</v>
+        <v>516900</v>
       </c>
       <c r="H47" s="3">
-        <v>511300</v>
+        <v>486100</v>
       </c>
       <c r="I47" s="3">
-        <v>286400</v>
+        <v>272300</v>
       </c>
       <c r="J47" s="3">
-        <v>318300</v>
+        <v>302600</v>
       </c>
       <c r="K47" s="3">
         <v>287200</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3824500</v>
+        <v>3635600</v>
       </c>
       <c r="E48" s="3">
-        <v>3730000</v>
+        <v>3545800</v>
       </c>
       <c r="F48" s="3">
-        <v>3703300</v>
+        <v>3520400</v>
       </c>
       <c r="G48" s="3">
-        <v>2817800</v>
+        <v>2678600</v>
       </c>
       <c r="H48" s="3">
-        <v>2786500</v>
+        <v>2648900</v>
       </c>
       <c r="I48" s="3">
-        <v>2834000</v>
+        <v>2694100</v>
       </c>
       <c r="J48" s="3">
-        <v>2643900</v>
+        <v>2513400</v>
       </c>
       <c r="K48" s="3">
         <v>2868400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4572300</v>
+        <v>4346500</v>
       </c>
       <c r="E49" s="3">
-        <v>4439300</v>
+        <v>4220100</v>
       </c>
       <c r="F49" s="3">
-        <v>4502600</v>
+        <v>4280200</v>
       </c>
       <c r="G49" s="3">
-        <v>3499300</v>
+        <v>3326500</v>
       </c>
       <c r="H49" s="3">
-        <v>3460300</v>
+        <v>3289400</v>
       </c>
       <c r="I49" s="3">
-        <v>3423500</v>
+        <v>3254400</v>
       </c>
       <c r="J49" s="3">
-        <v>3455700</v>
+        <v>3285100</v>
       </c>
       <c r="K49" s="3">
         <v>3488400</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>260200</v>
+        <v>247400</v>
       </c>
       <c r="E52" s="3">
-        <v>233400</v>
+        <v>221800</v>
       </c>
       <c r="F52" s="3">
-        <v>198500</v>
+        <v>188700</v>
       </c>
       <c r="G52" s="3">
-        <v>352000</v>
+        <v>334600</v>
       </c>
       <c r="H52" s="3">
-        <v>485900</v>
+        <v>461900</v>
       </c>
       <c r="I52" s="3">
-        <v>523300</v>
+        <v>497400</v>
       </c>
       <c r="J52" s="3">
-        <v>135800</v>
+        <v>129100</v>
       </c>
       <c r="K52" s="3">
         <v>199300</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>525003000</v>
+        <v>499077000</v>
       </c>
       <c r="E54" s="3">
-        <v>490240000</v>
+        <v>466030000</v>
       </c>
       <c r="F54" s="3">
-        <v>447460000</v>
+        <v>425363000</v>
       </c>
       <c r="G54" s="3">
-        <v>372276000</v>
+        <v>353892000</v>
       </c>
       <c r="H54" s="3">
-        <v>345308000</v>
+        <v>328255000</v>
       </c>
       <c r="I54" s="3">
-        <v>320501000</v>
+        <v>304674000</v>
       </c>
       <c r="J54" s="3">
-        <v>300144000</v>
+        <v>285322000</v>
       </c>
       <c r="K54" s="3">
         <v>283938000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13084500</v>
+        <v>12438300</v>
       </c>
       <c r="E57" s="3">
-        <v>16664500</v>
+        <v>15841500</v>
       </c>
       <c r="F57" s="3">
-        <v>11008900</v>
+        <v>10465300</v>
       </c>
       <c r="G57" s="3">
-        <v>8983000</v>
+        <v>8539300</v>
       </c>
       <c r="H57" s="3">
-        <v>8550700</v>
+        <v>8128400</v>
       </c>
       <c r="I57" s="3">
-        <v>6857300</v>
+        <v>6518700</v>
       </c>
       <c r="J57" s="3">
-        <v>8887500</v>
+        <v>8448700</v>
       </c>
       <c r="K57" s="3">
         <v>7152200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3247200</v>
+        <v>3086800</v>
       </c>
       <c r="E59" s="3">
-        <v>2815800</v>
+        <v>2676800</v>
       </c>
       <c r="F59" s="3">
-        <v>3278000</v>
+        <v>3116100</v>
       </c>
       <c r="G59" s="3">
-        <v>3035100</v>
+        <v>2885200</v>
       </c>
       <c r="H59" s="3">
-        <v>2737200</v>
+        <v>2602100</v>
       </c>
       <c r="I59" s="3">
-        <v>2525400</v>
+        <v>2400700</v>
       </c>
       <c r="J59" s="3">
-        <v>2416400</v>
+        <v>2297100</v>
       </c>
       <c r="K59" s="3">
         <v>2937900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>90457900</v>
+        <v>85990800</v>
       </c>
       <c r="E61" s="3">
-        <v>84633900</v>
+        <v>80454400</v>
       </c>
       <c r="F61" s="3">
-        <v>82222900</v>
+        <v>78162500</v>
       </c>
       <c r="G61" s="3">
-        <v>68033400</v>
+        <v>64673800</v>
       </c>
       <c r="H61" s="3">
-        <v>55890600</v>
+        <v>53130600</v>
       </c>
       <c r="I61" s="3">
-        <v>48920400</v>
+        <v>46504500</v>
       </c>
       <c r="J61" s="3">
-        <v>45089200</v>
+        <v>42862600</v>
       </c>
       <c r="K61" s="3">
         <v>31361100</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1129100</v>
+        <v>1073400</v>
       </c>
       <c r="E62" s="3">
-        <v>1172000</v>
+        <v>1114100</v>
       </c>
       <c r="F62" s="3">
-        <v>915100</v>
+        <v>869900</v>
       </c>
       <c r="G62" s="3">
-        <v>532800</v>
+        <v>506500</v>
       </c>
       <c r="H62" s="3">
-        <v>361100</v>
+        <v>343300</v>
       </c>
       <c r="I62" s="3">
-        <v>705000</v>
+        <v>670200</v>
       </c>
       <c r="J62" s="3">
-        <v>762300</v>
+        <v>724600</v>
       </c>
       <c r="K62" s="3">
         <v>851100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>486697000</v>
+        <v>462663000</v>
       </c>
       <c r="E66" s="3">
-        <v>454543000</v>
+        <v>432097000</v>
       </c>
       <c r="F66" s="3">
-        <v>415726000</v>
+        <v>395196000</v>
       </c>
       <c r="G66" s="3">
-        <v>343339000</v>
+        <v>326384000</v>
       </c>
       <c r="H66" s="3">
-        <v>318724000</v>
+        <v>302985000</v>
       </c>
       <c r="I66" s="3">
-        <v>295302000</v>
+        <v>280719000</v>
       </c>
       <c r="J66" s="3">
-        <v>275164000</v>
+        <v>261575000</v>
       </c>
       <c r="K66" s="3">
         <v>259424000</v>
@@ -2889,25 +2889,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>292800</v>
+        <v>278300</v>
       </c>
       <c r="E70" s="3">
-        <v>292800</v>
+        <v>278300</v>
       </c>
       <c r="F70" s="3">
-        <v>292800</v>
+        <v>278300</v>
       </c>
       <c r="G70" s="3">
-        <v>222000</v>
+        <v>211000</v>
       </c>
       <c r="H70" s="3">
-        <v>222000</v>
+        <v>211000</v>
       </c>
       <c r="I70" s="3">
-        <v>222000</v>
+        <v>211000</v>
       </c>
       <c r="J70" s="3">
-        <v>222000</v>
+        <v>211000</v>
       </c>
       <c r="K70" s="3">
         <v>230200</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24738500</v>
+        <v>23516800</v>
       </c>
       <c r="E72" s="3">
-        <v>22499500</v>
+        <v>21388400</v>
       </c>
       <c r="F72" s="3">
-        <v>20675900</v>
+        <v>19654900</v>
       </c>
       <c r="G72" s="3">
-        <v>18597100</v>
+        <v>17678800</v>
       </c>
       <c r="H72" s="3">
-        <v>16840400</v>
+        <v>16008800</v>
       </c>
       <c r="I72" s="3">
-        <v>15098400</v>
+        <v>14352800</v>
       </c>
       <c r="J72" s="3">
-        <v>14328200</v>
+        <v>13620600</v>
       </c>
       <c r="K72" s="3">
         <v>13330600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>38013000</v>
+        <v>36135900</v>
       </c>
       <c r="E76" s="3">
-        <v>35403500</v>
+        <v>33655300</v>
       </c>
       <c r="F76" s="3">
-        <v>31441300</v>
+        <v>29888700</v>
       </c>
       <c r="G76" s="3">
-        <v>28715800</v>
+        <v>27297700</v>
       </c>
       <c r="H76" s="3">
-        <v>26361500</v>
+        <v>25059700</v>
       </c>
       <c r="I76" s="3">
-        <v>24976900</v>
+        <v>23743500</v>
       </c>
       <c r="J76" s="3">
-        <v>24758100</v>
+        <v>23535500</v>
       </c>
       <c r="K76" s="3">
         <v>24284400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3161300</v>
+        <v>3005200</v>
       </c>
       <c r="E81" s="3">
-        <v>2696700</v>
+        <v>2563500</v>
       </c>
       <c r="F81" s="3">
-        <v>2706600</v>
+        <v>2573000</v>
       </c>
       <c r="G81" s="3">
-        <v>2524300</v>
+        <v>2399600</v>
       </c>
       <c r="H81" s="3">
-        <v>2349000</v>
+        <v>2233000</v>
       </c>
       <c r="I81" s="3">
-        <v>2203100</v>
+        <v>2094300</v>
       </c>
       <c r="J81" s="3">
-        <v>1839300</v>
+        <v>1748500</v>
       </c>
       <c r="K81" s="3">
         <v>1671000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>731200</v>
+        <v>695100</v>
       </c>
       <c r="E83" s="3">
-        <v>622500</v>
+        <v>591700</v>
       </c>
       <c r="F83" s="3">
-        <v>548500</v>
+        <v>521400</v>
       </c>
       <c r="G83" s="3">
-        <v>244600</v>
+        <v>232500</v>
       </c>
       <c r="H83" s="3">
-        <v>205200</v>
+        <v>195100</v>
       </c>
       <c r="I83" s="3">
-        <v>210600</v>
+        <v>200200</v>
       </c>
       <c r="J83" s="3">
-        <v>225900</v>
+        <v>214700</v>
       </c>
       <c r="K83" s="3">
         <v>262900</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8974900</v>
+        <v>8531700</v>
       </c>
       <c r="E89" s="3">
-        <v>-3571500</v>
+        <v>-3395200</v>
       </c>
       <c r="F89" s="3">
-        <v>5815000</v>
+        <v>5527900</v>
       </c>
       <c r="G89" s="3">
-        <v>-5119400</v>
+        <v>-4866600</v>
       </c>
       <c r="H89" s="3">
-        <v>827300</v>
+        <v>786400</v>
       </c>
       <c r="I89" s="3">
-        <v>3075700</v>
+        <v>2923800</v>
       </c>
       <c r="J89" s="3">
-        <v>2406000</v>
+        <v>2287100</v>
       </c>
       <c r="K89" s="3">
         <v>-1747700</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-271200</v>
+        <v>-257900</v>
       </c>
       <c r="E91" s="3">
-        <v>-226500</v>
+        <v>-215300</v>
       </c>
       <c r="F91" s="3">
-        <v>-219000</v>
+        <v>-208200</v>
       </c>
       <c r="G91" s="3">
-        <v>-115800</v>
+        <v>-110100</v>
       </c>
       <c r="H91" s="3">
-        <v>-125700</v>
+        <v>-119500</v>
       </c>
       <c r="I91" s="3">
-        <v>-204200</v>
+        <v>-194100</v>
       </c>
       <c r="J91" s="3">
-        <v>-101100</v>
+        <v>-96100</v>
       </c>
       <c r="K91" s="3">
         <v>-153000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9744700</v>
+        <v>-9263500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2451000</v>
+        <v>-2330000</v>
       </c>
       <c r="F94" s="3">
-        <v>-18377200</v>
+        <v>-17469700</v>
       </c>
       <c r="G94" s="3">
-        <v>-4465200</v>
+        <v>-4244700</v>
       </c>
       <c r="H94" s="3">
-        <v>-8669900</v>
+        <v>-8241800</v>
       </c>
       <c r="I94" s="3">
-        <v>-6151000</v>
+        <v>-5847300</v>
       </c>
       <c r="J94" s="3">
-        <v>-4283800</v>
+        <v>-4072200</v>
       </c>
       <c r="K94" s="3">
         <v>807100</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-987200</v>
+        <v>-938400</v>
       </c>
       <c r="E96" s="3">
-        <v>-784800</v>
+        <v>-746000</v>
       </c>
       <c r="F96" s="3">
-        <v>-672900</v>
+        <v>-639700</v>
       </c>
       <c r="G96" s="3">
-        <v>-578900</v>
+        <v>-550300</v>
       </c>
       <c r="H96" s="3">
-        <v>-572300</v>
+        <v>-544100</v>
       </c>
       <c r="I96" s="3">
-        <v>-542000</v>
+        <v>-515200</v>
       </c>
       <c r="J96" s="3">
-        <v>-442400</v>
+        <v>-420500</v>
       </c>
       <c r="K96" s="3">
         <v>-335800</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4019000</v>
+        <v>3820500</v>
       </c>
       <c r="E100" s="3">
-        <v>6383300</v>
+        <v>6068000</v>
       </c>
       <c r="F100" s="3">
-        <v>12861800</v>
+        <v>12226700</v>
       </c>
       <c r="G100" s="3">
-        <v>11183300</v>
+        <v>10631000</v>
       </c>
       <c r="H100" s="3">
-        <v>8369300</v>
+        <v>7956000</v>
       </c>
       <c r="I100" s="3">
-        <v>3924100</v>
+        <v>3730400</v>
       </c>
       <c r="J100" s="3">
-        <v>1063300</v>
+        <v>1010800</v>
       </c>
       <c r="K100" s="3">
         <v>577000</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>88700</v>
+        <v>84400</v>
       </c>
       <c r="E101" s="3">
-        <v>-49800</v>
+        <v>-47400</v>
       </c>
       <c r="F101" s="3">
-        <v>23800</v>
+        <v>22700</v>
       </c>
       <c r="G101" s="3">
-        <v>-24800</v>
+        <v>-23600</v>
       </c>
       <c r="H101" s="3">
-        <v>-37300</v>
+        <v>-35400</v>
       </c>
       <c r="I101" s="3">
-        <v>-18300</v>
+        <v>-17400</v>
       </c>
       <c r="J101" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="K101" s="3">
         <v>13600</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3337900</v>
+        <v>3173100</v>
       </c>
       <c r="E102" s="3">
-        <v>310900</v>
+        <v>295500</v>
       </c>
       <c r="F102" s="3">
-        <v>323500</v>
+        <v>307600</v>
       </c>
       <c r="G102" s="3">
-        <v>1573900</v>
+        <v>1496200</v>
       </c>
       <c r="H102" s="3">
-        <v>489300</v>
+        <v>465200</v>
       </c>
       <c r="I102" s="3">
-        <v>830500</v>
+        <v>789500</v>
       </c>
       <c r="J102" s="3">
-        <v>-807700</v>
+        <v>-767800</v>
       </c>
       <c r="K102" s="3">
         <v>-350100</v>

--- a/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11337700</v>
+        <v>11043200</v>
       </c>
       <c r="E8" s="3">
-        <v>11376000</v>
+        <v>11080500</v>
       </c>
       <c r="F8" s="3">
-        <v>12094700</v>
+        <v>11780500</v>
       </c>
       <c r="G8" s="3">
-        <v>10450800</v>
+        <v>10179300</v>
       </c>
       <c r="H8" s="3">
-        <v>9085000</v>
+        <v>8849000</v>
       </c>
       <c r="I8" s="3">
-        <v>8652000</v>
+        <v>8427200</v>
       </c>
       <c r="J8" s="3">
-        <v>8569900</v>
+        <v>8347300</v>
       </c>
       <c r="K8" s="3">
         <v>10130800</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-497200</v>
+        <v>-500500</v>
       </c>
       <c r="E15" s="3">
-        <v>-466200</v>
+        <v>-469200</v>
       </c>
       <c r="F15" s="3">
-        <v>-445700</v>
+        <v>-447300</v>
       </c>
       <c r="G15" s="3">
-        <v>-188900</v>
+        <v>-196700</v>
       </c>
       <c r="H15" s="3">
-        <v>-185100</v>
+        <v>-192400</v>
       </c>
       <c r="I15" s="3">
-        <v>-193800</v>
+        <v>-203400</v>
       </c>
       <c r="J15" s="3">
-        <v>-207100</v>
+        <v>-211600</v>
       </c>
       <c r="K15" s="3">
         <v>-262900</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3795800</v>
+        <v>3697200</v>
       </c>
       <c r="E17" s="3">
-        <v>4830600</v>
+        <v>4705100</v>
       </c>
       <c r="F17" s="3">
-        <v>5351600</v>
+        <v>5212600</v>
       </c>
       <c r="G17" s="3">
-        <v>4420000</v>
+        <v>4305200</v>
       </c>
       <c r="H17" s="3">
-        <v>3674700</v>
+        <v>3579200</v>
       </c>
       <c r="I17" s="3">
-        <v>3956700</v>
+        <v>3853900</v>
       </c>
       <c r="J17" s="3">
-        <v>4203000</v>
+        <v>4093900</v>
       </c>
       <c r="K17" s="3">
         <v>5220700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7541900</v>
+        <v>7346000</v>
       </c>
       <c r="E18" s="3">
-        <v>6545400</v>
+        <v>6375400</v>
       </c>
       <c r="F18" s="3">
-        <v>6743100</v>
+        <v>6568000</v>
       </c>
       <c r="G18" s="3">
-        <v>6030800</v>
+        <v>5874200</v>
       </c>
       <c r="H18" s="3">
-        <v>5410300</v>
+        <v>5269800</v>
       </c>
       <c r="I18" s="3">
-        <v>4695300</v>
+        <v>4573300</v>
       </c>
       <c r="J18" s="3">
-        <v>4366800</v>
+        <v>4253400</v>
       </c>
       <c r="K18" s="3">
         <v>4910100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3242500</v>
+        <v>-3158200</v>
       </c>
       <c r="E20" s="3">
-        <v>-2884900</v>
+        <v>-2810000</v>
       </c>
       <c r="F20" s="3">
-        <v>-2961200</v>
+        <v>-2884300</v>
       </c>
       <c r="G20" s="3">
-        <v>-2591500</v>
+        <v>-2524200</v>
       </c>
       <c r="H20" s="3">
-        <v>-2487200</v>
+        <v>-2422600</v>
       </c>
       <c r="I20" s="3">
-        <v>-2254000</v>
+        <v>-2195400</v>
       </c>
       <c r="J20" s="3">
-        <v>-1948600</v>
+        <v>-1898000</v>
       </c>
       <c r="K20" s="3">
         <v>-2501300</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5003500</v>
+        <v>4864800</v>
       </c>
       <c r="E21" s="3">
-        <v>4259900</v>
+        <v>4141800</v>
       </c>
       <c r="F21" s="3">
-        <v>4310000</v>
+        <v>4191500</v>
       </c>
       <c r="G21" s="3">
-        <v>3674800</v>
+        <v>3576400</v>
       </c>
       <c r="H21" s="3">
-        <v>3120700</v>
+        <v>3037200</v>
       </c>
       <c r="I21" s="3">
-        <v>2644000</v>
+        <v>2572800</v>
       </c>
       <c r="J21" s="3">
-        <v>2635800</v>
+        <v>2564600</v>
       </c>
       <c r="K21" s="3">
         <v>2671700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4299400</v>
+        <v>4187700</v>
       </c>
       <c r="E23" s="3">
-        <v>3660500</v>
+        <v>3565400</v>
       </c>
       <c r="F23" s="3">
-        <v>3781900</v>
+        <v>3683600</v>
       </c>
       <c r="G23" s="3">
-        <v>3439300</v>
+        <v>3350000</v>
       </c>
       <c r="H23" s="3">
-        <v>2923100</v>
+        <v>2847200</v>
       </c>
       <c r="I23" s="3">
-        <v>2441300</v>
+        <v>2377900</v>
       </c>
       <c r="J23" s="3">
-        <v>2418200</v>
+        <v>2355400</v>
       </c>
       <c r="K23" s="3">
         <v>2408800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1132700</v>
+        <v>1103300</v>
       </c>
       <c r="E24" s="3">
-        <v>967000</v>
+        <v>941800</v>
       </c>
       <c r="F24" s="3">
-        <v>977200</v>
+        <v>951800</v>
       </c>
       <c r="G24" s="3">
-        <v>976600</v>
+        <v>951300</v>
       </c>
       <c r="H24" s="3">
-        <v>653100</v>
+        <v>636100</v>
       </c>
       <c r="I24" s="3">
-        <v>266100</v>
+        <v>259200</v>
       </c>
       <c r="J24" s="3">
-        <v>534900</v>
+        <v>521000</v>
       </c>
       <c r="K24" s="3">
         <v>561100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3166700</v>
+        <v>3084500</v>
       </c>
       <c r="E26" s="3">
-        <v>2693500</v>
+        <v>2623600</v>
       </c>
       <c r="F26" s="3">
-        <v>2804600</v>
+        <v>2731800</v>
       </c>
       <c r="G26" s="3">
-        <v>2462700</v>
+        <v>2398700</v>
       </c>
       <c r="H26" s="3">
-        <v>2270100</v>
+        <v>2211100</v>
       </c>
       <c r="I26" s="3">
-        <v>2175200</v>
+        <v>2118700</v>
       </c>
       <c r="J26" s="3">
-        <v>1883400</v>
+        <v>1834500</v>
       </c>
       <c r="K26" s="3">
         <v>1847700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3005200</v>
+        <v>2927100</v>
       </c>
       <c r="E27" s="3">
-        <v>2563500</v>
+        <v>2497000</v>
       </c>
       <c r="F27" s="3">
-        <v>2573000</v>
+        <v>2506100</v>
       </c>
       <c r="G27" s="3">
-        <v>2399600</v>
+        <v>2337300</v>
       </c>
       <c r="H27" s="3">
-        <v>2233000</v>
+        <v>2175000</v>
       </c>
       <c r="I27" s="3">
-        <v>2094300</v>
+        <v>2039900</v>
       </c>
       <c r="J27" s="3">
-        <v>1748500</v>
+        <v>1703100</v>
       </c>
       <c r="K27" s="3">
         <v>1671000</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3242500</v>
+        <v>3158200</v>
       </c>
       <c r="E32" s="3">
-        <v>2884900</v>
+        <v>2810000</v>
       </c>
       <c r="F32" s="3">
-        <v>2961200</v>
+        <v>2884300</v>
       </c>
       <c r="G32" s="3">
-        <v>2591500</v>
+        <v>2524200</v>
       </c>
       <c r="H32" s="3">
-        <v>2487200</v>
+        <v>2422600</v>
       </c>
       <c r="I32" s="3">
-        <v>2254000</v>
+        <v>2195400</v>
       </c>
       <c r="J32" s="3">
-        <v>1948600</v>
+        <v>1898000</v>
       </c>
       <c r="K32" s="3">
         <v>2501300</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3005200</v>
+        <v>2927100</v>
       </c>
       <c r="E33" s="3">
-        <v>2563500</v>
+        <v>2497000</v>
       </c>
       <c r="F33" s="3">
-        <v>2573000</v>
+        <v>2506100</v>
       </c>
       <c r="G33" s="3">
-        <v>2399600</v>
+        <v>2337300</v>
       </c>
       <c r="H33" s="3">
-        <v>2233000</v>
+        <v>2175000</v>
       </c>
       <c r="I33" s="3">
-        <v>2094300</v>
+        <v>2039900</v>
       </c>
       <c r="J33" s="3">
-        <v>1748500</v>
+        <v>1703100</v>
       </c>
       <c r="K33" s="3">
         <v>1671000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3005200</v>
+        <v>2927100</v>
       </c>
       <c r="E35" s="3">
-        <v>2563500</v>
+        <v>2497000</v>
       </c>
       <c r="F35" s="3">
-        <v>2573000</v>
+        <v>2506100</v>
       </c>
       <c r="G35" s="3">
-        <v>2399600</v>
+        <v>2337300</v>
       </c>
       <c r="H35" s="3">
-        <v>2233000</v>
+        <v>2175000</v>
       </c>
       <c r="I35" s="3">
-        <v>2094300</v>
+        <v>2039900</v>
       </c>
       <c r="J35" s="3">
-        <v>1748500</v>
+        <v>1703100</v>
       </c>
       <c r="K35" s="3">
         <v>1671000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24873300</v>
+        <v>24227200</v>
       </c>
       <c r="E41" s="3">
-        <v>29955300</v>
+        <v>29177200</v>
       </c>
       <c r="F41" s="3">
-        <v>23914100</v>
+        <v>23293000</v>
       </c>
       <c r="G41" s="3">
-        <v>16119300</v>
+        <v>15700600</v>
       </c>
       <c r="H41" s="3">
-        <v>19741600</v>
+        <v>19228800</v>
       </c>
       <c r="I41" s="3">
-        <v>18411500</v>
+        <v>17933300</v>
       </c>
       <c r="J41" s="3">
-        <v>20541800</v>
+        <v>20008200</v>
       </c>
       <c r="K41" s="3">
         <v>21225800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>139348000</v>
+        <v>135729000</v>
       </c>
       <c r="E42" s="3">
-        <v>131150000</v>
+        <v>127743000</v>
       </c>
       <c r="F42" s="3">
-        <v>123936000</v>
+        <v>120717000</v>
       </c>
       <c r="G42" s="3">
-        <v>86332900</v>
+        <v>84090500</v>
       </c>
       <c r="H42" s="3">
-        <v>27291500</v>
+        <v>26582600</v>
       </c>
       <c r="I42" s="3">
-        <v>25498500</v>
+        <v>24836200</v>
       </c>
       <c r="J42" s="3">
-        <v>21465500</v>
+        <v>20908000</v>
       </c>
       <c r="K42" s="3">
         <v>24081000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2243600</v>
+        <v>2185300</v>
       </c>
       <c r="E47" s="3">
-        <v>2046500</v>
+        <v>1993300</v>
       </c>
       <c r="F47" s="3">
-        <v>1118700</v>
+        <v>1089600</v>
       </c>
       <c r="G47" s="3">
-        <v>516900</v>
+        <v>503500</v>
       </c>
       <c r="H47" s="3">
-        <v>486100</v>
+        <v>473500</v>
       </c>
       <c r="I47" s="3">
-        <v>272300</v>
+        <v>265200</v>
       </c>
       <c r="J47" s="3">
-        <v>302600</v>
+        <v>294800</v>
       </c>
       <c r="K47" s="3">
         <v>287200</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3635600</v>
+        <v>3541200</v>
       </c>
       <c r="E48" s="3">
-        <v>3545800</v>
+        <v>3453700</v>
       </c>
       <c r="F48" s="3">
-        <v>3520400</v>
+        <v>3429000</v>
       </c>
       <c r="G48" s="3">
-        <v>2678600</v>
+        <v>2609000</v>
       </c>
       <c r="H48" s="3">
-        <v>2648900</v>
+        <v>2580100</v>
       </c>
       <c r="I48" s="3">
-        <v>2694100</v>
+        <v>2624100</v>
       </c>
       <c r="J48" s="3">
-        <v>2513400</v>
+        <v>2448100</v>
       </c>
       <c r="K48" s="3">
         <v>2868400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4346500</v>
+        <v>4233600</v>
       </c>
       <c r="E49" s="3">
-        <v>4220100</v>
+        <v>4110500</v>
       </c>
       <c r="F49" s="3">
-        <v>4280200</v>
+        <v>4169000</v>
       </c>
       <c r="G49" s="3">
-        <v>3326500</v>
+        <v>3240100</v>
       </c>
       <c r="H49" s="3">
-        <v>3289400</v>
+        <v>3204000</v>
       </c>
       <c r="I49" s="3">
-        <v>3254400</v>
+        <v>3169900</v>
       </c>
       <c r="J49" s="3">
-        <v>3285100</v>
+        <v>3199800</v>
       </c>
       <c r="K49" s="3">
         <v>3488400</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>247400</v>
+        <v>241000</v>
       </c>
       <c r="E52" s="3">
-        <v>221800</v>
+        <v>216100</v>
       </c>
       <c r="F52" s="3">
-        <v>188700</v>
+        <v>183800</v>
       </c>
       <c r="G52" s="3">
-        <v>334600</v>
+        <v>325900</v>
       </c>
       <c r="H52" s="3">
-        <v>461900</v>
+        <v>449900</v>
       </c>
       <c r="I52" s="3">
-        <v>497400</v>
+        <v>484500</v>
       </c>
       <c r="J52" s="3">
-        <v>129100</v>
+        <v>125700</v>
       </c>
       <c r="K52" s="3">
         <v>199300</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>499077000</v>
+        <v>486114000</v>
       </c>
       <c r="E54" s="3">
-        <v>466030000</v>
+        <v>453926000</v>
       </c>
       <c r="F54" s="3">
-        <v>425363000</v>
+        <v>414315000</v>
       </c>
       <c r="G54" s="3">
-        <v>353892000</v>
+        <v>344700000</v>
       </c>
       <c r="H54" s="3">
-        <v>328255000</v>
+        <v>319729000</v>
       </c>
       <c r="I54" s="3">
-        <v>304674000</v>
+        <v>296760000</v>
       </c>
       <c r="J54" s="3">
-        <v>285322000</v>
+        <v>277911000</v>
       </c>
       <c r="K54" s="3">
         <v>283938000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12438300</v>
+        <v>12115300</v>
       </c>
       <c r="E57" s="3">
-        <v>15841500</v>
+        <v>15430100</v>
       </c>
       <c r="F57" s="3">
-        <v>10465300</v>
+        <v>10193400</v>
       </c>
       <c r="G57" s="3">
-        <v>8539300</v>
+        <v>8317500</v>
       </c>
       <c r="H57" s="3">
-        <v>8128400</v>
+        <v>7917300</v>
       </c>
       <c r="I57" s="3">
-        <v>6518700</v>
+        <v>6349400</v>
       </c>
       <c r="J57" s="3">
-        <v>8448700</v>
+        <v>8229200</v>
       </c>
       <c r="K57" s="3">
         <v>7152200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3086800</v>
+        <v>3006700</v>
       </c>
       <c r="E59" s="3">
-        <v>2676800</v>
+        <v>2607300</v>
       </c>
       <c r="F59" s="3">
-        <v>3116100</v>
+        <v>3035200</v>
       </c>
       <c r="G59" s="3">
-        <v>2885200</v>
+        <v>2810200</v>
       </c>
       <c r="H59" s="3">
-        <v>2602100</v>
+        <v>2534500</v>
       </c>
       <c r="I59" s="3">
-        <v>2400700</v>
+        <v>2338300</v>
       </c>
       <c r="J59" s="3">
-        <v>2297100</v>
+        <v>2237400</v>
       </c>
       <c r="K59" s="3">
         <v>2937900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>85990800</v>
+        <v>83757300</v>
       </c>
       <c r="E61" s="3">
-        <v>80454400</v>
+        <v>78364700</v>
       </c>
       <c r="F61" s="3">
-        <v>78162500</v>
+        <v>76132300</v>
       </c>
       <c r="G61" s="3">
-        <v>64673800</v>
+        <v>62993900</v>
       </c>
       <c r="H61" s="3">
-        <v>53130600</v>
+        <v>51750600</v>
       </c>
       <c r="I61" s="3">
-        <v>46504500</v>
+        <v>45296600</v>
       </c>
       <c r="J61" s="3">
-        <v>42862600</v>
+        <v>41749300</v>
       </c>
       <c r="K61" s="3">
         <v>31361100</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1073400</v>
+        <v>1045500</v>
       </c>
       <c r="E62" s="3">
-        <v>1114100</v>
+        <v>1085200</v>
       </c>
       <c r="F62" s="3">
-        <v>869900</v>
+        <v>847300</v>
       </c>
       <c r="G62" s="3">
-        <v>506500</v>
+        <v>493300</v>
       </c>
       <c r="H62" s="3">
-        <v>343300</v>
+        <v>334400</v>
       </c>
       <c r="I62" s="3">
-        <v>670200</v>
+        <v>652800</v>
       </c>
       <c r="J62" s="3">
-        <v>724600</v>
+        <v>705800</v>
       </c>
       <c r="K62" s="3">
         <v>851100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>462663000</v>
+        <v>450646000</v>
       </c>
       <c r="E66" s="3">
-        <v>432097000</v>
+        <v>420873000</v>
       </c>
       <c r="F66" s="3">
-        <v>395196000</v>
+        <v>384931000</v>
       </c>
       <c r="G66" s="3">
-        <v>326384000</v>
+        <v>317906000</v>
       </c>
       <c r="H66" s="3">
-        <v>302985000</v>
+        <v>295115000</v>
       </c>
       <c r="I66" s="3">
-        <v>280719000</v>
+        <v>273428000</v>
       </c>
       <c r="J66" s="3">
-        <v>261575000</v>
+        <v>254781000</v>
       </c>
       <c r="K66" s="3">
         <v>259424000</v>
@@ -2889,25 +2889,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>278300</v>
+        <v>271100</v>
       </c>
       <c r="E70" s="3">
-        <v>278300</v>
+        <v>271100</v>
       </c>
       <c r="F70" s="3">
-        <v>278300</v>
+        <v>271100</v>
       </c>
       <c r="G70" s="3">
-        <v>211000</v>
+        <v>205500</v>
       </c>
       <c r="H70" s="3">
-        <v>211000</v>
+        <v>205500</v>
       </c>
       <c r="I70" s="3">
-        <v>211000</v>
+        <v>205500</v>
       </c>
       <c r="J70" s="3">
-        <v>211000</v>
+        <v>205500</v>
       </c>
       <c r="K70" s="3">
         <v>230200</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23516800</v>
+        <v>22906000</v>
       </c>
       <c r="E72" s="3">
-        <v>21388400</v>
+        <v>20832900</v>
       </c>
       <c r="F72" s="3">
-        <v>19654900</v>
+        <v>19144400</v>
       </c>
       <c r="G72" s="3">
-        <v>17678800</v>
+        <v>17219600</v>
       </c>
       <c r="H72" s="3">
-        <v>16008800</v>
+        <v>15592900</v>
       </c>
       <c r="I72" s="3">
-        <v>14352800</v>
+        <v>13980000</v>
       </c>
       <c r="J72" s="3">
-        <v>13620600</v>
+        <v>13266900</v>
       </c>
       <c r="K72" s="3">
         <v>13330600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>36135900</v>
+        <v>35197300</v>
       </c>
       <c r="E76" s="3">
-        <v>33655300</v>
+        <v>32781100</v>
       </c>
       <c r="F76" s="3">
-        <v>29888700</v>
+        <v>29112400</v>
       </c>
       <c r="G76" s="3">
-        <v>27297700</v>
+        <v>26588700</v>
       </c>
       <c r="H76" s="3">
-        <v>25059700</v>
+        <v>24408900</v>
       </c>
       <c r="I76" s="3">
-        <v>23743500</v>
+        <v>23126800</v>
       </c>
       <c r="J76" s="3">
-        <v>23535500</v>
+        <v>22924200</v>
       </c>
       <c r="K76" s="3">
         <v>24284400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3005200</v>
+        <v>2927100</v>
       </c>
       <c r="E81" s="3">
-        <v>2563500</v>
+        <v>2497000</v>
       </c>
       <c r="F81" s="3">
-        <v>2573000</v>
+        <v>2506100</v>
       </c>
       <c r="G81" s="3">
-        <v>2399600</v>
+        <v>2337300</v>
       </c>
       <c r="H81" s="3">
-        <v>2233000</v>
+        <v>2175000</v>
       </c>
       <c r="I81" s="3">
-        <v>2094300</v>
+        <v>2039900</v>
       </c>
       <c r="J81" s="3">
-        <v>1748500</v>
+        <v>1703100</v>
       </c>
       <c r="K81" s="3">
         <v>1671000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>695100</v>
+        <v>677000</v>
       </c>
       <c r="E83" s="3">
-        <v>591700</v>
+        <v>576400</v>
       </c>
       <c r="F83" s="3">
-        <v>521400</v>
+        <v>507900</v>
       </c>
       <c r="G83" s="3">
-        <v>232500</v>
+        <v>226400</v>
       </c>
       <c r="H83" s="3">
-        <v>195100</v>
+        <v>190000</v>
       </c>
       <c r="I83" s="3">
-        <v>200200</v>
+        <v>195000</v>
       </c>
       <c r="J83" s="3">
-        <v>214700</v>
+        <v>209200</v>
       </c>
       <c r="K83" s="3">
         <v>262900</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8531700</v>
+        <v>8310100</v>
       </c>
       <c r="E89" s="3">
-        <v>-3395200</v>
+        <v>-3307000</v>
       </c>
       <c r="F89" s="3">
-        <v>5527900</v>
+        <v>5384300</v>
       </c>
       <c r="G89" s="3">
-        <v>-4866600</v>
+        <v>-4740100</v>
       </c>
       <c r="H89" s="3">
-        <v>786400</v>
+        <v>766000</v>
       </c>
       <c r="I89" s="3">
-        <v>2923800</v>
+        <v>2847900</v>
       </c>
       <c r="J89" s="3">
-        <v>2287100</v>
+        <v>2227700</v>
       </c>
       <c r="K89" s="3">
         <v>-1747700</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-257900</v>
+        <v>-251200</v>
       </c>
       <c r="E91" s="3">
-        <v>-215300</v>
+        <v>-209700</v>
       </c>
       <c r="F91" s="3">
-        <v>-208200</v>
+        <v>-202800</v>
       </c>
       <c r="G91" s="3">
-        <v>-110100</v>
+        <v>-107200</v>
       </c>
       <c r="H91" s="3">
-        <v>-119500</v>
+        <v>-116400</v>
       </c>
       <c r="I91" s="3">
-        <v>-194100</v>
+        <v>-189100</v>
       </c>
       <c r="J91" s="3">
-        <v>-96100</v>
+        <v>-93600</v>
       </c>
       <c r="K91" s="3">
         <v>-153000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9263500</v>
+        <v>-9022900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2330000</v>
+        <v>-2269400</v>
       </c>
       <c r="F94" s="3">
-        <v>-17469700</v>
+        <v>-17015900</v>
       </c>
       <c r="G94" s="3">
-        <v>-4244700</v>
+        <v>-4134400</v>
       </c>
       <c r="H94" s="3">
-        <v>-8241800</v>
+        <v>-8027700</v>
       </c>
       <c r="I94" s="3">
-        <v>-5847300</v>
+        <v>-5695400</v>
       </c>
       <c r="J94" s="3">
-        <v>-4072200</v>
+        <v>-3966400</v>
       </c>
       <c r="K94" s="3">
         <v>807100</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-938400</v>
+        <v>-914100</v>
       </c>
       <c r="E96" s="3">
-        <v>-746000</v>
+        <v>-726600</v>
       </c>
       <c r="F96" s="3">
-        <v>-639700</v>
+        <v>-623100</v>
       </c>
       <c r="G96" s="3">
-        <v>-550300</v>
+        <v>-536000</v>
       </c>
       <c r="H96" s="3">
-        <v>-544100</v>
+        <v>-529900</v>
       </c>
       <c r="I96" s="3">
-        <v>-515200</v>
+        <v>-501800</v>
       </c>
       <c r="J96" s="3">
-        <v>-420500</v>
+        <v>-409600</v>
       </c>
       <c r="K96" s="3">
         <v>-335800</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3820500</v>
+        <v>3721300</v>
       </c>
       <c r="E100" s="3">
-        <v>6068000</v>
+        <v>5910400</v>
       </c>
       <c r="F100" s="3">
-        <v>12226700</v>
+        <v>11909100</v>
       </c>
       <c r="G100" s="3">
-        <v>10631000</v>
+        <v>10354900</v>
       </c>
       <c r="H100" s="3">
-        <v>7956000</v>
+        <v>7749300</v>
       </c>
       <c r="I100" s="3">
-        <v>3730400</v>
+        <v>3633500</v>
       </c>
       <c r="J100" s="3">
-        <v>1010800</v>
+        <v>984600</v>
       </c>
       <c r="K100" s="3">
         <v>577000</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>84400</v>
+        <v>82200</v>
       </c>
       <c r="E101" s="3">
-        <v>-47400</v>
+        <v>-46100</v>
       </c>
       <c r="F101" s="3">
-        <v>22700</v>
+        <v>22100</v>
       </c>
       <c r="G101" s="3">
-        <v>-23600</v>
+        <v>-23000</v>
       </c>
       <c r="H101" s="3">
-        <v>-35400</v>
+        <v>-34500</v>
       </c>
       <c r="I101" s="3">
-        <v>-17400</v>
+        <v>-17000</v>
       </c>
       <c r="J101" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="K101" s="3">
         <v>13600</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3173100</v>
+        <v>3090700</v>
       </c>
       <c r="E102" s="3">
-        <v>295500</v>
+        <v>287900</v>
       </c>
       <c r="F102" s="3">
-        <v>307600</v>
+        <v>299600</v>
       </c>
       <c r="G102" s="3">
-        <v>1496200</v>
+        <v>1457300</v>
       </c>
       <c r="H102" s="3">
-        <v>465200</v>
+        <v>453100</v>
       </c>
       <c r="I102" s="3">
-        <v>789500</v>
+        <v>769000</v>
       </c>
       <c r="J102" s="3">
-        <v>-767800</v>
+        <v>-747900</v>
       </c>
       <c r="K102" s="3">
         <v>-350100</v>

--- a/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11043200</v>
+        <v>10895900</v>
       </c>
       <c r="E8" s="3">
-        <v>11080500</v>
+        <v>10932800</v>
       </c>
       <c r="F8" s="3">
-        <v>11780500</v>
+        <v>11623400</v>
       </c>
       <c r="G8" s="3">
-        <v>10179300</v>
+        <v>10043600</v>
       </c>
       <c r="H8" s="3">
-        <v>8849000</v>
+        <v>8731000</v>
       </c>
       <c r="I8" s="3">
-        <v>8427200</v>
+        <v>8314900</v>
       </c>
       <c r="J8" s="3">
-        <v>8347300</v>
+        <v>8236000</v>
       </c>
       <c r="K8" s="3">
         <v>10130800</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-500500</v>
+        <v>-493800</v>
       </c>
       <c r="E15" s="3">
-        <v>-469200</v>
+        <v>-463000</v>
       </c>
       <c r="F15" s="3">
-        <v>-447300</v>
+        <v>-441400</v>
       </c>
       <c r="G15" s="3">
-        <v>-196700</v>
+        <v>-194100</v>
       </c>
       <c r="H15" s="3">
-        <v>-192400</v>
+        <v>-189800</v>
       </c>
       <c r="I15" s="3">
-        <v>-203400</v>
+        <v>-200700</v>
       </c>
       <c r="J15" s="3">
-        <v>-211600</v>
+        <v>-208800</v>
       </c>
       <c r="K15" s="3">
         <v>-262900</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3697200</v>
+        <v>3647900</v>
       </c>
       <c r="E17" s="3">
-        <v>4705100</v>
+        <v>4642400</v>
       </c>
       <c r="F17" s="3">
-        <v>5212600</v>
+        <v>5143100</v>
       </c>
       <c r="G17" s="3">
-        <v>4305200</v>
+        <v>4247800</v>
       </c>
       <c r="H17" s="3">
-        <v>3579200</v>
+        <v>3531500</v>
       </c>
       <c r="I17" s="3">
-        <v>3853900</v>
+        <v>3802500</v>
       </c>
       <c r="J17" s="3">
-        <v>4093900</v>
+        <v>4039300</v>
       </c>
       <c r="K17" s="3">
         <v>5220700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7346000</v>
+        <v>7248000</v>
       </c>
       <c r="E18" s="3">
-        <v>6375400</v>
+        <v>6290400</v>
       </c>
       <c r="F18" s="3">
-        <v>6568000</v>
+        <v>6480400</v>
       </c>
       <c r="G18" s="3">
-        <v>5874200</v>
+        <v>5795800</v>
       </c>
       <c r="H18" s="3">
-        <v>5269800</v>
+        <v>5199500</v>
       </c>
       <c r="I18" s="3">
-        <v>4573300</v>
+        <v>4512300</v>
       </c>
       <c r="J18" s="3">
-        <v>4253400</v>
+        <v>4196700</v>
       </c>
       <c r="K18" s="3">
         <v>4910100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3158200</v>
+        <v>-3116100</v>
       </c>
       <c r="E20" s="3">
-        <v>-2810000</v>
+        <v>-2772500</v>
       </c>
       <c r="F20" s="3">
-        <v>-2884300</v>
+        <v>-2845900</v>
       </c>
       <c r="G20" s="3">
-        <v>-2524200</v>
+        <v>-2490500</v>
       </c>
       <c r="H20" s="3">
-        <v>-2422600</v>
+        <v>-2390300</v>
       </c>
       <c r="I20" s="3">
-        <v>-2195400</v>
+        <v>-2166200</v>
       </c>
       <c r="J20" s="3">
-        <v>-1898000</v>
+        <v>-1872700</v>
       </c>
       <c r="K20" s="3">
         <v>-2501300</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4864800</v>
+        <v>4790900</v>
       </c>
       <c r="E21" s="3">
-        <v>4141800</v>
+        <v>4078900</v>
       </c>
       <c r="F21" s="3">
-        <v>4191500</v>
+        <v>4128800</v>
       </c>
       <c r="G21" s="3">
-        <v>3576400</v>
+        <v>3525700</v>
       </c>
       <c r="H21" s="3">
-        <v>3037200</v>
+        <v>2994200</v>
       </c>
       <c r="I21" s="3">
-        <v>2572800</v>
+        <v>2535900</v>
       </c>
       <c r="J21" s="3">
-        <v>2564600</v>
+        <v>2527600</v>
       </c>
       <c r="K21" s="3">
         <v>2671700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4187700</v>
+        <v>4131900</v>
       </c>
       <c r="E23" s="3">
-        <v>3565400</v>
+        <v>3517900</v>
       </c>
       <c r="F23" s="3">
-        <v>3683600</v>
+        <v>3634500</v>
       </c>
       <c r="G23" s="3">
-        <v>3350000</v>
+        <v>3305300</v>
       </c>
       <c r="H23" s="3">
-        <v>2847200</v>
+        <v>2809200</v>
       </c>
       <c r="I23" s="3">
-        <v>2377900</v>
+        <v>2346100</v>
       </c>
       <c r="J23" s="3">
-        <v>2355400</v>
+        <v>2324000</v>
       </c>
       <c r="K23" s="3">
         <v>2408800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1103300</v>
+        <v>1088600</v>
       </c>
       <c r="E24" s="3">
-        <v>941800</v>
+        <v>929300</v>
       </c>
       <c r="F24" s="3">
-        <v>951800</v>
+        <v>939200</v>
       </c>
       <c r="G24" s="3">
-        <v>951300</v>
+        <v>938600</v>
       </c>
       <c r="H24" s="3">
-        <v>636100</v>
+        <v>627600</v>
       </c>
       <c r="I24" s="3">
-        <v>259200</v>
+        <v>255700</v>
       </c>
       <c r="J24" s="3">
-        <v>521000</v>
+        <v>514000</v>
       </c>
       <c r="K24" s="3">
         <v>561100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3084500</v>
+        <v>3043300</v>
       </c>
       <c r="E26" s="3">
-        <v>2623600</v>
+        <v>2588600</v>
       </c>
       <c r="F26" s="3">
-        <v>2731800</v>
+        <v>2695400</v>
       </c>
       <c r="G26" s="3">
-        <v>2398700</v>
+        <v>2366700</v>
       </c>
       <c r="H26" s="3">
-        <v>2211100</v>
+        <v>2181600</v>
       </c>
       <c r="I26" s="3">
-        <v>2118700</v>
+        <v>2090400</v>
       </c>
       <c r="J26" s="3">
-        <v>1834500</v>
+        <v>1810000</v>
       </c>
       <c r="K26" s="3">
         <v>1847700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2927100</v>
+        <v>2888100</v>
       </c>
       <c r="E27" s="3">
-        <v>2497000</v>
+        <v>2463700</v>
       </c>
       <c r="F27" s="3">
-        <v>2506100</v>
+        <v>2472700</v>
       </c>
       <c r="G27" s="3">
-        <v>2337300</v>
+        <v>2306100</v>
       </c>
       <c r="H27" s="3">
-        <v>2175000</v>
+        <v>2146000</v>
       </c>
       <c r="I27" s="3">
-        <v>2039900</v>
+        <v>2012700</v>
       </c>
       <c r="J27" s="3">
-        <v>1703100</v>
+        <v>1680400</v>
       </c>
       <c r="K27" s="3">
         <v>1671000</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3158200</v>
+        <v>3116100</v>
       </c>
       <c r="E32" s="3">
-        <v>2810000</v>
+        <v>2772500</v>
       </c>
       <c r="F32" s="3">
-        <v>2884300</v>
+        <v>2845900</v>
       </c>
       <c r="G32" s="3">
-        <v>2524200</v>
+        <v>2490500</v>
       </c>
       <c r="H32" s="3">
-        <v>2422600</v>
+        <v>2390300</v>
       </c>
       <c r="I32" s="3">
-        <v>2195400</v>
+        <v>2166200</v>
       </c>
       <c r="J32" s="3">
-        <v>1898000</v>
+        <v>1872700</v>
       </c>
       <c r="K32" s="3">
         <v>2501300</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2927100</v>
+        <v>2888100</v>
       </c>
       <c r="E33" s="3">
-        <v>2497000</v>
+        <v>2463700</v>
       </c>
       <c r="F33" s="3">
-        <v>2506100</v>
+        <v>2472700</v>
       </c>
       <c r="G33" s="3">
-        <v>2337300</v>
+        <v>2306100</v>
       </c>
       <c r="H33" s="3">
-        <v>2175000</v>
+        <v>2146000</v>
       </c>
       <c r="I33" s="3">
-        <v>2039900</v>
+        <v>2012700</v>
       </c>
       <c r="J33" s="3">
-        <v>1703100</v>
+        <v>1680400</v>
       </c>
       <c r="K33" s="3">
         <v>1671000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2927100</v>
+        <v>2888100</v>
       </c>
       <c r="E35" s="3">
-        <v>2497000</v>
+        <v>2463700</v>
       </c>
       <c r="F35" s="3">
-        <v>2506100</v>
+        <v>2472700</v>
       </c>
       <c r="G35" s="3">
-        <v>2337300</v>
+        <v>2306100</v>
       </c>
       <c r="H35" s="3">
-        <v>2175000</v>
+        <v>2146000</v>
       </c>
       <c r="I35" s="3">
-        <v>2039900</v>
+        <v>2012700</v>
       </c>
       <c r="J35" s="3">
-        <v>1703100</v>
+        <v>1680400</v>
       </c>
       <c r="K35" s="3">
         <v>1671000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24227200</v>
+        <v>23904200</v>
       </c>
       <c r="E41" s="3">
-        <v>29177200</v>
+        <v>28788200</v>
       </c>
       <c r="F41" s="3">
-        <v>23293000</v>
+        <v>22982400</v>
       </c>
       <c r="G41" s="3">
-        <v>15700600</v>
+        <v>15491300</v>
       </c>
       <c r="H41" s="3">
-        <v>19228800</v>
+        <v>18972400</v>
       </c>
       <c r="I41" s="3">
-        <v>17933300</v>
+        <v>17694100</v>
       </c>
       <c r="J41" s="3">
-        <v>20008200</v>
+        <v>19741400</v>
       </c>
       <c r="K41" s="3">
         <v>21225800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>135729000</v>
+        <v>133919000</v>
       </c>
       <c r="E42" s="3">
-        <v>127743000</v>
+        <v>126040000</v>
       </c>
       <c r="F42" s="3">
-        <v>120717000</v>
+        <v>119107000</v>
       </c>
       <c r="G42" s="3">
-        <v>84090500</v>
+        <v>82969300</v>
       </c>
       <c r="H42" s="3">
-        <v>26582600</v>
+        <v>26228200</v>
       </c>
       <c r="I42" s="3">
-        <v>24836200</v>
+        <v>24505000</v>
       </c>
       <c r="J42" s="3">
-        <v>20908000</v>
+        <v>20629200</v>
       </c>
       <c r="K42" s="3">
         <v>24081000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2185300</v>
+        <v>2156200</v>
       </c>
       <c r="E47" s="3">
-        <v>1993300</v>
+        <v>1966700</v>
       </c>
       <c r="F47" s="3">
-        <v>1089600</v>
+        <v>1075100</v>
       </c>
       <c r="G47" s="3">
-        <v>503500</v>
+        <v>496800</v>
       </c>
       <c r="H47" s="3">
-        <v>473500</v>
+        <v>467200</v>
       </c>
       <c r="I47" s="3">
-        <v>265200</v>
+        <v>261700</v>
       </c>
       <c r="J47" s="3">
-        <v>294800</v>
+        <v>290800</v>
       </c>
       <c r="K47" s="3">
         <v>287200</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3541200</v>
+        <v>3494000</v>
       </c>
       <c r="E48" s="3">
-        <v>3453700</v>
+        <v>3407600</v>
       </c>
       <c r="F48" s="3">
-        <v>3429000</v>
+        <v>3383200</v>
       </c>
       <c r="G48" s="3">
-        <v>2609000</v>
+        <v>2574200</v>
       </c>
       <c r="H48" s="3">
-        <v>2580100</v>
+        <v>2545700</v>
       </c>
       <c r="I48" s="3">
-        <v>2624100</v>
+        <v>2589100</v>
       </c>
       <c r="J48" s="3">
-        <v>2448100</v>
+        <v>2415500</v>
       </c>
       <c r="K48" s="3">
         <v>2868400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4233600</v>
+        <v>4177100</v>
       </c>
       <c r="E49" s="3">
-        <v>4110500</v>
+        <v>4055700</v>
       </c>
       <c r="F49" s="3">
-        <v>4169000</v>
+        <v>4113400</v>
       </c>
       <c r="G49" s="3">
-        <v>3240100</v>
+        <v>3196900</v>
       </c>
       <c r="H49" s="3">
-        <v>3204000</v>
+        <v>3161300</v>
       </c>
       <c r="I49" s="3">
-        <v>3169900</v>
+        <v>3127600</v>
       </c>
       <c r="J49" s="3">
-        <v>3199800</v>
+        <v>3157100</v>
       </c>
       <c r="K49" s="3">
         <v>3488400</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>241000</v>
+        <v>237700</v>
       </c>
       <c r="E52" s="3">
-        <v>216100</v>
+        <v>213200</v>
       </c>
       <c r="F52" s="3">
-        <v>183800</v>
+        <v>181400</v>
       </c>
       <c r="G52" s="3">
-        <v>325900</v>
+        <v>321600</v>
       </c>
       <c r="H52" s="3">
-        <v>449900</v>
+        <v>443900</v>
       </c>
       <c r="I52" s="3">
-        <v>484500</v>
+        <v>478000</v>
       </c>
       <c r="J52" s="3">
-        <v>125700</v>
+        <v>124000</v>
       </c>
       <c r="K52" s="3">
         <v>199300</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>486114000</v>
+        <v>479633000</v>
       </c>
       <c r="E54" s="3">
-        <v>453926000</v>
+        <v>447873000</v>
       </c>
       <c r="F54" s="3">
-        <v>414315000</v>
+        <v>408791000</v>
       </c>
       <c r="G54" s="3">
-        <v>344700000</v>
+        <v>340104000</v>
       </c>
       <c r="H54" s="3">
-        <v>319729000</v>
+        <v>315466000</v>
       </c>
       <c r="I54" s="3">
-        <v>296760000</v>
+        <v>292803000</v>
       </c>
       <c r="J54" s="3">
-        <v>277911000</v>
+        <v>274206000</v>
       </c>
       <c r="K54" s="3">
         <v>283938000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12115300</v>
+        <v>11953700</v>
       </c>
       <c r="E57" s="3">
-        <v>15430100</v>
+        <v>15224300</v>
       </c>
       <c r="F57" s="3">
-        <v>10193400</v>
+        <v>10057500</v>
       </c>
       <c r="G57" s="3">
-        <v>8317500</v>
+        <v>8206600</v>
       </c>
       <c r="H57" s="3">
-        <v>7917300</v>
+        <v>7811700</v>
       </c>
       <c r="I57" s="3">
-        <v>6349400</v>
+        <v>6264700</v>
       </c>
       <c r="J57" s="3">
-        <v>8229200</v>
+        <v>8119500</v>
       </c>
       <c r="K57" s="3">
         <v>7152200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3006700</v>
+        <v>2966600</v>
       </c>
       <c r="E59" s="3">
-        <v>2607300</v>
+        <v>2572500</v>
       </c>
       <c r="F59" s="3">
-        <v>3035200</v>
+        <v>2994700</v>
       </c>
       <c r="G59" s="3">
-        <v>2810200</v>
+        <v>2772800</v>
       </c>
       <c r="H59" s="3">
-        <v>2534500</v>
+        <v>2500700</v>
       </c>
       <c r="I59" s="3">
-        <v>2338300</v>
+        <v>2307100</v>
       </c>
       <c r="J59" s="3">
-        <v>2237400</v>
+        <v>2207600</v>
       </c>
       <c r="K59" s="3">
         <v>2937900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>83757300</v>
+        <v>82640500</v>
       </c>
       <c r="E61" s="3">
-        <v>78364700</v>
+        <v>77319900</v>
       </c>
       <c r="F61" s="3">
-        <v>76132300</v>
+        <v>75117200</v>
       </c>
       <c r="G61" s="3">
-        <v>62993900</v>
+        <v>62154000</v>
       </c>
       <c r="H61" s="3">
-        <v>51750600</v>
+        <v>51060600</v>
       </c>
       <c r="I61" s="3">
-        <v>45296600</v>
+        <v>44692700</v>
       </c>
       <c r="J61" s="3">
-        <v>41749300</v>
+        <v>41192600</v>
       </c>
       <c r="K61" s="3">
         <v>31361100</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1045500</v>
+        <v>1031600</v>
       </c>
       <c r="E62" s="3">
-        <v>1085200</v>
+        <v>1070700</v>
       </c>
       <c r="F62" s="3">
-        <v>847300</v>
+        <v>836000</v>
       </c>
       <c r="G62" s="3">
-        <v>493300</v>
+        <v>486800</v>
       </c>
       <c r="H62" s="3">
-        <v>334400</v>
+        <v>329900</v>
       </c>
       <c r="I62" s="3">
-        <v>652800</v>
+        <v>644100</v>
       </c>
       <c r="J62" s="3">
-        <v>705800</v>
+        <v>696400</v>
       </c>
       <c r="K62" s="3">
         <v>851100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>450646000</v>
+        <v>444637000</v>
       </c>
       <c r="E66" s="3">
-        <v>420873000</v>
+        <v>415262000</v>
       </c>
       <c r="F66" s="3">
-        <v>384931000</v>
+        <v>379799000</v>
       </c>
       <c r="G66" s="3">
-        <v>317906000</v>
+        <v>313667000</v>
       </c>
       <c r="H66" s="3">
-        <v>295115000</v>
+        <v>291180000</v>
       </c>
       <c r="I66" s="3">
-        <v>273428000</v>
+        <v>269782000</v>
       </c>
       <c r="J66" s="3">
-        <v>254781000</v>
+        <v>251384000</v>
       </c>
       <c r="K66" s="3">
         <v>259424000</v>
@@ -2889,25 +2889,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>271100</v>
+        <v>267500</v>
       </c>
       <c r="E70" s="3">
-        <v>271100</v>
+        <v>267500</v>
       </c>
       <c r="F70" s="3">
-        <v>271100</v>
+        <v>267500</v>
       </c>
       <c r="G70" s="3">
-        <v>205500</v>
+        <v>202800</v>
       </c>
       <c r="H70" s="3">
-        <v>205500</v>
+        <v>202800</v>
       </c>
       <c r="I70" s="3">
-        <v>205500</v>
+        <v>202800</v>
       </c>
       <c r="J70" s="3">
-        <v>205500</v>
+        <v>202800</v>
       </c>
       <c r="K70" s="3">
         <v>230200</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22906000</v>
+        <v>22600600</v>
       </c>
       <c r="E72" s="3">
-        <v>20832900</v>
+        <v>20555100</v>
       </c>
       <c r="F72" s="3">
-        <v>19144400</v>
+        <v>18889100</v>
       </c>
       <c r="G72" s="3">
-        <v>17219600</v>
+        <v>16990000</v>
       </c>
       <c r="H72" s="3">
-        <v>15592900</v>
+        <v>15385000</v>
       </c>
       <c r="I72" s="3">
-        <v>13980000</v>
+        <v>13793600</v>
       </c>
       <c r="J72" s="3">
-        <v>13266900</v>
+        <v>13090000</v>
       </c>
       <c r="K72" s="3">
         <v>13330600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>35197300</v>
+        <v>34728000</v>
       </c>
       <c r="E76" s="3">
-        <v>32781100</v>
+        <v>32344000</v>
       </c>
       <c r="F76" s="3">
-        <v>29112400</v>
+        <v>28724200</v>
       </c>
       <c r="G76" s="3">
-        <v>26588700</v>
+        <v>26234200</v>
       </c>
       <c r="H76" s="3">
-        <v>24408900</v>
+        <v>24083400</v>
       </c>
       <c r="I76" s="3">
-        <v>23126800</v>
+        <v>22818400</v>
       </c>
       <c r="J76" s="3">
-        <v>22924200</v>
+        <v>22618500</v>
       </c>
       <c r="K76" s="3">
         <v>24284400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2927100</v>
+        <v>2888100</v>
       </c>
       <c r="E81" s="3">
-        <v>2497000</v>
+        <v>2463700</v>
       </c>
       <c r="F81" s="3">
-        <v>2506100</v>
+        <v>2472700</v>
       </c>
       <c r="G81" s="3">
-        <v>2337300</v>
+        <v>2306100</v>
       </c>
       <c r="H81" s="3">
-        <v>2175000</v>
+        <v>2146000</v>
       </c>
       <c r="I81" s="3">
-        <v>2039900</v>
+        <v>2012700</v>
       </c>
       <c r="J81" s="3">
-        <v>1703100</v>
+        <v>1680400</v>
       </c>
       <c r="K81" s="3">
         <v>1671000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>677000</v>
+        <v>668000</v>
       </c>
       <c r="E83" s="3">
-        <v>576400</v>
+        <v>568700</v>
       </c>
       <c r="F83" s="3">
-        <v>507900</v>
+        <v>501100</v>
       </c>
       <c r="G83" s="3">
-        <v>226400</v>
+        <v>223400</v>
       </c>
       <c r="H83" s="3">
-        <v>190000</v>
+        <v>187500</v>
       </c>
       <c r="I83" s="3">
-        <v>195000</v>
+        <v>192400</v>
       </c>
       <c r="J83" s="3">
-        <v>209200</v>
+        <v>206400</v>
       </c>
       <c r="K83" s="3">
         <v>262900</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8310100</v>
+        <v>8199300</v>
       </c>
       <c r="E89" s="3">
-        <v>-3307000</v>
+        <v>-3262900</v>
       </c>
       <c r="F89" s="3">
-        <v>5384300</v>
+        <v>5312500</v>
       </c>
       <c r="G89" s="3">
-        <v>-4740100</v>
+        <v>-4676900</v>
       </c>
       <c r="H89" s="3">
-        <v>766000</v>
+        <v>755800</v>
       </c>
       <c r="I89" s="3">
-        <v>2847900</v>
+        <v>2809900</v>
       </c>
       <c r="J89" s="3">
-        <v>2227700</v>
+        <v>2198000</v>
       </c>
       <c r="K89" s="3">
         <v>-1747700</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-251200</v>
+        <v>-247800</v>
       </c>
       <c r="E91" s="3">
-        <v>-209700</v>
+        <v>-206900</v>
       </c>
       <c r="F91" s="3">
-        <v>-202800</v>
+        <v>-200100</v>
       </c>
       <c r="G91" s="3">
-        <v>-107200</v>
+        <v>-105800</v>
       </c>
       <c r="H91" s="3">
-        <v>-116400</v>
+        <v>-114800</v>
       </c>
       <c r="I91" s="3">
-        <v>-189100</v>
+        <v>-186500</v>
       </c>
       <c r="J91" s="3">
-        <v>-93600</v>
+        <v>-92400</v>
       </c>
       <c r="K91" s="3">
         <v>-153000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9022900</v>
+        <v>-8902600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2269400</v>
+        <v>-2239200</v>
       </c>
       <c r="F94" s="3">
-        <v>-17015900</v>
+        <v>-16789000</v>
       </c>
       <c r="G94" s="3">
-        <v>-4134400</v>
+        <v>-4079300</v>
       </c>
       <c r="H94" s="3">
-        <v>-8027700</v>
+        <v>-7920700</v>
       </c>
       <c r="I94" s="3">
-        <v>-5695400</v>
+        <v>-5619500</v>
       </c>
       <c r="J94" s="3">
-        <v>-3966400</v>
+        <v>-3913600</v>
       </c>
       <c r="K94" s="3">
         <v>807100</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-914100</v>
+        <v>-901900</v>
       </c>
       <c r="E96" s="3">
-        <v>-726600</v>
+        <v>-716900</v>
       </c>
       <c r="F96" s="3">
-        <v>-623100</v>
+        <v>-614800</v>
       </c>
       <c r="G96" s="3">
-        <v>-536000</v>
+        <v>-528900</v>
       </c>
       <c r="H96" s="3">
-        <v>-529900</v>
+        <v>-522900</v>
       </c>
       <c r="I96" s="3">
-        <v>-501800</v>
+        <v>-495100</v>
       </c>
       <c r="J96" s="3">
-        <v>-409600</v>
+        <v>-404200</v>
       </c>
       <c r="K96" s="3">
         <v>-335800</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3721300</v>
+        <v>3671700</v>
       </c>
       <c r="E100" s="3">
-        <v>5910400</v>
+        <v>5831600</v>
       </c>
       <c r="F100" s="3">
-        <v>11909100</v>
+        <v>11750300</v>
       </c>
       <c r="G100" s="3">
-        <v>10354900</v>
+        <v>10216800</v>
       </c>
       <c r="H100" s="3">
-        <v>7749300</v>
+        <v>7646000</v>
       </c>
       <c r="I100" s="3">
-        <v>3633500</v>
+        <v>3585000</v>
       </c>
       <c r="J100" s="3">
-        <v>984600</v>
+        <v>971400</v>
       </c>
       <c r="K100" s="3">
         <v>577000</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>82200</v>
+        <v>81100</v>
       </c>
       <c r="E101" s="3">
-        <v>-46100</v>
+        <v>-45500</v>
       </c>
       <c r="F101" s="3">
-        <v>22100</v>
+        <v>21800</v>
       </c>
       <c r="G101" s="3">
-        <v>-23000</v>
+        <v>-22700</v>
       </c>
       <c r="H101" s="3">
-        <v>-34500</v>
+        <v>-34100</v>
       </c>
       <c r="I101" s="3">
-        <v>-17000</v>
+        <v>-16800</v>
       </c>
       <c r="J101" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="K101" s="3">
         <v>13600</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3090700</v>
+        <v>3049500</v>
       </c>
       <c r="E102" s="3">
-        <v>287900</v>
+        <v>284000</v>
       </c>
       <c r="F102" s="3">
-        <v>299600</v>
+        <v>295600</v>
       </c>
       <c r="G102" s="3">
-        <v>1457300</v>
+        <v>1437900</v>
       </c>
       <c r="H102" s="3">
-        <v>453100</v>
+        <v>447000</v>
       </c>
       <c r="I102" s="3">
-        <v>769000</v>
+        <v>758700</v>
       </c>
       <c r="J102" s="3">
-        <v>-747900</v>
+        <v>-737900</v>
       </c>
       <c r="K102" s="3">
         <v>-350100</v>

--- a/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>SHG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,105 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10895900</v>
+        <v>15081500</v>
       </c>
       <c r="E8" s="3">
-        <v>10932800</v>
+        <v>11043200</v>
       </c>
       <c r="F8" s="3">
-        <v>11623400</v>
+        <v>11080500</v>
       </c>
       <c r="G8" s="3">
-        <v>10043600</v>
+        <v>11780500</v>
       </c>
       <c r="H8" s="3">
-        <v>8731000</v>
+        <v>10179300</v>
       </c>
       <c r="I8" s="3">
-        <v>8314900</v>
+        <v>8849000</v>
       </c>
       <c r="J8" s="3">
+        <v>8427200</v>
+      </c>
+      <c r="K8" s="3">
         <v>8236000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10130800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11455100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11758400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12402600</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,9 +800,12 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,9 +842,12 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,48 +986,54 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-493800</v>
+        <v>-540500</v>
       </c>
       <c r="E15" s="3">
-        <v>-463000</v>
+        <v>-500500</v>
       </c>
       <c r="F15" s="3">
-        <v>-441400</v>
+        <v>-469200</v>
       </c>
       <c r="G15" s="3">
-        <v>-194100</v>
+        <v>-447300</v>
       </c>
       <c r="H15" s="3">
-        <v>-189800</v>
+        <v>-196700</v>
       </c>
       <c r="I15" s="3">
-        <v>-200700</v>
+        <v>-192400</v>
       </c>
       <c r="J15" s="3">
+        <v>-203400</v>
+      </c>
+      <c r="K15" s="3">
         <v>-208800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-262900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-291000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-257500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-269100</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3647900</v>
+        <v>6703000</v>
       </c>
       <c r="E17" s="3">
-        <v>4642400</v>
+        <v>3697200</v>
       </c>
       <c r="F17" s="3">
-        <v>5143100</v>
+        <v>4705100</v>
       </c>
       <c r="G17" s="3">
-        <v>4247800</v>
+        <v>5212600</v>
       </c>
       <c r="H17" s="3">
-        <v>3531500</v>
+        <v>4305200</v>
       </c>
       <c r="I17" s="3">
-        <v>3802500</v>
+        <v>3579200</v>
       </c>
       <c r="J17" s="3">
+        <v>3853900</v>
+      </c>
+      <c r="K17" s="3">
         <v>4039300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5220700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6470200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7000400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6837100</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7248000</v>
+        <v>8378500</v>
       </c>
       <c r="E18" s="3">
-        <v>6290400</v>
+        <v>7346000</v>
       </c>
       <c r="F18" s="3">
-        <v>6480400</v>
+        <v>6375400</v>
       </c>
       <c r="G18" s="3">
-        <v>5795800</v>
+        <v>6568000</v>
       </c>
       <c r="H18" s="3">
-        <v>5199500</v>
+        <v>5874200</v>
       </c>
       <c r="I18" s="3">
-        <v>4512300</v>
+        <v>5269800</v>
       </c>
       <c r="J18" s="3">
+        <v>4573300</v>
+      </c>
+      <c r="K18" s="3">
         <v>4196700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4910100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4984900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4758100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5565600</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,86 +1148,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3116100</v>
+        <v>-3616600</v>
       </c>
       <c r="E20" s="3">
-        <v>-2772500</v>
+        <v>-3158200</v>
       </c>
       <c r="F20" s="3">
-        <v>-2845900</v>
+        <v>-2810000</v>
       </c>
       <c r="G20" s="3">
-        <v>-2490500</v>
+        <v>-2884300</v>
       </c>
       <c r="H20" s="3">
-        <v>-2390300</v>
+        <v>-2524200</v>
       </c>
       <c r="I20" s="3">
-        <v>-2166200</v>
+        <v>-2422600</v>
       </c>
       <c r="J20" s="3">
+        <v>-2195400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1872700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2501300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2544200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2044300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1656200</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4790900</v>
+        <v>5562800</v>
       </c>
       <c r="E21" s="3">
-        <v>4078900</v>
+        <v>4873800</v>
       </c>
       <c r="F21" s="3">
-        <v>4128800</v>
+        <v>4149500</v>
       </c>
       <c r="G21" s="3">
-        <v>3525700</v>
+        <v>4198300</v>
       </c>
       <c r="H21" s="3">
-        <v>2994200</v>
+        <v>3579400</v>
       </c>
       <c r="I21" s="3">
-        <v>2535900</v>
+        <v>3039700</v>
       </c>
       <c r="J21" s="3">
+        <v>2575400</v>
+      </c>
+      <c r="K21" s="3">
         <v>2527600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2671700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2728500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2967700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4165500</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1232,87 +1271,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4131900</v>
+        <v>4761900</v>
       </c>
       <c r="E23" s="3">
-        <v>3517900</v>
+        <v>4187700</v>
       </c>
       <c r="F23" s="3">
-        <v>3634500</v>
+        <v>3565400</v>
       </c>
       <c r="G23" s="3">
-        <v>3305300</v>
+        <v>3683600</v>
       </c>
       <c r="H23" s="3">
-        <v>2809200</v>
+        <v>3350000</v>
       </c>
       <c r="I23" s="3">
-        <v>2346100</v>
+        <v>2847200</v>
       </c>
       <c r="J23" s="3">
+        <v>2377900</v>
+      </c>
+      <c r="K23" s="3">
         <v>2324000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2408800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2440700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2713700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3909400</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1088600</v>
+        <v>1212800</v>
       </c>
       <c r="E24" s="3">
-        <v>929300</v>
+        <v>1103300</v>
       </c>
       <c r="F24" s="3">
-        <v>939200</v>
+        <v>941800</v>
       </c>
       <c r="G24" s="3">
-        <v>938600</v>
+        <v>951800</v>
       </c>
       <c r="H24" s="3">
-        <v>627600</v>
+        <v>951300</v>
       </c>
       <c r="I24" s="3">
-        <v>255700</v>
+        <v>636100</v>
       </c>
       <c r="J24" s="3">
+        <v>259200</v>
+      </c>
+      <c r="K24" s="3">
         <v>514000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>561100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>566500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>620500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>860900</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3043300</v>
+        <v>3549100</v>
       </c>
       <c r="E26" s="3">
-        <v>2588600</v>
+        <v>3084500</v>
       </c>
       <c r="F26" s="3">
-        <v>2695400</v>
+        <v>2623600</v>
       </c>
       <c r="G26" s="3">
-        <v>2366700</v>
+        <v>2731800</v>
       </c>
       <c r="H26" s="3">
-        <v>2181600</v>
+        <v>2398700</v>
       </c>
       <c r="I26" s="3">
-        <v>2090400</v>
+        <v>2211100</v>
       </c>
       <c r="J26" s="3">
+        <v>2118700</v>
+      </c>
+      <c r="K26" s="3">
         <v>1810000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1847700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1874200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2093200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3048500</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2888100</v>
+        <v>3364500</v>
       </c>
       <c r="E27" s="3">
-        <v>2463700</v>
+        <v>2927100</v>
       </c>
       <c r="F27" s="3">
-        <v>2472700</v>
+        <v>2497000</v>
       </c>
       <c r="G27" s="3">
-        <v>2306100</v>
+        <v>2506100</v>
       </c>
       <c r="H27" s="3">
-        <v>2146000</v>
+        <v>2337300</v>
       </c>
       <c r="I27" s="3">
-        <v>2012700</v>
+        <v>2175000</v>
       </c>
       <c r="J27" s="3">
+        <v>2039900</v>
+      </c>
+      <c r="K27" s="3">
         <v>1680400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1671000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1647900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1865700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2643900</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3116100</v>
+        <v>3616600</v>
       </c>
       <c r="E32" s="3">
-        <v>2772500</v>
+        <v>3158200</v>
       </c>
       <c r="F32" s="3">
-        <v>2845900</v>
+        <v>2810000</v>
       </c>
       <c r="G32" s="3">
-        <v>2490500</v>
+        <v>2884300</v>
       </c>
       <c r="H32" s="3">
-        <v>2390300</v>
+        <v>2524200</v>
       </c>
       <c r="I32" s="3">
-        <v>2166200</v>
+        <v>2422600</v>
       </c>
       <c r="J32" s="3">
+        <v>2195400</v>
+      </c>
+      <c r="K32" s="3">
         <v>1872700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2501300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2544200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2044300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1656200</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2888100</v>
+        <v>3364500</v>
       </c>
       <c r="E33" s="3">
-        <v>2463700</v>
+        <v>2927100</v>
       </c>
       <c r="F33" s="3">
-        <v>2472700</v>
+        <v>2497000</v>
       </c>
       <c r="G33" s="3">
-        <v>2306100</v>
+        <v>2506100</v>
       </c>
       <c r="H33" s="3">
-        <v>2146000</v>
+        <v>2337300</v>
       </c>
       <c r="I33" s="3">
-        <v>2012700</v>
+        <v>2175000</v>
       </c>
       <c r="J33" s="3">
+        <v>2039900</v>
+      </c>
+      <c r="K33" s="3">
         <v>1680400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1671000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1647900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1865700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2643900</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2888100</v>
+        <v>3364500</v>
       </c>
       <c r="E35" s="3">
-        <v>2463700</v>
+        <v>2927100</v>
       </c>
       <c r="F35" s="3">
-        <v>2472700</v>
+        <v>2497000</v>
       </c>
       <c r="G35" s="3">
-        <v>2306100</v>
+        <v>2506100</v>
       </c>
       <c r="H35" s="3">
-        <v>2146000</v>
+        <v>2337300</v>
       </c>
       <c r="I35" s="3">
-        <v>2012700</v>
+        <v>2175000</v>
       </c>
       <c r="J35" s="3">
+        <v>2039900</v>
+      </c>
+      <c r="K35" s="3">
         <v>1680400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1671000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1647900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1865700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2643900</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,86 +1903,93 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>23904200</v>
+        <v>27720800</v>
       </c>
       <c r="E41" s="3">
-        <v>28788200</v>
+        <v>24227200</v>
       </c>
       <c r="F41" s="3">
-        <v>22982400</v>
+        <v>29177200</v>
       </c>
       <c r="G41" s="3">
-        <v>15491300</v>
+        <v>23293000</v>
       </c>
       <c r="H41" s="3">
-        <v>18972400</v>
+        <v>15700600</v>
       </c>
       <c r="I41" s="3">
-        <v>17694100</v>
+        <v>19228800</v>
       </c>
       <c r="J41" s="3">
+        <v>17933300</v>
+      </c>
+      <c r="K41" s="3">
         <v>19741400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21225800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20543500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21492900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6880200</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>133919000</v>
+        <v>138554000</v>
       </c>
       <c r="E42" s="3">
-        <v>126040000</v>
+        <v>135729000</v>
       </c>
       <c r="F42" s="3">
-        <v>119107000</v>
+        <v>127743000</v>
       </c>
       <c r="G42" s="3">
-        <v>82969300</v>
+        <v>120717000</v>
       </c>
       <c r="H42" s="3">
-        <v>26228200</v>
+        <v>84090500</v>
       </c>
       <c r="I42" s="3">
-        <v>24505000</v>
+        <v>26582600</v>
       </c>
       <c r="J42" s="3">
+        <v>24836200</v>
+      </c>
+      <c r="K42" s="3">
         <v>20629200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>24081000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>21031500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>36475400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>19224100</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1934,9 +2026,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,9 +2068,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2012,9 +2110,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2051,126 +2152,138 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2156200</v>
+        <v>2178400</v>
       </c>
       <c r="E47" s="3">
-        <v>1966700</v>
+        <v>2185300</v>
       </c>
       <c r="F47" s="3">
-        <v>1075100</v>
+        <v>1993300</v>
       </c>
       <c r="G47" s="3">
-        <v>496800</v>
+        <v>1089600</v>
       </c>
       <c r="H47" s="3">
-        <v>467200</v>
+        <v>503500</v>
       </c>
       <c r="I47" s="3">
-        <v>261700</v>
+        <v>473500</v>
       </c>
       <c r="J47" s="3">
+        <v>265200</v>
+      </c>
+      <c r="K47" s="3">
         <v>290800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>287200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>299000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>250800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>224000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3494000</v>
+        <v>3280700</v>
       </c>
       <c r="E48" s="3">
-        <v>3407600</v>
+        <v>3541200</v>
       </c>
       <c r="F48" s="3">
-        <v>3383200</v>
+        <v>3453700</v>
       </c>
       <c r="G48" s="3">
-        <v>2574200</v>
+        <v>3429000</v>
       </c>
       <c r="H48" s="3">
-        <v>2545700</v>
+        <v>2609000</v>
       </c>
       <c r="I48" s="3">
-        <v>2589100</v>
+        <v>2580100</v>
       </c>
       <c r="J48" s="3">
+        <v>2624100</v>
+      </c>
+      <c r="K48" s="3">
         <v>2415500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2868400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3553100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2048700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2942100</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4177100</v>
+        <v>4355900</v>
       </c>
       <c r="E49" s="3">
-        <v>4055700</v>
+        <v>4233600</v>
       </c>
       <c r="F49" s="3">
-        <v>4113400</v>
+        <v>4110500</v>
       </c>
       <c r="G49" s="3">
-        <v>3196900</v>
+        <v>4169000</v>
       </c>
       <c r="H49" s="3">
-        <v>3161300</v>
+        <v>3240100</v>
       </c>
       <c r="I49" s="3">
-        <v>3127600</v>
+        <v>3204000</v>
       </c>
       <c r="J49" s="3">
+        <v>3169900</v>
+      </c>
+      <c r="K49" s="3">
         <v>3157100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3488400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3846000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3829000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3783100</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>237700</v>
+        <v>1275900</v>
       </c>
       <c r="E52" s="3">
-        <v>213200</v>
+        <v>241000</v>
       </c>
       <c r="F52" s="3">
-        <v>181400</v>
+        <v>216100</v>
       </c>
       <c r="G52" s="3">
-        <v>321600</v>
+        <v>183800</v>
       </c>
       <c r="H52" s="3">
-        <v>443900</v>
+        <v>325900</v>
       </c>
       <c r="I52" s="3">
-        <v>478000</v>
+        <v>449900</v>
       </c>
       <c r="J52" s="3">
+        <v>484500</v>
+      </c>
+      <c r="K52" s="3">
         <v>124000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>199300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>399700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>129700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>26300</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>479633000</v>
+        <v>506913000</v>
       </c>
       <c r="E54" s="3">
-        <v>447873000</v>
+        <v>486114000</v>
       </c>
       <c r="F54" s="3">
-        <v>408791000</v>
+        <v>453926000</v>
       </c>
       <c r="G54" s="3">
-        <v>340104000</v>
+        <v>414315000</v>
       </c>
       <c r="H54" s="3">
-        <v>315466000</v>
+        <v>344700000</v>
       </c>
       <c r="I54" s="3">
-        <v>292803000</v>
+        <v>319729000</v>
       </c>
       <c r="J54" s="3">
+        <v>296760000</v>
+      </c>
+      <c r="K54" s="3">
         <v>274206000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>283938000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>283274000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>256149000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>259238000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,47 +2527,51 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11953700</v>
+        <v>11340400</v>
       </c>
       <c r="E57" s="3">
-        <v>15224300</v>
+        <v>12115300</v>
       </c>
       <c r="F57" s="3">
-        <v>10057500</v>
+        <v>15430100</v>
       </c>
       <c r="G57" s="3">
-        <v>8206600</v>
+        <v>10193400</v>
       </c>
       <c r="H57" s="3">
-        <v>7811700</v>
+        <v>8317500</v>
       </c>
       <c r="I57" s="3">
-        <v>6264700</v>
+        <v>7917300</v>
       </c>
       <c r="J57" s="3">
+        <v>6349400</v>
+      </c>
+      <c r="K57" s="3">
         <v>8119500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7152200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5536200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12956700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6784100</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2475,48 +2608,54 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2966600</v>
+        <v>3865300</v>
       </c>
       <c r="E59" s="3">
-        <v>2572500</v>
+        <v>3006700</v>
       </c>
       <c r="F59" s="3">
-        <v>2994700</v>
+        <v>2607300</v>
       </c>
       <c r="G59" s="3">
-        <v>2772800</v>
+        <v>3035200</v>
       </c>
       <c r="H59" s="3">
-        <v>2500700</v>
+        <v>2810200</v>
       </c>
       <c r="I59" s="3">
-        <v>2307100</v>
+        <v>2534500</v>
       </c>
       <c r="J59" s="3">
+        <v>2338300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2207600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2937900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3248200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6317900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3833300</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2553,87 +2692,96 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>82640500</v>
+        <v>87266600</v>
       </c>
       <c r="E61" s="3">
-        <v>77319900</v>
+        <v>83757300</v>
       </c>
       <c r="F61" s="3">
-        <v>75117200</v>
+        <v>78364700</v>
       </c>
       <c r="G61" s="3">
-        <v>62154000</v>
+        <v>76132300</v>
       </c>
       <c r="H61" s="3">
-        <v>51060600</v>
+        <v>62993900</v>
       </c>
       <c r="I61" s="3">
-        <v>44692700</v>
+        <v>51750600</v>
       </c>
       <c r="J61" s="3">
+        <v>45296600</v>
+      </c>
+      <c r="K61" s="3">
         <v>41192600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>31361100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>34117200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>32624300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>53793200</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1031600</v>
+        <v>1088200</v>
       </c>
       <c r="E62" s="3">
-        <v>1070700</v>
+        <v>1045500</v>
       </c>
       <c r="F62" s="3">
-        <v>836000</v>
+        <v>1085200</v>
       </c>
       <c r="G62" s="3">
-        <v>486800</v>
+        <v>847300</v>
       </c>
       <c r="H62" s="3">
-        <v>329900</v>
+        <v>493300</v>
       </c>
       <c r="I62" s="3">
-        <v>644100</v>
+        <v>334400</v>
       </c>
       <c r="J62" s="3">
+        <v>652800</v>
+      </c>
+      <c r="K62" s="3">
         <v>696400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>851100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>803100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>850000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>444637000</v>
+        <v>470584000</v>
       </c>
       <c r="E66" s="3">
-        <v>415262000</v>
+        <v>450646000</v>
       </c>
       <c r="F66" s="3">
-        <v>379799000</v>
+        <v>420873000</v>
       </c>
       <c r="G66" s="3">
-        <v>313667000</v>
+        <v>384931000</v>
       </c>
       <c r="H66" s="3">
-        <v>291180000</v>
+        <v>317906000</v>
       </c>
       <c r="I66" s="3">
-        <v>269782000</v>
+        <v>295115000</v>
       </c>
       <c r="J66" s="3">
+        <v>273428000</v>
+      </c>
+      <c r="K66" s="3">
         <v>251384000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>259424000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>258215000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>233997000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>237281000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,48 +3046,54 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>267500</v>
+        <v>271100</v>
       </c>
       <c r="E70" s="3">
-        <v>267500</v>
+        <v>271100</v>
       </c>
       <c r="F70" s="3">
-        <v>267500</v>
+        <v>271100</v>
       </c>
       <c r="G70" s="3">
+        <v>271100</v>
+      </c>
+      <c r="H70" s="3">
+        <v>205500</v>
+      </c>
+      <c r="I70" s="3">
+        <v>205500</v>
+      </c>
+      <c r="J70" s="3">
+        <v>205500</v>
+      </c>
+      <c r="K70" s="3">
         <v>202800</v>
       </c>
-      <c r="H70" s="3">
-        <v>202800</v>
-      </c>
-      <c r="I70" s="3">
-        <v>202800</v>
-      </c>
-      <c r="J70" s="3">
-        <v>202800</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>230200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>249400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>460400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>246600</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22600600</v>
+        <v>25007000</v>
       </c>
       <c r="E72" s="3">
-        <v>20555100</v>
+        <v>22906000</v>
       </c>
       <c r="F72" s="3">
-        <v>18889100</v>
+        <v>20832900</v>
       </c>
       <c r="G72" s="3">
-        <v>16990000</v>
+        <v>19144400</v>
       </c>
       <c r="H72" s="3">
-        <v>15385000</v>
+        <v>17219600</v>
       </c>
       <c r="I72" s="3">
-        <v>13793600</v>
+        <v>15592900</v>
       </c>
       <c r="J72" s="3">
+        <v>13980000</v>
+      </c>
+      <c r="K72" s="3">
         <v>13090000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13330600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12911500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10680700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9746800</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34728000</v>
+        <v>36057900</v>
       </c>
       <c r="E76" s="3">
-        <v>32344000</v>
+        <v>35197300</v>
       </c>
       <c r="F76" s="3">
-        <v>28724200</v>
+        <v>32781100</v>
       </c>
       <c r="G76" s="3">
-        <v>26234200</v>
+        <v>29112400</v>
       </c>
       <c r="H76" s="3">
-        <v>24083400</v>
+        <v>26588700</v>
       </c>
       <c r="I76" s="3">
-        <v>22818400</v>
+        <v>24408900</v>
       </c>
       <c r="J76" s="3">
+        <v>23126800</v>
+      </c>
+      <c r="K76" s="3">
         <v>22618500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24284400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24810300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21692000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21710300</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2888100</v>
+        <v>3364500</v>
       </c>
       <c r="E81" s="3">
-        <v>2463700</v>
+        <v>2927100</v>
       </c>
       <c r="F81" s="3">
-        <v>2472700</v>
+        <v>2497000</v>
       </c>
       <c r="G81" s="3">
-        <v>2306100</v>
+        <v>2506100</v>
       </c>
       <c r="H81" s="3">
-        <v>2146000</v>
+        <v>2337300</v>
       </c>
       <c r="I81" s="3">
-        <v>2012700</v>
+        <v>2175000</v>
       </c>
       <c r="J81" s="3">
+        <v>2039900</v>
+      </c>
+      <c r="K81" s="3">
         <v>1680400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1671000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1647900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1865700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2643900</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>668000</v>
+        <v>790400</v>
       </c>
       <c r="E83" s="3">
-        <v>568700</v>
+        <v>677000</v>
       </c>
       <c r="F83" s="3">
-        <v>501100</v>
+        <v>576400</v>
       </c>
       <c r="G83" s="3">
-        <v>223400</v>
+        <v>507900</v>
       </c>
       <c r="H83" s="3">
-        <v>187500</v>
+        <v>226400</v>
       </c>
       <c r="I83" s="3">
-        <v>192400</v>
+        <v>190000</v>
       </c>
       <c r="J83" s="3">
+        <v>195000</v>
+      </c>
+      <c r="K83" s="3">
         <v>206400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>262900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>291000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>251000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>259000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8199300</v>
+        <v>5694400</v>
       </c>
       <c r="E89" s="3">
-        <v>-3262900</v>
+        <v>3150000</v>
       </c>
       <c r="F89" s="3">
-        <v>5312500</v>
+        <v>-3307000</v>
       </c>
       <c r="G89" s="3">
-        <v>-4676900</v>
+        <v>5384300</v>
       </c>
       <c r="H89" s="3">
-        <v>755800</v>
+        <v>-4740100</v>
       </c>
       <c r="I89" s="3">
-        <v>2809900</v>
+        <v>766000</v>
       </c>
       <c r="J89" s="3">
+        <v>2847900</v>
+      </c>
+      <c r="K89" s="3">
         <v>2198000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1747700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7617400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1269900</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-247800</v>
+        <v>-244900</v>
       </c>
       <c r="E91" s="3">
-        <v>-206900</v>
+        <v>-251200</v>
       </c>
       <c r="F91" s="3">
-        <v>-200100</v>
+        <v>-209700</v>
       </c>
       <c r="G91" s="3">
-        <v>-105800</v>
+        <v>-202800</v>
       </c>
       <c r="H91" s="3">
-        <v>-114800</v>
+        <v>-107200</v>
       </c>
       <c r="I91" s="3">
-        <v>-186500</v>
+        <v>-116400</v>
       </c>
       <c r="J91" s="3">
+        <v>-189100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-92400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-153000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-267500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-246000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-423200</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8902600</v>
+        <v>-8273600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2239200</v>
+        <v>-9022900</v>
       </c>
       <c r="F94" s="3">
-        <v>-16789000</v>
+        <v>-2269400</v>
       </c>
       <c r="G94" s="3">
-        <v>-4079300</v>
+        <v>-17015900</v>
       </c>
       <c r="H94" s="3">
-        <v>-7920700</v>
+        <v>-4134400</v>
       </c>
       <c r="I94" s="3">
-        <v>-5619500</v>
+        <v>-8027700</v>
       </c>
       <c r="J94" s="3">
+        <v>-5695400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3913600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>807100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3090300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2121600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3702100</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-901900</v>
+        <v>-1155700</v>
       </c>
       <c r="E96" s="3">
-        <v>-716900</v>
+        <v>-914100</v>
       </c>
       <c r="F96" s="3">
-        <v>-614800</v>
+        <v>-726600</v>
       </c>
       <c r="G96" s="3">
-        <v>-528900</v>
+        <v>-623100</v>
       </c>
       <c r="H96" s="3">
-        <v>-522900</v>
+        <v>-536000</v>
       </c>
       <c r="I96" s="3">
-        <v>-495100</v>
+        <v>-529900</v>
       </c>
       <c r="J96" s="3">
+        <v>-501800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-404200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-335800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-385900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-546600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-527000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3671700</v>
+        <v>2546000</v>
       </c>
       <c r="E100" s="3">
-        <v>5831600</v>
+        <v>3721300</v>
       </c>
       <c r="F100" s="3">
-        <v>11750300</v>
+        <v>5910400</v>
       </c>
       <c r="G100" s="3">
-        <v>10216800</v>
+        <v>11909100</v>
       </c>
       <c r="H100" s="3">
-        <v>7646000</v>
+        <v>10354900</v>
       </c>
       <c r="I100" s="3">
-        <v>3585000</v>
+        <v>7749300</v>
       </c>
       <c r="J100" s="3">
+        <v>3633500</v>
+      </c>
+      <c r="K100" s="3">
         <v>971400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>577000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1171100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4638300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1655800</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>81100</v>
+        <v>-43400</v>
       </c>
       <c r="E101" s="3">
-        <v>-45500</v>
+        <v>84600</v>
       </c>
       <c r="F101" s="3">
-        <v>21800</v>
+        <v>-46100</v>
       </c>
       <c r="G101" s="3">
-        <v>-22700</v>
+        <v>22100</v>
       </c>
       <c r="H101" s="3">
-        <v>-34100</v>
+        <v>-23000</v>
       </c>
       <c r="I101" s="3">
-        <v>-16800</v>
+        <v>-34500</v>
       </c>
       <c r="J101" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="K101" s="3">
         <v>6200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13600</v>
-      </c>
-      <c r="L101" s="3">
-        <v>3600</v>
       </c>
       <c r="M101" s="3">
         <v>3600</v>
       </c>
       <c r="N101" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3049500</v>
+        <v>-76500</v>
       </c>
       <c r="E102" s="3">
-        <v>284000</v>
+        <v>-2067000</v>
       </c>
       <c r="F102" s="3">
-        <v>295600</v>
+        <v>287900</v>
       </c>
       <c r="G102" s="3">
-        <v>1437900</v>
+        <v>299600</v>
       </c>
       <c r="H102" s="3">
-        <v>447000</v>
+        <v>1457300</v>
       </c>
       <c r="I102" s="3">
-        <v>758700</v>
+        <v>453100</v>
       </c>
       <c r="J102" s="3">
+        <v>769000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-737900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-350100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>922200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>861100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-777400</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5562800</v>
+        <v>5552300</v>
       </c>
       <c r="E21" s="3">
-        <v>4873800</v>
+        <v>4864800</v>
       </c>
       <c r="F21" s="3">
-        <v>4149500</v>
+        <v>4141800</v>
       </c>
       <c r="G21" s="3">
-        <v>4198300</v>
+        <v>4191500</v>
       </c>
       <c r="H21" s="3">
-        <v>3579400</v>
+        <v>3576400</v>
       </c>
       <c r="I21" s="3">
-        <v>3039700</v>
+        <v>3037200</v>
       </c>
       <c r="J21" s="3">
-        <v>2575400</v>
+        <v>2572800</v>
       </c>
       <c r="K21" s="3">
         <v>2527600</v>
@@ -1910,7 +1910,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>27720800</v>
+        <v>28109800</v>
       </c>
       <c r="E41" s="3">
         <v>24227200</v>
@@ -1952,7 +1952,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>138554000</v>
+        <v>140107000</v>
       </c>
       <c r="E42" s="3">
         <v>135729000</v>
@@ -2204,7 +2204,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3280700</v>
+        <v>6561300</v>
       </c>
       <c r="E48" s="3">
         <v>3541200</v>
@@ -2246,7 +2246,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4355900</v>
+        <v>8711800</v>
       </c>
       <c r="E49" s="3">
         <v>4233600</v>
@@ -2372,7 +2372,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1275900</v>
+        <v>1051100</v>
       </c>
       <c r="E52" s="3">
         <v>241000</v>
@@ -2456,7 +2456,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>506913000</v>
+        <v>498325000</v>
       </c>
       <c r="E54" s="3">
         <v>486114000</v>
@@ -2702,7 +2702,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>87266600</v>
+        <v>86799000</v>
       </c>
       <c r="E61" s="3">
         <v>83757300</v>
@@ -2744,7 +2744,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1088200</v>
+        <v>1568700</v>
       </c>
       <c r="E62" s="3">
         <v>1045500</v>
@@ -2912,7 +2912,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>470584000</v>
+        <v>460276000</v>
       </c>
       <c r="E66" s="3">
         <v>450646000</v>
@@ -3140,7 +3140,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25007000</v>
+        <v>25472800</v>
       </c>
       <c r="E72" s="3">
         <v>22906000</v>
@@ -3308,7 +3308,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>36057900</v>
+        <v>37777800</v>
       </c>
       <c r="E76" s="3">
         <v>35197300</v>

--- a/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHG_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15081500</v>
+        <v>15483700</v>
       </c>
       <c r="E8" s="3">
-        <v>11043200</v>
+        <v>11337700</v>
       </c>
       <c r="F8" s="3">
-        <v>11080500</v>
+        <v>11376000</v>
       </c>
       <c r="G8" s="3">
-        <v>11780500</v>
+        <v>12094700</v>
       </c>
       <c r="H8" s="3">
-        <v>10179300</v>
+        <v>10450800</v>
       </c>
       <c r="I8" s="3">
-        <v>8849000</v>
+        <v>9085000</v>
       </c>
       <c r="J8" s="3">
-        <v>8427200</v>
+        <v>8652000</v>
       </c>
       <c r="K8" s="3">
         <v>8236000</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-540500</v>
+        <v>-555000</v>
       </c>
       <c r="E15" s="3">
-        <v>-500500</v>
+        <v>-513800</v>
       </c>
       <c r="F15" s="3">
-        <v>-469200</v>
+        <v>-481700</v>
       </c>
       <c r="G15" s="3">
-        <v>-447300</v>
+        <v>-459300</v>
       </c>
       <c r="H15" s="3">
-        <v>-196700</v>
+        <v>-201900</v>
       </c>
       <c r="I15" s="3">
-        <v>-192400</v>
+        <v>-197500</v>
       </c>
       <c r="J15" s="3">
-        <v>-203400</v>
+        <v>-208800</v>
       </c>
       <c r="K15" s="3">
         <v>-208800</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6703000</v>
+        <v>6881700</v>
       </c>
       <c r="E17" s="3">
-        <v>3697200</v>
+        <v>3795800</v>
       </c>
       <c r="F17" s="3">
-        <v>4705100</v>
+        <v>4830600</v>
       </c>
       <c r="G17" s="3">
-        <v>5212600</v>
+        <v>5351600</v>
       </c>
       <c r="H17" s="3">
-        <v>4305200</v>
+        <v>4420000</v>
       </c>
       <c r="I17" s="3">
-        <v>3579200</v>
+        <v>3674700</v>
       </c>
       <c r="J17" s="3">
-        <v>3853900</v>
+        <v>3956700</v>
       </c>
       <c r="K17" s="3">
         <v>4039300</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8378500</v>
+        <v>8602000</v>
       </c>
       <c r="E18" s="3">
-        <v>7346000</v>
+        <v>7541900</v>
       </c>
       <c r="F18" s="3">
-        <v>6375400</v>
+        <v>6545400</v>
       </c>
       <c r="G18" s="3">
-        <v>6568000</v>
+        <v>6743100</v>
       </c>
       <c r="H18" s="3">
-        <v>5874200</v>
+        <v>6030800</v>
       </c>
       <c r="I18" s="3">
-        <v>5269800</v>
+        <v>5410300</v>
       </c>
       <c r="J18" s="3">
-        <v>4573300</v>
+        <v>4695300</v>
       </c>
       <c r="K18" s="3">
         <v>4196700</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3616600</v>
+        <v>-3713000</v>
       </c>
       <c r="E20" s="3">
-        <v>-3158200</v>
+        <v>-3242500</v>
       </c>
       <c r="F20" s="3">
-        <v>-2810000</v>
+        <v>-2884900</v>
       </c>
       <c r="G20" s="3">
-        <v>-2884300</v>
+        <v>-2961200</v>
       </c>
       <c r="H20" s="3">
-        <v>-2524200</v>
+        <v>-2591500</v>
       </c>
       <c r="I20" s="3">
-        <v>-2422600</v>
+        <v>-2487200</v>
       </c>
       <c r="J20" s="3">
-        <v>-2195400</v>
+        <v>-2254000</v>
       </c>
       <c r="K20" s="3">
         <v>-1872700</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5552300</v>
+        <v>5700400</v>
       </c>
       <c r="E21" s="3">
-        <v>4864800</v>
+        <v>4994500</v>
       </c>
       <c r="F21" s="3">
-        <v>4141800</v>
+        <v>4252200</v>
       </c>
       <c r="G21" s="3">
-        <v>4191500</v>
+        <v>4303300</v>
       </c>
       <c r="H21" s="3">
-        <v>3576400</v>
+        <v>3671800</v>
       </c>
       <c r="I21" s="3">
-        <v>3037200</v>
+        <v>3118200</v>
       </c>
       <c r="J21" s="3">
-        <v>2572800</v>
+        <v>2641400</v>
       </c>
       <c r="K21" s="3">
         <v>2527600</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4761900</v>
+        <v>4888900</v>
       </c>
       <c r="E23" s="3">
-        <v>4187700</v>
+        <v>4299400</v>
       </c>
       <c r="F23" s="3">
-        <v>3565400</v>
+        <v>3660500</v>
       </c>
       <c r="G23" s="3">
-        <v>3683600</v>
+        <v>3781900</v>
       </c>
       <c r="H23" s="3">
-        <v>3350000</v>
+        <v>3439300</v>
       </c>
       <c r="I23" s="3">
-        <v>2847200</v>
+        <v>2923100</v>
       </c>
       <c r="J23" s="3">
-        <v>2377900</v>
+        <v>2441300</v>
       </c>
       <c r="K23" s="3">
         <v>2324000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1212800</v>
+        <v>1245200</v>
       </c>
       <c r="E24" s="3">
-        <v>1103300</v>
+        <v>1132700</v>
       </c>
       <c r="F24" s="3">
-        <v>941800</v>
+        <v>967000</v>
       </c>
       <c r="G24" s="3">
-        <v>951800</v>
+        <v>977200</v>
       </c>
       <c r="H24" s="3">
-        <v>951300</v>
+        <v>976600</v>
       </c>
       <c r="I24" s="3">
-        <v>636100</v>
+        <v>653100</v>
       </c>
       <c r="J24" s="3">
-        <v>259200</v>
+        <v>266100</v>
       </c>
       <c r="K24" s="3">
         <v>514000</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3549100</v>
+        <v>3643800</v>
       </c>
       <c r="E26" s="3">
-        <v>3084500</v>
+        <v>3166700</v>
       </c>
       <c r="F26" s="3">
-        <v>2623600</v>
+        <v>2693500</v>
       </c>
       <c r="G26" s="3">
-        <v>2731800</v>
+        <v>2804600</v>
       </c>
       <c r="H26" s="3">
-        <v>2398700</v>
+        <v>2462700</v>
       </c>
       <c r="I26" s="3">
-        <v>2211100</v>
+        <v>2270100</v>
       </c>
       <c r="J26" s="3">
-        <v>2118700</v>
+        <v>2175200</v>
       </c>
       <c r="K26" s="3">
         <v>1810000</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3364500</v>
+        <v>3454200</v>
       </c>
       <c r="E27" s="3">
-        <v>2927100</v>
+        <v>3005200</v>
       </c>
       <c r="F27" s="3">
-        <v>2497000</v>
+        <v>2563500</v>
       </c>
       <c r="G27" s="3">
-        <v>2506100</v>
+        <v>2573000</v>
       </c>
       <c r="H27" s="3">
-        <v>2337300</v>
+        <v>2399600</v>
       </c>
       <c r="I27" s="3">
-        <v>2175000</v>
+        <v>2233000</v>
       </c>
       <c r="J27" s="3">
-        <v>2039900</v>
+        <v>2094300</v>
       </c>
       <c r="K27" s="3">
         <v>1680400</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3616600</v>
+        <v>3713000</v>
       </c>
       <c r="E32" s="3">
-        <v>3158200</v>
+        <v>3242500</v>
       </c>
       <c r="F32" s="3">
-        <v>2810000</v>
+        <v>2884900</v>
       </c>
       <c r="G32" s="3">
-        <v>2884300</v>
+        <v>2961200</v>
       </c>
       <c r="H32" s="3">
-        <v>2524200</v>
+        <v>2591500</v>
       </c>
       <c r="I32" s="3">
-        <v>2422600</v>
+        <v>2487200</v>
       </c>
       <c r="J32" s="3">
-        <v>2195400</v>
+        <v>2254000</v>
       </c>
       <c r="K32" s="3">
         <v>1872700</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3364500</v>
+        <v>3454200</v>
       </c>
       <c r="E33" s="3">
-        <v>2927100</v>
+        <v>3005200</v>
       </c>
       <c r="F33" s="3">
-        <v>2497000</v>
+        <v>2563500</v>
       </c>
       <c r="G33" s="3">
-        <v>2506100</v>
+        <v>2573000</v>
       </c>
       <c r="H33" s="3">
-        <v>2337300</v>
+        <v>2399600</v>
       </c>
       <c r="I33" s="3">
-        <v>2175000</v>
+        <v>2233000</v>
       </c>
       <c r="J33" s="3">
-        <v>2039900</v>
+        <v>2094300</v>
       </c>
       <c r="K33" s="3">
         <v>1680400</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3364500</v>
+        <v>3454200</v>
       </c>
       <c r="E35" s="3">
-        <v>2927100</v>
+        <v>3005200</v>
       </c>
       <c r="F35" s="3">
-        <v>2497000</v>
+        <v>2563500</v>
       </c>
       <c r="G35" s="3">
-        <v>2506100</v>
+        <v>2573000</v>
       </c>
       <c r="H35" s="3">
-        <v>2337300</v>
+        <v>2399600</v>
       </c>
       <c r="I35" s="3">
-        <v>2175000</v>
+        <v>2233000</v>
       </c>
       <c r="J35" s="3">
-        <v>2039900</v>
+        <v>2094300</v>
       </c>
       <c r="K35" s="3">
         <v>1680400</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>28109800</v>
+        <v>28859400</v>
       </c>
       <c r="E41" s="3">
-        <v>24227200</v>
+        <v>24873300</v>
       </c>
       <c r="F41" s="3">
-        <v>29177200</v>
+        <v>29955300</v>
       </c>
       <c r="G41" s="3">
-        <v>23293000</v>
+        <v>23914100</v>
       </c>
       <c r="H41" s="3">
-        <v>15700600</v>
+        <v>16119300</v>
       </c>
       <c r="I41" s="3">
-        <v>19228800</v>
+        <v>19741600</v>
       </c>
       <c r="J41" s="3">
-        <v>17933300</v>
+        <v>18411500</v>
       </c>
       <c r="K41" s="3">
         <v>19741400</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>140107000</v>
+        <v>143843000</v>
       </c>
       <c r="E42" s="3">
-        <v>135729000</v>
+        <v>139348000</v>
       </c>
       <c r="F42" s="3">
-        <v>127743000</v>
+        <v>131150000</v>
       </c>
       <c r="G42" s="3">
-        <v>120717000</v>
+        <v>123936000</v>
       </c>
       <c r="H42" s="3">
-        <v>84090500</v>
+        <v>86332900</v>
       </c>
       <c r="I42" s="3">
-        <v>26582600</v>
+        <v>27291500</v>
       </c>
       <c r="J42" s="3">
-        <v>24836200</v>
+        <v>25498500</v>
       </c>
       <c r="K42" s="3">
         <v>20629200</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2178400</v>
+        <v>2236400</v>
       </c>
       <c r="E47" s="3">
-        <v>2185300</v>
+        <v>2243600</v>
       </c>
       <c r="F47" s="3">
-        <v>1993300</v>
+        <v>2046500</v>
       </c>
       <c r="G47" s="3">
-        <v>1089600</v>
+        <v>1118700</v>
       </c>
       <c r="H47" s="3">
-        <v>503500</v>
+        <v>516900</v>
       </c>
       <c r="I47" s="3">
-        <v>473500</v>
+        <v>486100</v>
       </c>
       <c r="J47" s="3">
-        <v>265200</v>
+        <v>272300</v>
       </c>
       <c r="K47" s="3">
         <v>290800</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6561300</v>
+        <v>6736300</v>
       </c>
       <c r="E48" s="3">
-        <v>3541200</v>
+        <v>3635600</v>
       </c>
       <c r="F48" s="3">
-        <v>3453700</v>
+        <v>3545800</v>
       </c>
       <c r="G48" s="3">
-        <v>3429000</v>
+        <v>3520400</v>
       </c>
       <c r="H48" s="3">
-        <v>2609000</v>
+        <v>2678600</v>
       </c>
       <c r="I48" s="3">
-        <v>2580100</v>
+        <v>2648900</v>
       </c>
       <c r="J48" s="3">
-        <v>2624100</v>
+        <v>2694100</v>
       </c>
       <c r="K48" s="3">
         <v>2415500</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8711800</v>
+        <v>8944100</v>
       </c>
       <c r="E49" s="3">
-        <v>4233600</v>
+        <v>4346500</v>
       </c>
       <c r="F49" s="3">
-        <v>4110500</v>
+        <v>4220100</v>
       </c>
       <c r="G49" s="3">
-        <v>4169000</v>
+        <v>4280200</v>
       </c>
       <c r="H49" s="3">
-        <v>3240100</v>
+        <v>3326500</v>
       </c>
       <c r="I49" s="3">
-        <v>3204000</v>
+        <v>3289400</v>
       </c>
       <c r="J49" s="3">
-        <v>3169900</v>
+        <v>3254400</v>
       </c>
       <c r="K49" s="3">
         <v>3157100</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1051100</v>
+        <v>1079100</v>
       </c>
       <c r="E52" s="3">
-        <v>241000</v>
+        <v>247400</v>
       </c>
       <c r="F52" s="3">
-        <v>216100</v>
+        <v>221800</v>
       </c>
       <c r="G52" s="3">
-        <v>183800</v>
+        <v>188700</v>
       </c>
       <c r="H52" s="3">
-        <v>325900</v>
+        <v>334600</v>
       </c>
       <c r="I52" s="3">
-        <v>449900</v>
+        <v>461900</v>
       </c>
       <c r="J52" s="3">
-        <v>484500</v>
+        <v>497400</v>
       </c>
       <c r="K52" s="3">
         <v>124000</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>498325000</v>
+        <v>511614000</v>
       </c>
       <c r="E54" s="3">
-        <v>486114000</v>
+        <v>499077000</v>
       </c>
       <c r="F54" s="3">
-        <v>453926000</v>
+        <v>466030000</v>
       </c>
       <c r="G54" s="3">
-        <v>414315000</v>
+        <v>425363000</v>
       </c>
       <c r="H54" s="3">
-        <v>344700000</v>
+        <v>353892000</v>
       </c>
       <c r="I54" s="3">
-        <v>319729000</v>
+        <v>328255000</v>
       </c>
       <c r="J54" s="3">
-        <v>296760000</v>
+        <v>304674000</v>
       </c>
       <c r="K54" s="3">
         <v>274206000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11340400</v>
+        <v>11642800</v>
       </c>
       <c r="E57" s="3">
-        <v>12115300</v>
+        <v>12438300</v>
       </c>
       <c r="F57" s="3">
-        <v>15430100</v>
+        <v>15841500</v>
       </c>
       <c r="G57" s="3">
-        <v>10193400</v>
+        <v>10465300</v>
       </c>
       <c r="H57" s="3">
-        <v>8317500</v>
+        <v>8539300</v>
       </c>
       <c r="I57" s="3">
-        <v>7917300</v>
+        <v>8128400</v>
       </c>
       <c r="J57" s="3">
-        <v>6349400</v>
+        <v>6518700</v>
       </c>
       <c r="K57" s="3">
         <v>8119500</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3865300</v>
+        <v>3968400</v>
       </c>
       <c r="E59" s="3">
-        <v>3006700</v>
+        <v>3086800</v>
       </c>
       <c r="F59" s="3">
-        <v>2607300</v>
+        <v>2676800</v>
       </c>
       <c r="G59" s="3">
-        <v>3035200</v>
+        <v>3116100</v>
       </c>
       <c r="H59" s="3">
-        <v>2810200</v>
+        <v>2885200</v>
       </c>
       <c r="I59" s="3">
-        <v>2534500</v>
+        <v>2602100</v>
       </c>
       <c r="J59" s="3">
-        <v>2338300</v>
+        <v>2400700</v>
       </c>
       <c r="K59" s="3">
         <v>2207600</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>86799000</v>
+        <v>89113700</v>
       </c>
       <c r="E61" s="3">
-        <v>83757300</v>
+        <v>85990800</v>
       </c>
       <c r="F61" s="3">
-        <v>78364700</v>
+        <v>80454400</v>
       </c>
       <c r="G61" s="3">
-        <v>76132300</v>
+        <v>78162500</v>
       </c>
       <c r="H61" s="3">
-        <v>62993900</v>
+        <v>64673800</v>
       </c>
       <c r="I61" s="3">
-        <v>51750600</v>
+        <v>53130600</v>
       </c>
       <c r="J61" s="3">
-        <v>45296600</v>
+        <v>46504500</v>
       </c>
       <c r="K61" s="3">
         <v>41192600</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1568700</v>
+        <v>1610500</v>
       </c>
       <c r="E62" s="3">
-        <v>1045500</v>
+        <v>1073400</v>
       </c>
       <c r="F62" s="3">
-        <v>1085200</v>
+        <v>1114100</v>
       </c>
       <c r="G62" s="3">
-        <v>847300</v>
+        <v>869900</v>
       </c>
       <c r="H62" s="3">
-        <v>493300</v>
+        <v>506500</v>
       </c>
       <c r="I62" s="3">
-        <v>334400</v>
+        <v>343300</v>
       </c>
       <c r="J62" s="3">
-        <v>652800</v>
+        <v>670200</v>
       </c>
       <c r="K62" s="3">
         <v>696400</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>460276000</v>
+        <v>472550000</v>
       </c>
       <c r="E66" s="3">
-        <v>450646000</v>
+        <v>462663000</v>
       </c>
       <c r="F66" s="3">
-        <v>420873000</v>
+        <v>432097000</v>
       </c>
       <c r="G66" s="3">
-        <v>384931000</v>
+        <v>395196000</v>
       </c>
       <c r="H66" s="3">
-        <v>317906000</v>
+        <v>326384000</v>
       </c>
       <c r="I66" s="3">
-        <v>295115000</v>
+        <v>302985000</v>
       </c>
       <c r="J66" s="3">
-        <v>273428000</v>
+        <v>280719000</v>
       </c>
       <c r="K66" s="3">
         <v>251384000</v>
@@ -3056,25 +3056,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>271100</v>
+        <v>278300</v>
       </c>
       <c r="E70" s="3">
-        <v>271100</v>
+        <v>278300</v>
       </c>
       <c r="F70" s="3">
-        <v>271100</v>
+        <v>278300</v>
       </c>
       <c r="G70" s="3">
-        <v>271100</v>
+        <v>278300</v>
       </c>
       <c r="H70" s="3">
-        <v>205500</v>
+        <v>211000</v>
       </c>
       <c r="I70" s="3">
-        <v>205500</v>
+        <v>211000</v>
       </c>
       <c r="J70" s="3">
-        <v>205500</v>
+        <v>211000</v>
       </c>
       <c r="K70" s="3">
         <v>202800</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25472800</v>
+        <v>26152100</v>
       </c>
       <c r="E72" s="3">
-        <v>22906000</v>
+        <v>23516800</v>
       </c>
       <c r="F72" s="3">
-        <v>20832900</v>
+        <v>21388400</v>
       </c>
       <c r="G72" s="3">
-        <v>19144400</v>
+        <v>19654900</v>
       </c>
       <c r="H72" s="3">
-        <v>17219600</v>
+        <v>17678800</v>
       </c>
       <c r="I72" s="3">
-        <v>15592900</v>
+        <v>16008800</v>
       </c>
       <c r="J72" s="3">
-        <v>13980000</v>
+        <v>14352800</v>
       </c>
       <c r="K72" s="3">
         <v>13090000</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>37777800</v>
+        <v>38785200</v>
       </c>
       <c r="E76" s="3">
-        <v>35197300</v>
+        <v>36135900</v>
       </c>
       <c r="F76" s="3">
-        <v>32781100</v>
+        <v>33655300</v>
       </c>
       <c r="G76" s="3">
-        <v>29112400</v>
+        <v>29888700</v>
       </c>
       <c r="H76" s="3">
-        <v>26588700</v>
+        <v>27297700</v>
       </c>
       <c r="I76" s="3">
-        <v>24408900</v>
+        <v>25059700</v>
       </c>
       <c r="J76" s="3">
-        <v>23126800</v>
+        <v>23743500</v>
       </c>
       <c r="K76" s="3">
         <v>22618500</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3364500</v>
+        <v>3454200</v>
       </c>
       <c r="E81" s="3">
-        <v>2927100</v>
+        <v>3005200</v>
       </c>
       <c r="F81" s="3">
-        <v>2497000</v>
+        <v>2563500</v>
       </c>
       <c r="G81" s="3">
-        <v>2506100</v>
+        <v>2573000</v>
       </c>
       <c r="H81" s="3">
-        <v>2337300</v>
+        <v>2399600</v>
       </c>
       <c r="I81" s="3">
-        <v>2175000</v>
+        <v>2233000</v>
       </c>
       <c r="J81" s="3">
-        <v>2039900</v>
+        <v>2094300</v>
       </c>
       <c r="K81" s="3">
         <v>1680400</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>790400</v>
+        <v>811400</v>
       </c>
       <c r="E83" s="3">
-        <v>677000</v>
+        <v>695100</v>
       </c>
       <c r="F83" s="3">
-        <v>576400</v>
+        <v>591700</v>
       </c>
       <c r="G83" s="3">
-        <v>507900</v>
+        <v>521400</v>
       </c>
       <c r="H83" s="3">
-        <v>226400</v>
+        <v>232500</v>
       </c>
       <c r="I83" s="3">
-        <v>190000</v>
+        <v>195100</v>
       </c>
       <c r="J83" s="3">
-        <v>195000</v>
+        <v>200200</v>
       </c>
       <c r="K83" s="3">
         <v>206400</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5694400</v>
+        <v>5846300</v>
       </c>
       <c r="E89" s="3">
-        <v>3150000</v>
+        <v>3234000</v>
       </c>
       <c r="F89" s="3">
-        <v>-3307000</v>
+        <v>-3395200</v>
       </c>
       <c r="G89" s="3">
-        <v>5384300</v>
+        <v>5527900</v>
       </c>
       <c r="H89" s="3">
-        <v>-4740100</v>
+        <v>-4866600</v>
       </c>
       <c r="I89" s="3">
-        <v>766000</v>
+        <v>786400</v>
       </c>
       <c r="J89" s="3">
-        <v>2847900</v>
+        <v>2923800</v>
       </c>
       <c r="K89" s="3">
         <v>2198000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-244900</v>
+        <v>-251400</v>
       </c>
       <c r="E91" s="3">
-        <v>-251200</v>
+        <v>-257900</v>
       </c>
       <c r="F91" s="3">
-        <v>-209700</v>
+        <v>-215300</v>
       </c>
       <c r="G91" s="3">
-        <v>-202800</v>
+        <v>-208200</v>
       </c>
       <c r="H91" s="3">
-        <v>-107200</v>
+        <v>-110100</v>
       </c>
       <c r="I91" s="3">
-        <v>-116400</v>
+        <v>-119500</v>
       </c>
       <c r="J91" s="3">
-        <v>-189100</v>
+        <v>-194100</v>
       </c>
       <c r="K91" s="3">
         <v>-92400</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8273600</v>
+        <v>-8494200</v>
       </c>
       <c r="E94" s="3">
-        <v>-9022900</v>
+        <v>-9263500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2269400</v>
+        <v>-2330000</v>
       </c>
       <c r="G94" s="3">
-        <v>-17015900</v>
+        <v>-17469700</v>
       </c>
       <c r="H94" s="3">
-        <v>-4134400</v>
+        <v>-4244700</v>
       </c>
       <c r="I94" s="3">
-        <v>-8027700</v>
+        <v>-8241800</v>
       </c>
       <c r="J94" s="3">
-        <v>-5695400</v>
+        <v>-5847300</v>
       </c>
       <c r="K94" s="3">
         <v>-3913600</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1155700</v>
+        <v>-1186500</v>
       </c>
       <c r="E96" s="3">
-        <v>-914100</v>
+        <v>-938400</v>
       </c>
       <c r="F96" s="3">
-        <v>-726600</v>
+        <v>-746000</v>
       </c>
       <c r="G96" s="3">
-        <v>-623100</v>
+        <v>-639700</v>
       </c>
       <c r="H96" s="3">
-        <v>-536000</v>
+        <v>-550300</v>
       </c>
       <c r="I96" s="3">
-        <v>-529900</v>
+        <v>-544100</v>
       </c>
       <c r="J96" s="3">
-        <v>-501800</v>
+        <v>-515200</v>
       </c>
       <c r="K96" s="3">
         <v>-404200</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2546000</v>
+        <v>2613900</v>
       </c>
       <c r="E100" s="3">
-        <v>3721300</v>
+        <v>3820500</v>
       </c>
       <c r="F100" s="3">
-        <v>5910400</v>
+        <v>6068000</v>
       </c>
       <c r="G100" s="3">
-        <v>11909100</v>
+        <v>12226700</v>
       </c>
       <c r="H100" s="3">
-        <v>10354900</v>
+        <v>10631000</v>
       </c>
       <c r="I100" s="3">
-        <v>7749300</v>
+        <v>7956000</v>
       </c>
       <c r="J100" s="3">
-        <v>3633500</v>
+        <v>3730400</v>
       </c>
       <c r="K100" s="3">
         <v>971400</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-43400</v>
+        <v>-44500</v>
       </c>
       <c r="E101" s="3">
-        <v>84600</v>
+        <v>86900</v>
       </c>
       <c r="F101" s="3">
-        <v>-46100</v>
+        <v>-47400</v>
       </c>
       <c r="G101" s="3">
-        <v>22100</v>
+        <v>22700</v>
       </c>
       <c r="H101" s="3">
-        <v>-23000</v>
+        <v>-23600</v>
       </c>
       <c r="I101" s="3">
-        <v>-34500</v>
+        <v>-35400</v>
       </c>
       <c r="J101" s="3">
-        <v>-17000</v>
+        <v>-17400</v>
       </c>
       <c r="K101" s="3">
         <v>6200</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-76500</v>
+        <v>-78600</v>
       </c>
       <c r="E102" s="3">
-        <v>-2067000</v>
+        <v>-2122100</v>
       </c>
       <c r="F102" s="3">
-        <v>287900</v>
+        <v>295500</v>
       </c>
       <c r="G102" s="3">
-        <v>299600</v>
+        <v>307600</v>
       </c>
       <c r="H102" s="3">
-        <v>1457300</v>
+        <v>1496200</v>
       </c>
       <c r="I102" s="3">
-        <v>453100</v>
+        <v>465200</v>
       </c>
       <c r="J102" s="3">
-        <v>769000</v>
+        <v>789500</v>
       </c>
       <c r="K102" s="3">
         <v>-737900</v>
